--- a/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.8.xlsx
+++ b/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.8.xlsx
@@ -15,12 +15,2376 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="790">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>booktitle</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>10403908</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>Ozkan-Okay, Merve and Akin, Erdal and Aslan, ÖMER and Kosunalp, Selahattin and Iliev, Teodor and Stoyanov, Ivaylo and Beloev, Ivan</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>A Comprehensive Survey: Evaluating the Efficiency of Artificial Intelligence and Machine Learning Techniques on Cyber Security Solutions</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12229-12256</t>
+  </si>
+  <si>
+    <t>Given the continually rising frequency of cyberattacks, the adoption of artificial intelligence methods, particularly Machine Learning (ML), Deep Learning (DL), and Reinforcement Learning (RL), has become essential in the realm of cybersecurity. These techniques have proven to be effective in detecting and mitigating cyberattacks, which can cause significant harm to individuals, organizations, and even countries. Machine learning algorithms use statistical methods to identify patterns and anomalies in large datasets, enabling security analysts to detect previously unknown threats. Deep learning, a subfield of ML, has shown great potential in improving the accuracy and efficiency of cybersecurity systems, particularly in image and speech recognition. On the other hand, RL is again a subfield of machine learning that trains algorithms to learn through trial and error, making it particularly effective in dynamic environments. We also evaluated the usage of ChatGPT-like AI tools in cyber-related problem domains on both sides, positive and negative. This article provides an overview of how ML, DL, and RL are applied in cybersecurity, including their usage in malware detection, intrusion detection, vulnerability assessment, and other areas. The paper also specifies several research questions to provide a more comprehensive framework to investigate the efficiency of AI and ML models in the cybersecurity domain. The state-of-the-art studies using ML, DL, and RL models are evaluated in each Section based on the main idea, techniques, and important findings. It also discusses these techniques’ challenges and limitations, including data quality, interpretability, and adversarial attacks. Overall, the use of ML, DL, and RL in cybersecurity holds great promise for improving the effectiveness of security systems and enhancing our ability to protect against cyberattacks. Therefore, it is essential to continue developing and refining these techniques to address the ever-evolving nature of cyber threats. Besides, some promising solutions that rely on machine learning, deep learning, and reinforcement learning are susceptible to adversarial attacks, underscoring the importance of factoring in this vulnerability when devising countermeasures against sophisticated cyber threats. We also concluded that ChatGPT can be a valuable tool for cybersecurity, but it should be noted that ChatGPT-like tools can also be manipulated to threaten the integrity, confidentiality, and availability of data.</t>
+  </si>
+  <si>
+    <t>Computer security;Deep learning;Security;Fraud;Prediction algorithms;Telecommunication traffic;Reinforcement learning;Machine learning;Artificial intelligence;Cyberattacks and solutions;deep learning;machine learning;reinforcement learning;AI tools</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3355547</t>
+  </si>
+  <si>
+    <t>2169-3536</t>
+  </si>
+  <si>
+    <t>10214236</t>
+  </si>
+  <si>
+    <t>Anirudh, Rushil and Archibald, Rick and Asif, M. Salman and Becker, Markus M. and Benkadda, Sadruddin and Bremer, Peer-Timo and Budé, Rick H. S. and Chang, C. S. and Chen, Lei and Churchill, R. M. and Citrin, Jonathan and Gaffney, Jim A. and Gainaru, Ana and Gekelman, Walter and Gibbs, Tom and Hamaguchi, Satoshi and Hill, Christian and Humbird, Kelli and Jalas, Sören and Kawaguchi, Satoru and Kim, Gon-Ho and Kirchen, Manuel and Klasky, Scott and Kline, John L. and Krushelnick, Karl and Kustowski, Bogdan and Lapenta, Giovanni and Li, Wenting and Ma, Tammy and Mason, Nigel J. and Mesbah, Ali and Michoski, Craig and Munson, Todd and Murakami, Izumi and Najm, Habib N. and Olofsson, K. Erik J. and Park, Seolhye and Peterson, J. Luc and Probst, Michael and Pugmire, David and Sammuli, Brian and Sawlani, Kapil and Scheinker, Alexander and Schissel, David P. and Shalloo, Rob J. and Shinagawa, Jun and Seong, Jaegu and Spears, Brian K. and Tennyson, Jonathan and Thiagarajan, Jayaraman and Ticoş, Catalin M. and Trieschmann, Jan and Dijk, Jan van and Essen, Brian Van and Ventzek, Peter and Wang, Haimin and Wang, Jason T. L. and Wang, Zhehui and Wende, Kristian and Xu, Xueqiao and Yamada, Hiroshi and Yokoyama, Tatsuya and Zhang, Xinhua</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Plasma Science</t>
+  </si>
+  <si>
+    <t>2022 Review of Data-Driven Plasma Science</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1750-1838</t>
+  </si>
+  <si>
+    <t>Data-driven science and technology offer transformative tools and methods to science. This review article highlights the latest development and progress in the interdisciplinary field of data-driven plasma science (DDPS), i.e., plasma science whose progress is driven strongly by data and data analyses. Plasma is considered to be the most ubiquitous form of observable matter in the universe. Data associated with plasmas can, therefore, cover extremely large spatial and temporal scales, and often provide essential information for other scientific disciplines. Thanks to the latest technological developments, plasma experiments, observations, and computation now produce a large amount of data that can no longer be analyzed or interpreted manually. This trend now necessitates a highly sophisticated use of high-performance computers for data analyses, making artificial intelligence and machine learning vital components of DDPS. This article contains seven primary sections, in addition to the introduction and summary. Following an overview of fundamental data-driven science, five other sections cover widely studied topics of plasma science and technologies, i.e., basic plasma physics and laboratory experiments, magnetic confinement fusion, inertial confinement fusion and high-energy-density physics, space and astronomical plasmas, and plasma technologies for industrial and other applications. The final Section before the summary discusses plasma-related databases that could significantly contribute to DDPS. Each primary Section starts with a brief introduction to the topic, discusses the state-of-the-art developments in the use of data and/or data-scientific approaches, and presents the summary and outlook. Despite the recent impressive signs of progress, the DDPS is still in its infancy. This article attempts to offer a broad perspective on the development of this field and identify where further innovations are required.</t>
+  </si>
+  <si>
+    <t>Plasmas;Physics;Scientific computing;Research and development;Data science;Contracts;Technological innovation;Artificial intelligence;data-driven plasma science;machine learning;nuclear fusion;plasma control;plasma diagnostics;plasma processing;plasma simulation</t>
+  </si>
+  <si>
+    <t>10.1109/TPS.2023.3268170</t>
+  </si>
+  <si>
+    <t>1939-9375</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>10150870</t>
+  </si>
+  <si>
+    <t>INPROCEEDINGS</t>
+  </si>
+  <si>
+    <t>Tounsi, Achraf and Elkefi, Safa and Bhar, Safa Layeb</t>
+  </si>
+  <si>
+    <t>Exploring the Reactions of Early Users of ChatGPT to the Tool using Twitter Data: Sentiment and Topic Analyses</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>Recently, large language models have gained considerable interest due to their impressive performance on different tasks. OpenAl's ChatGPT is a revolutionary language model that has quickly become popular among early adopters. Many users have gone so far as to call it a disruptive technology in many different domains. Its large, pre-trained model provides powerful capabilities already being applied to various use cases. Gaining an understanding of the thoughts and feelings of those who are quick to embrace new technologies is essential, as it can offer valuable insights into the technology's potential successes, failures, and other characteristics. In this paper, a mixed-method study was developed using 463,983 tweets from early ChatGPT users. We first apply topic modeling to identify the maj or topics and then conduct an extensive qualitative sentiment analysis. We observed that most people were pleased with the tool, but some expressed apprehension about its potential ethical and legal implications. After its launch, however, the fears were largely alleviated as people began to use it and recognize its benefits for personal and business purposes. It is important to be aware of any new technology's possible drawbacks and use it responsibly.</t>
+  </si>
+  <si>
+    <t>Ethics;Sentiment analysis;Analytical models;Social networking (online);Law;Blogs;Chatbots;ChatGPT;Artificial Intelligence;OpenAI;Sentiment analysis;Topic Analysis</t>
+  </si>
+  <si>
+    <t>10.1109/IC_ASET58101.2023.10150870</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>2023 IEEE International Conference on Advanced Systems and Emergent Technologies (IC_ASET)</t>
+  </si>
+  <si>
+    <t>10159388</t>
+  </si>
+  <si>
+    <t>ShengJieCheng and QiuxiaZhao and XinYunZhang and Yadikar, Nurbiya and Ubul, Kurban</t>
+  </si>
+  <si>
+    <t>A Review of Knowledge Distillation in Object Detection</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Target detection is a revolutionary advancement in computer vision that provides the ability to identify specific targets in images for a wide variety of applications, including but not limited to video surveillance, face recognition, and autonomous driving. Although target detection has been developed to a high level and can be deployed for applications in several fields, there are still some problems in practice, such as the two-phase detection algorithm has high detection accuracy but slow detection speed, while the one-phase detection algorithm is fast, but its accuracy is poor. We need to combine their respective advantages further for related algorithm research, and we need to reach a balance between detection speed and detection accuracy so that the algorithms can be deployed on edge devices with limited computational power. Knowledge Refinement, as one of the common means of model compression, can solve the above problems, and it reduces the deployment difficulty of the algorithms. In this paper, we summarize the use of knowledge compression on target detection. We conclude the methods mentioned in the paper from an objective and unbiased perspective and suggest possible improvement directions, and we provide an outlook on the future trend of combining distillation learning and target detection. This paper provides a clear overview of the field of target detection and provides an idea of future trends.</t>
+  </si>
+  <si>
+    <t>Feature extraction;Object detection;Targeting;Detectors;Knowledge engineering;Deep learning;Prediction algorithms;target detection;knowledge distillation;deep learning</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2023.3288692</t>
+  </si>
+  <si>
+    <t>10320368</t>
+  </si>
+  <si>
+    <t>Quevedo, Ernesto and Cerny, Tomas and Rodriguez, Alejandro and Rivas, Pablo and Yero, Jorge and Sooksatra, Korn and Zhakubayev, Alibek and Taibi, Davide</t>
+  </si>
+  <si>
+    <t>Legal Natural Language Processing From 2015 to 2022: A Comprehensive Systematic Mapping Study of Advances and Applications</t>
+  </si>
+  <si>
+    <t>145286-145317</t>
+  </si>
+  <si>
+    <t>The surge in legal text production has amplified the workload for legal professionals, making many tasks repetitive and time-consuming. Furthermore, the complexity and specialized language of legal documents pose challenges not just for those in the legal domain but also for the general public. This emphasizes the potential role and impact of Legal Natural Language Processing (Legal NLP). Although advancements have been made in this domain, particularly after 2015 with the advent of Deep Learning and Large Language Models (LLMs), a systematic exploration of this progress until 2022 is nonexistent. In this research, we perform a Systematic Mapping Study (SMS) to bridge this gap. We aim to provide a descriptive statistical analysis of the Legal NLP research between 2015 and 2022. Categorize and sub-categorize primary publications based on their research problems. Identify limitations and areas of improvement in current research. Using a robust search methodology across four reputable indexers, we filtered 536 papers down to 75 pivotal articles. Our findings reveal the diverse methods employed for tasks such as Multiclass Classification, Summarization, and Question Answering in the Legal NLP field. We also highlight resources, challenges, and gaps in current methodologies and emphasize the need for curated datasets, ontologies, and a focus on inherent difficulties like data accessibility. As the legal sector gradually embraces Natural Language Processing (NLP), understanding the capabilities and limitations of Legal NLP becomes vital for ensuring efficient and ethical application. The research offers insights for both Legal NLP researchers and the broader legal community, advocating for continued advancements in automation while also addressing ethical concerns.</t>
+  </si>
+  <si>
+    <t>Law;Natural language processing;Task analysis;Systematics;Information retrieval;Surveys;Search problems;Deep learning;Systematic-mapping-study;legal-NLP;deep learning</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2023.3333946</t>
+  </si>
+  <si>
+    <t>10210121</t>
+  </si>
+  <si>
+    <t>Li, Mengran and Zhang, Yong and Zhang, Wei and Zhao, Shiyu and Piao, Xinglin and Yin, Baocai</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computational Social Systems</t>
+  </si>
+  <si>
+    <t>CSAT: Contrastive Sampling-Aggregating Transformer for Community Detection in Attribute-Missing Networks</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2277-2290</t>
+  </si>
+  <si>
+    <t>Community detection aims to identify dense subgroups of nodes within a network. However, in real-world networks, node attributes are often missing, making traditional methods less effective. In networks with missing attributes, the main challenge of community detection is to deal with the missing attribute information efficiently and use network structure information to make accurate predictions. This article proposes an innovative method called contrastive sampling-aggregating transformer (CSAT) for community detection in attribute-missing networks. CSAT incorporates the contrastive learning principle to capture hidden patterns among nodes and to aggregate information from different samples to create a more robust and accurate methodology for community detection. Specifically, CSAT utilizes a sampling and propagation strategy to obtain different samples and smooth attribute features of the network structure and leverages the Transformer architecture to model the pairwise relationships between nodes. Therefore, our method can address the attribute-missing issue by integrating the auxiliary information from both the network structure and other sources. Extensive experiments on several benchmark datasets demonstrate CSAT’s superior performance compared to the state-of-the-art methods for community detection.</t>
+  </si>
+  <si>
+    <t>Transformers;Feature extraction;Representation learning;Image edge detection;Network analyzers;Interpolation;Task analysis;Attribute-missing graph;community detection;deep graph representation learning;graph contrastive learning;Transformer</t>
+  </si>
+  <si>
+    <t>10.1109/TCSS.2023.3292145</t>
+  </si>
+  <si>
+    <t>2329-924X</t>
+  </si>
+  <si>
+    <t>10417550</t>
+  </si>
+  <si>
+    <t>Surasinghe, Pabasara and Sabapathippillai, Papiththira and Thanikasalam, Kokul</t>
+  </si>
+  <si>
+    <t>Detection and Visualization of Neglected Tropical Skin Diseases Using EfficientNet and Grad-CAM</t>
+  </si>
+  <si>
+    <t>472-477</t>
+  </si>
+  <si>
+    <t>Early skin disease detection is crucial for both effective treatment and the prevention of spreading to others. Neglected Tropical Skin Diseases (skin-NTDs) primarily affect low-income and developing countries, receiving inadequate attention and resources in comparison to other health issues. In this study, an automated system has been developed for detecting five skin-NTDs, capable of recognizing the diseases from raw lesion images without requiring any pre-processing. A dataset was created in the initial phase of the study since no publicly available benchmarks are available. The EfficientNet family of pre-trained models was utilized to train the classifier, and the EfficientNet-B3 was selected based on the experimental results. Additionally, the proposed work has developed a Grad-CAM based visualization technique to identify the most influential regions within images for the classification of specific diseases. The proposed model exhibited an overall classification accuracy of 91.53% on the test data. The proposed work will offer benefits to frontline medical staff and local residents in low-income countries.</t>
+  </si>
+  <si>
+    <t>Data visualization;Benchmark testing;Skin;Data models;Lesions;Diseases;Biomedical imaging;EfficientNet;Grad-CAM;Neglected Tropical Skin Diseases</t>
+  </si>
+  <si>
+    <t>10.1109/ICAC60630.2023.10417550</t>
+  </si>
+  <si>
+    <t>2837-5424</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>2023 5th International Conference on Advancements in Computing (ICAC)</t>
+  </si>
+  <si>
+    <t>10802881</t>
+  </si>
+  <si>
+    <t>Zilberman, Aviram and Offer, Adi and Pincu, Bar and Glickshtein, Yoni and Kant, Roi and Brodt, Oleg and Otung, Andikan and Puzis, Rami and Shabtai, Asaf and Elovici, Yuval</t>
+  </si>
+  <si>
+    <t>IEEE Communications Surveys &amp; Tutorials</t>
+  </si>
+  <si>
+    <t>A Survey on Geolocation on the Internet</t>
+  </si>
+  <si>
+    <t>In the interconnected world of the Internet, IP geolocation -identifying the geographic location of a device, user, or data source given their IP -plays an essential role in numerous applications and services. Over the years, IP geolocation technology has evolved, and it is now a cornerstone of the digital age. However, attaining accurate IP geolocation is not without its challenges. Our comprehensive survey explores IP geolocation, focusing on emerging challenges in security, data geolocation in the cloud, and coping with proxies and VPNs that are used to hide the real IP geolocation. These topics have gained prominence as organizations grapple with safeguarding the location of sensitive information, complying with data privacy regulations, and adapting to the dynamic digital landscape. By synthesizing research, analyzing industry practices, and exploring trends, we equip readers with a taxonomy and insights into the multifaceted world of geolocation and its vital role in shaping the digital future. This comprehensive survey not only enriches understanding of IP geolocation and its challenges but also provides a roadmap for future research, fostering increased awareness and the development of informed strategies for addressing the evolving landscape of geospatial security on the Internet.</t>
+  </si>
+  <si>
+    <t>Geology;Surveys;IP networks;Cloud computing;Tutorials;Industries;Virtual private networks;Market research;User experience;Probes;Geolocation;IP-Geolocation;Passive Geolocation;Active Geolocation;Probes;Measurements;Delay;Landmarks;Localization;Multilateration;Triangulation;Single Radius;RIPE Atlas;Point of Presence;Cloud Geolocation;Data Geolocation;Survey</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2024.3518398</t>
+  </si>
+  <si>
+    <t>1553-877X</t>
+  </si>
+  <si>
+    <t>10682437</t>
+  </si>
+  <si>
+    <t>Pokojná, Hana and Isenberg, Tobias and Bruckner, Stefan and Kozlíková, Barbora and Garrison, Laura</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Visualization and Computer Graphics</t>
+  </si>
+  <si>
+    <t>The Language of Infographics: Toward Understanding Conceptual Metaphor Use in Scientific Storytelling</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>371-381</t>
+  </si>
+  <si>
+    <t>We apply an approach from cognitive linguistics by mapping Conceptual Metaphor Theory (CMT) to the visualization domain to address patterns of visual conceptual metaphors that are often used in science infographics. Metaphors play an essential part in visual communication and are frequently employed to explain complex concepts. However, their use is often based on intuition, rather than following a formal process. At present, we lack tools and language for understanding and describing metaphor use in visualization to the extent where taxonomy and grammar could guide the creation of visual components, e.g., infographics. Our classification of the visual conceptual mappings within scientific representations is based on the breakdown of visual components in existing scientific infographics. We demonstrate the development of this mapping through a detailed analysis of data collected from four domains (biomedicine, climate, space, and anthropology) that represent a diverse range of visual conceptual metaphors used in the visual communication of science. This work allows us to identify patterns of visual conceptual metaphor use within the domains, resolve ambiguities about why specific conceptual metaphors are used, and develop a better overall understanding of visual metaphor use in scientific infographics. Our analysis shows that ontological and orientational conceptual metaphors are the most widely applied to translate complex scientific concepts. To support our findings we developed a visual exploratory tool based on the collected database that places the individual infographics on a spatio-temporal scale and illustrates the breakdown of visual conceptual metaphors.</t>
+  </si>
+  <si>
+    <t>Visualization;Linguistics;Libraries;Biomedical imaging;Visual communication;Uncertainty;Shape;Visualization;visual metaphors;science communication;conceptual metaphors;visual communication</t>
+  </si>
+  <si>
+    <t>10.1109/TVCG.2024.3456327</t>
+  </si>
+  <si>
+    <t>1941-0506</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>9986289</t>
+  </si>
+  <si>
+    <t>INBOOK</t>
+  </si>
+  <si>
+    <t>Cizek, Katerina and Uricchio, William and Anderson, Juanita and Carter, Maria Agui and Agency, Detroit Narrative and Harris, Thomas Allen and Holmes, Maori Karmael and Lachman, Richard and Massiah, Louis and Mertes, Cara and Rafsky, Sara and Stephenson, Michèle and Winger-Bearskin, Amelia and Wolozin, Sarah</t>
+  </si>
+  <si>
+    <t>2 NOTHING ABOUT US WITHOUT US: CO-CREATION WITHIN COMMUNITIES</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>75-147</t>
+  </si>
+  <si>
+    <t>Community-based methods are the most commonly identified forms of media co- creation, both in real life and online. These are projects that put people with firsthand experience at the center of a practice rather than the artistic vision or agenda of a (usually) professional media maker who extracts stories from &amp;#x0022;subjects&amp;#x0022; and then displays them to &amp;#x0022;audiences.&amp;#x0022; Community co-creation makes its watchword &amp;#x0022;nothing about us without us,&amp;#x0022; from the Latin phrase nihil de nobis, sine nobis, an expression that for ancient Roman regimes meant that no policy should be created without the participation of the people who would be affected.</t>
+  </si>
+  <si>
+    <t>Collective Wisdom: Co-Creating Media for Equity and Justice</t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>9780262369862</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9986289</t>
+  </si>
+  <si>
+    <t>10634174</t>
+  </si>
+  <si>
+    <t>Awadallah, Abeer and Eledlebi, Khouloud and Zemerly, Jamal and Puthal, Deepak and Damiani, Ernesto and Taha, Kamal and Kim, Tae-Yeon and Yoo, Paul D. and Choo, Kim-Kwang Raymond and Yim, Man-Sung and Yeun, Chan Yeob</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence-Based Cybersecurity for the Metaverse: Research Challenges and Opportunities</t>
+  </si>
+  <si>
+    <t>The metaverse, known as the next-generation 3D Internet, represents virtual environments that mirror the physical world. It is supported by innovative technologies such as digital twins and extended reality (XR), which elevate user experiences across various fields. However, the metaverse also introduces significant cybersecurity and privacy challenges that remain underexplored. Due to its complex multi-tech infrastructure, the metaverse requires sophisticated, automated, and intelligent cybersecurity measures to mitigate emerging threats effectively. Therefore, this paper is the first to explore Artificial Intelligence (AI)-driven cybersecurity techniques for the metaverse, examining academic and industrial perspectives. First, we provide an overview of the metaverse, presenting a detailed system model, diverse use cases, and insights into its current industrial status. We then present attack models and cybersecurity threats derived from the unique characteristics and technologies of the metaverse. Next, we review AI-driven cybersecurity solutions based on three critical aspects: User authentication, intrusion detection systems (IDS), and the security of digital assets, specifically for Blockchain and Non-fungible Tokens (NFTs). Finally, we highlight challenges and suggest future research opportunities to enhance metaverse security, privacy, and digital asset transactions.</t>
+  </si>
+  <si>
+    <t>Metaverse;Computer security;Artificial intelligence;Surveys;Security;Reviews;Privacy;Artificial Intelligence;biometrics;continuous authentication;cybersecurity;Digital Twins;intrusion detection;metaverse;multimodality;NFTs</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2024.3442475</t>
+  </si>
+  <si>
+    <t>10493738</t>
+  </si>
+  <si>
+    <t>G, Chandra Shekar and K, Sai Teja and D, Nithin Datta and P, Geetha Sri Abhinay and M, Krishna Siva Prasad</t>
+  </si>
+  <si>
+    <t>Extractive Text Summarization of Clinical Text Using Deep Learning Models</t>
+  </si>
+  <si>
+    <t>This project focused on using clinical text data from the PubMed dataset to train transformer models and deep learning models for text summarization. The primary goal was to develop a system capable of identifying and extracting meaningful information from large clinical texts. Using transformer models and deep learning techniques, the goal was to improve the search for information in the medical literature. The ROUGE score, a widely accepted metric for automated summary assessment, was used to analyze the performance of the trained models. This project involved not only training and optimizing transformer and deep learning models to obtain a comprehensive summary, but also comparing their ROUGE scores to determine which model outperformed the others. This comparative analysis was necessary to determine the most effective model for extracting important insights from clinical texts. The findings have the potential to significantly impact information in the clinical domain, providing researchers and healthcare professionals with faster access to critical information.</t>
+  </si>
+  <si>
+    <t>Deep learning;Training;Measurement;Analytical models;Medical services;Transformers;Market research;Text Summarization;NLP;BERT;BART</t>
+  </si>
+  <si>
+    <t>10.1109/ic-ETITE58242.2024.10493738</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>2024 Second International Conference on Emerging Trends in Information Technology and Engineering (ICETITE)</t>
+  </si>
+  <si>
+    <t>10569509</t>
+  </si>
+  <si>
+    <t>Preez, Creswell Du and Van Greunen, Darelle and Foxcroft, Cheryl</t>
+  </si>
+  <si>
+    <t>An Adaptation of DigComp for the South African Context</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>The rapid rise of disruptive technologies is fundamentally changing how we live, work, communicate, and relate to each other. Governments are implementing digital transformation strategies to improve service delivery, citizen participation, and information-sharing mechanisms. South Africa has identified digital skills as a critical challenge to becoming a professional and globally competitive knowledge society. However, the 2016 Global IT Report of the World Economic Forum ranks South Africa 95th out of 139 countries on the skills pillar due to poor education quality in math and science and a lack of effective use of digital opportunities. This paper is based on a PhD study aimed at measuring the digital competence of South African citizens. A unique definition of digital competence has been derived from the literature in pursuit of understanding the characteristics of digital competence. Furthermore, models and frameworks that measure digital competence were evaluated for their suitability to the South African context, which resulted in the selection of the EU DigComp framework. An adaptation of the same was developed for the South African context.</t>
+  </si>
+  <si>
+    <t>Economics;Adaptation models;Biological system modeling;Digital transformation;Government;Education;Medical services;Digital Competence;Digital Competence Assessment Model;Citizens;DigComp;ZA Adapted DigComp Framework</t>
+  </si>
+  <si>
+    <t>10.23919/IST-Africa63983.2024.10569509</t>
+  </si>
+  <si>
+    <t>2576-8581</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2024 IST-Africa Conference (IST-Africa)</t>
+  </si>
+  <si>
+    <t>10930453</t>
+  </si>
+  <si>
+    <t>Sivalingam, Thushan and Gunarathne, Samitha and Mahmood, Nurul Huda and Ali, Samad and Rajatheva, Nandana and Latva-aho, Matti</t>
+  </si>
+  <si>
+    <t>IEEE Internet of Things Journal</t>
+  </si>
+  <si>
+    <t>Novel Learning-Based Multi-User Detection Algorithms for Spatially Correlated MTC</t>
+  </si>
+  <si>
+    <t>Emerging massive machine-type communications service class needs to support many devices while ensuring that scarce radio resources are utilized efficiently. Non-orthogonal multiple access is proposed to minimize the signaling overhead and optimize resource allocation. However, during the initial access, the base station is presented with the challenge of identifying sparsely active devices in the absence of knowledge about the sparsity and channel state information. The user channels in most practical scenarios have common reflection paths, making them partially correlated, which can be exploited to improve the detection performance at the base station. In this context, we formulate a novel multi-user detection (MUD) problem in spatially correlated Rician channels, which we reformulate as a multi-label classification problem utilizing deep learning techniques. We propose two diverse approaches to tackle this problem: ViT-Net, a vision transformer-based architecture, and FAR-Net, a fully activated deep neural network featuring residual connections. Our analysis highlights the significance of spatial correlation for MUD, which can accord around 13% higher overloading ratio compared to the non-correlated scenario. Numerical evaluations demonstrate the effectiveness of the proposed model in addressing spatial correlation compared to the existing deep learning models.</t>
+  </si>
+  <si>
+    <t>Multiuser detection;Correlation;Transformers;NOMA;Rician channels;Deep learning;Iterative methods;Convergence;Computer architecture;6G mobile communication;Multiple user detection;Rician channels;SCMA;spatial correlation;vision-transformer</t>
+  </si>
+  <si>
+    <t>10.1109/JIOT.2025.3552215</t>
+  </si>
+  <si>
+    <t>2327-4662</t>
+  </si>
+  <si>
+    <t>10251249</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>Dingli, Alexiei and Farrugia, David</t>
+  </si>
+  <si>
+    <t>Explore the inner workings of AI along with its limitations and future developments and create your first transparent and trustworthy neuro-symbolic AI system Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesUnderstand symbolic and statistical techniques through examples and detailed explanationsExplore the potential of neuro-symbolic AI for future developments using case studiesDiscover the benefits of combining symbolic AI with modern neural networks to build transparent and high-performance AI solutionsBook DescriptionNeuro-symbolic AI offers the potential to create intelligent systems that possess both the reasoning capabilities of symbolic AI along with the learning capabilities of neural networks. This book provides an overview of AI and its inner mechanics, covering both symbolic and neural network approaches. You’ll begin by exploring the decline of symbolic AI and the recent neural network revolution, as well as their limitations. The book then delves into the importance of building trustworthy and transparent AI solutions using explainable AI techniques. As you advance, you’ll explore the emerging field of neuro-symbolic AI, which combines symbolic AI and modern neural networks to improve performance and transparency. You’ll also learn how to get started with neuro-symbolic AI using Python with the help of practical examples. In addition, the book covers the most promising technologies in the field, providing insights into the future of AI. Upon completing this book, you will acquire a profound comprehension of neuro-symbolic AI and its practical implications. Additionally, you will cultivate the essential abilities to conceptualize, design, and execute neuro-symbolic AI solutions.What you will learnGain an understanding of the intuition behind neuro-symbolic AIDetermine the correct uses that can benefit from neuro-symbolic AIDifferentiate between types of explainable AI techniquesThink about, design, and implement neuro-symbolic AI solutionsCreate and fine-tune your first neuro-symbolic AI systemExplore the advantages of fusing symbolic AI with modern neural networks in neuro-symbolic AI systemsWho this book is forThis book is ideal for data scientists, machine learning engineers, and AI enthusiasts who want to explore the emerging field of neuro-symbolic AI and discover how to build transparent and trustworthy AI solutions. A basic understanding of AI concepts and familiarity with Python programming are needed to make the most of this book.</t>
+  </si>
+  <si>
+    <t>Neuro-Symbolic AI: Design transparent and trustworthy systems that understand the world as you do</t>
+  </si>
+  <si>
+    <t>Packt Publishing</t>
+  </si>
+  <si>
+    <t>9781804616956</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251249</t>
+  </si>
+  <si>
+    <t>10819451</t>
+  </si>
+  <si>
+    <t>Zhao, Yuan and Sun, Jiayu and Zhang, Lihe and Lu, Huchuan</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Circuits and Systems for Video Technology</t>
+  </si>
+  <si>
+    <t>FocusCLIP: Focusing on Anomaly Regions by Visual-Text Discrepancies</t>
+  </si>
+  <si>
+    <t>Few-shot anomaly detection aims to detect defects with only a limited number of normal samples for training. Recent few-shot methods typically focus on object-level features rather than subtle defects within objects, as pretrained models are generally trained on classification or image-text matching datasets. However, object-level features are often insufficient to detect defects, which are characterized by fine-grained texture variations. To address this, we propose FocusCLIP, which consists of a vision-guided branch and a language-guided branch. FocusCLIP leverages the complementary relationship between visual and text modalities to jointly emphasize discrepancies in fine-grained textures of defect regions. Specifically, we design three modules to mine these discrepancies. In the vision-guided branch, we propose the Bidirectional Self-knowledge Distillation (BSD) structure, which identifies anomaly regions through inconsistent representations and accumulates these discrepancies. Within this structure, the Anomaly Capture Module (ACM) is designed to refine features and detect more comprehensive anomalies by leveraging semantic cues from multi-head self-attention. In the language-guided branch, Multi-level Adversarial Class Activation Mapping (MACAM) utilizes foreground-invariant responses to adversarial text prompts, reducing interference from object regions and further focusing on defect regions. Our approach outperforms the state-of-the-art methods in few-shot anomaly detection. Additionally, the language-guided branch within FocusCLIP also demonstrates competitive performance in zero-shot anomaly detection, further validating the effectiveness of our proposed method.</t>
+  </si>
+  <si>
+    <t>Anomaly detection;Feature extraction;Semantics;Training;Focusing;Dispersion;Visualization;Interference;Image segmentation;Overfitting;Anomaly detection;Self-knowledge distillation;Anomaly segmentation;Class activation mapping</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2024.3524784</t>
+  </si>
+  <si>
+    <t>1558-2205</t>
+  </si>
+  <si>
+    <t>10908237</t>
+  </si>
+  <si>
+    <t>Sun, Shengyang and Hua, Jiashen and Feng, Junyi and Wei, Dongxu and Lai, Baisheng and Gong, Xiaojin</t>
+  </si>
+  <si>
+    <t>Delving into Instance Modeling for Weakly Supervised Video Anomaly Detection</t>
+  </si>
+  <si>
+    <t>Weakly-supervised video anomaly detection (WS-VAD) aims to identify fine-grained anomalies from sparse video-level labels, which has gained increasing attention in recent years due to its various applications such as disaster warning and public security. Recent studies typically formulate WS-VAD as a multi-instance learning (MIL) problem. However, they neglect the instance creation process and simply apply a uniform temporal pooling (UTP) operation to obtain the training instances, leading to severe anomaly contamination and dilution. In this paper, we emphasize the importance of the instance modeling procedure and propose two simple yet effective modules, i.e., the dynamic segment merging (DSM) module and the retrieval-augmented anomaly restoration (RA2R) module, to tackle the problem from segment-level and feature-level, respectively. We equip various state-of-the-art WS-VAD models with the proposed methods and conduct thorough experiments on the challenging datasets, e.g., UCF-Crime, and XD-Violence. Results demonstrate the proposed method brings consistent performance improvement and establishes new state-of-the-art.</t>
+  </si>
+  <si>
+    <t>Training;Feature extraction;Merging;Anomaly detection;Annotations;Contamination;Data models;Prototypes;Circuits and systems;Termination of employment;Video anomaly detection;Multi-instance learning;Dynamic merging</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3546766</t>
+  </si>
+  <si>
+    <t>10920066</t>
+  </si>
+  <si>
+    <t>Sural, Shounak and Naren and Rajkumar, Ragunathan Raj</t>
+  </si>
+  <si>
+    <t>ContextVLM: Zero-Shot and Few-Shot Context Understanding for Autonomous Driving Using Vision Language Models</t>
+  </si>
+  <si>
+    <t>468-475</t>
+  </si>
+  <si>
+    <t>In recent years, there has been a notable increase in the development of autonomous vehicle (AV) technologies aimed at improving safety in transportation systems. While AVs have been deployed in the real-world to some extent, a full-scale deployment requires AVs to robustly navigate through challenges like heavy rain, snow, low lighting, construction zones and GPS signal loss in tunnels. To be able to handle these specific challenges, an AV must reliably recognize the physical attributes of the environment in which it operates. In this paper, we define context recognition as the task of accurately identifying environmental attributes for an AV to appropriately deal with them. Specifically, we define 24 environmental contexts capturing a variety of weather, lighting, traffic and road conditions that an AV must be aware of. Motivated by the need to recognize environmental contexts, we create a context recognition dataset called DrivingContexts with more than 1.6 million context-query pairs relevant for an AV. Since traditional supervised computer vision approaches do not scale well to a variety of contexts, we propose a framework called ContextVLM that uses vision-language models to detect contexts using zero- and few-shot approaches. ContextVLM is capable of reliably detecting relevant driving contexts with an accuracy of more than 95% on our dataset, while running in real-time on a 4GB Nvidia GeForce GTX 1050 Ti GPU on an AV with a latency of 10.5 ms per query.</t>
+  </si>
+  <si>
+    <t>Rain;Accuracy;Roads;Lighting;Graphics processing units;Real-time systems;Reliability;Autonomous vehicles;Context modeling;Meteorology</t>
+  </si>
+  <si>
+    <t>10.1109/ITSC58415.2024.10920066</t>
+  </si>
+  <si>
+    <t>2153-0017</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>2024 IEEE 27th International Conference on Intelligent Transportation Systems (ITSC)</t>
+  </si>
+  <si>
+    <t>10777212</t>
+  </si>
+  <si>
+    <t>Shakir, Wajiha Abdul</t>
+  </si>
+  <si>
+    <t>Leveraging Artificial Intelligence for Strategic Advancement: Opportunities and Initiatives at the Miller Center</t>
+  </si>
+  <si>
+    <t>1-17</t>
+  </si>
+  <si>
+    <t>The rise of advanced AI technologies, such as ChatGPT, has presented institutions like the Miller Center with significant opportunities to enhance impact and modernize operations. This paper identifies the key challenges the Center faces in integrating AI into its workflows, focusing on the lack of clarity around how to capitalize on AI’s potential while managing its risks. By exploring AI initiatives at the University of Virginia and evaluating successful AI applications, this paper proposes a range of AI projects tailored to the Miller Center’s needs. These projects, spanning from low-risk tools to cutting-edge applications, are designed to improve data accessibility, streamline research processes, and foster public engagement. The recommendations aim to spark strategic discussions around AI adoption, enabling the Miller Center to leverage AI for both internal efficiency and external impact.</t>
+  </si>
+  <si>
+    <t>Productivity;Leadership;Vocabulary;Technological innovation;Pain;Scholarships;Sparks;Artificial intelligence;Portfolios;Semantic technology</t>
+  </si>
+  <si>
+    <t>10.1109/ICETI63946.2024.10777212</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>2024 1st International Conference on Emerging Technologies for Dependable Internet of Things (ICETI)</t>
+  </si>
+  <si>
+    <t>10870258</t>
+  </si>
+  <si>
+    <t>Bao, Yanqi and Ding, Tianyu and Huo, Jing and Liu, Yaoli and Li, Yuxin and Li, Wenbin and Gao, Yang and Luo, Jiebo</t>
+  </si>
+  <si>
+    <t>3D Gaussian Splatting: Survey, Technologies, Challenges, and Opportunities</t>
+  </si>
+  <si>
+    <t>3D Gaussian Splatting (3DGS) has emerged as a prominent technique with the potential to become a mainstream method for 3D representations. It can effectively transform multi-view images into explicit 3D Gaussian through efficient training, and achieve real-time rendering of novel views. This survey aims to analyze existing 3DGS-related works from multiple intersecting perspectives, including related tasks, technologies, challenges, and opportunities. The primary objective is to provide newcomers with a rapid understanding of the field and to assist researchers in methodically organizing existing technologies and challenges. Specifically, we delve into the optimization, application, and extension of 3DGS, categorizing them based on their focuses or motivations. Additionally, we summarize and classify nine types of technical modules and corresponding improvements identified in existing works. Based on these analyses, we further examine the common challenges and technologies across various tasks, proposing potential research opportunities.</t>
+  </si>
+  <si>
+    <t>Three-dimensional displays;Training;Rendering (computer graphics);Image reconstruction;Covariance matrices;Surveys;Optimization;Electronic mail;Computational efficiency;Vectors;3D Representations;Rendering;3DGS</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3538684</t>
+  </si>
+  <si>
+    <t>10877072</t>
+  </si>
+  <si>
+    <t>Samhan, Ahmad and AlHajHassan, Suhair and Dabaa't, Sara Abu and Elrashidi, Ali</t>
+  </si>
+  <si>
+    <t>A Review of AI-Assisted Impact Analysis for Software Requirements Change: Challenges and Future Directions</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>This paper presents a review study that explores the landscape and challenges of AI-assisted impact analysis in software requirements engineering. The growth of complex and change-prone software systems has highlighted the need for AI techniques—especially machine learning (ML) and natural language processing (NLP)—to be harnessed to improve impact analysis scalability and efficiency. Key challenges identified include data quality issues, scalability constraints, and ethical problems related to bias and accountability. To investigate these challenges and provide insights, a review was conducted across IEEE Xplore, ACM Digital Library, and Google Scholar, cross referencing between keywords that include concepts from the domains of "software requirements", "impact analysis", and "AI-Assisted approaches". Inclusion criteria focused on studies that presents empirical data on AI-assisted impact analysis. This study highlights research gaps and presents insights for overcoming obstacles using emerging technologies such as edge AI in order to enhance post-impact analysis. Findings show that while AI improves traditional impact analysis, further work is necessary to deliver effective, ethical and practical implementations within evolving software contexts.</t>
+  </si>
+  <si>
+    <t>Ethics;Accuracy;Reviews;Scalability;Machine learning;Edge AI;Software systems;Natural language processing;Artificial intelligence;Software engineering;Impact Analysis;Software Requirements;Artificial Intelligence;Natural Language Processing;Software Engineering;AI Challenges;Edge AI</t>
+  </si>
+  <si>
+    <t>10.1109/ACIT62805.2024.10877072</t>
+  </si>
+  <si>
+    <t>2831-4948</t>
+  </si>
+  <si>
+    <t>2024 25th International Arab Conference on Information Technology (ACIT)</t>
+  </si>
+  <si>
+    <t>9826835</t>
+  </si>
+  <si>
+    <t>This book provides a comprehensive resource and thorough treatment in the latest development of Digital RF Memory (DRFM) technology and their key role in maintaining dominance over the electromagnetic spectrum. Part I discusses the use of advanced technology to design transceivers for spectrum sensing using unmanned systems to dominate the electromagnetic spectrum. Part II uses artificial intelligence and machine learning to enable modern spectrum sensing and detection signal processing for electronic support and electronic attack. Another key contribution is examination of counter-DRFM techniques. DRFM and transceiver design details and examples are provided along with the MATLAB software allowing the reader to construct their own embedded DRFM transceivers for unmanned systems. It examines the design trade-offs in developing multiple, structured, false target synthesis DRFM architectures and aids in developing counter-DRFM techniques and distinguish false target from real ones. Written by an expert in the field, and including MATLAB™ design software, this is the only comprehensive book written on the subject of DRFM.</t>
+  </si>
+  <si>
+    <t>Developing Digital RF Memories and Transceiver Technologies for Electromagnetic Warfare</t>
+  </si>
+  <si>
+    <t>Artech</t>
+  </si>
+  <si>
+    <t>9781630816988</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9826835</t>
+  </si>
+  <si>
+    <t>10740984</t>
+  </si>
+  <si>
+    <t>Schiller, Richard J. and Larochelle, David</t>
+  </si>
+  <si>
+    <t>Explore modern data engineering techniques and best practices to build scalable, efficient, and future-proof data processing systems across cloud platformsKey FeaturesArchitect and engineer optimized data solutions in the cloud with best practices for performance and cost-effectivenessExplore design patterns and use cases to balance roles, technology choices, and processes for a future-proof designLearn from experts to avoid common pitfalls in data engineering projectsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionRevolutionize your approach to data processing in the fast-paced business landscape with this essential guide to data engineering. Discover the power of scalable, efficient, and secure data solutions through expert guidance on data engineering principles and techniques. Written by two industry experts with over 60 years of combined experience, it offers deep insights into best practices, architecture, agile processes, and cloud-based pipelines. You’ll start by defining the challenges data engineers face and understand how this agile and future-proof comprehensive data solution architecture addresses them. As you explore the extensive toolkit, mastering the capabilities of various instruments, you’ll gain the knowledge needed for independent research. Covering everything you need, right from data engineering fundamentals, the guide uses real-world examples to illustrate potential solutions. It elevates your skills to architect scalable data systems, implement agile development processes, and design cloud-based data pipelines. The book further equips you with the knowledge to harness serverless computing and microservices to build resilient data applications. By the end, you'll be armed with the expertise to design and deliver high-performance data engineering solutions that are not only robust, efficient, and secure but also future-ready.What you will learnArchitect scalable data solutions within a well-architected frameworkImplement agile software development processes tailored to your organization's needsDesign cloud-based data pipelines for analytics, machine learning, and AI-ready data productsOptimize data engineering capabilities to ensure performance and long-term business valueApply best practices for data security, privacy, and complianceHarness serverless computing and microservices to build resilient, scalable, and trustworthy data pipelinesWho this book is forIf you are a data engineer, ETL developer, or big data engineer who wants to master the principles and techniques of data engineering, this book is for you. A basic understanding of data engineering concepts, ETL processes, and big data technologies is expected. This book is also for professionals who want to explore advanced data engineering practices, including scalable data solutions, agile software development, and cloud-based data processing pipelines.</t>
+  </si>
+  <si>
+    <t>Data Engineering Best Practices: Architect robust and cost-effective data solutions in the cloud era</t>
+  </si>
+  <si>
+    <t>9781803247366</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10740984</t>
+  </si>
+  <si>
+    <t>8793253</t>
+  </si>
+  <si>
+    <t>IEEE Std 1647-2019 (Revision of IEEE Std 1647-2016)</t>
+  </si>
+  <si>
+    <t>IEEE Standard for the Functional Verification Language e</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>1-622</t>
+  </si>
+  <si>
+    <t>The e functional verification language is an application-specific programming language, aimed at automating the task of verifying a hardware or software design with respect to its specification. Verification environments written in e provide a model of the environment in which the design is expected to function, including the kinds of erroneous conditions the design needs to withstand. A typical verification environment is capable of generating user-controlled test inputs with statistically interesting characteristics. Such an environment can check the validity of the design responses. Functional coverage metrics are used to control the verification effort and gauge the quality of the design. e verification environments can be used throughout the design cycle, from a high-level architectural model to a fully realized system. A definition of the e language syntax and semantics and how tool developers and verification engineers should use them are contained in this standard.</t>
+  </si>
+  <si>
+    <t>IEEE Standards;Functional programming;System verification;Dynamic programming;Temporal logic;assertion;concurrent programming;constraint;dynamic verification;functional coverage;functional verification;IEEE 1647;simulation;temporal logic;test generation</t>
+  </si>
+  <si>
+    <t>10.1109/IEEESTD.2019.8793253</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>10251229</t>
+  </si>
+  <si>
+    <t>Oak, Rajvardhan</t>
+  </si>
+  <si>
+    <t>Work on 10 practical projects, each with a blueprint for a different machine learning technique, and apply them in the real world to fight against cybercrime Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesLearn how to frame a cyber security problem as a machine learning problemExamine your model for robustness against adversarial machine learningBuild your portfolio, enhance your resume, and ace interviews to become a cybersecurity data scientistBook DescriptionMachine learning in security is harder than other domains because of the changing nature and abilities of adversaries, high stakes, and a lack of ground-truth data. This book will prepare machine learning practitioners to effectively handle tasks in the challenging yet exciting cybersecurity space. The book begins by helping you understand how advanced ML algorithms work and shows you practical examples of how they can be applied to security-specific problems with Python – by using open source datasets or instructing you to create your own. In one exercise, you’ll also use GPT 3.5, the secret sauce behind ChatGPT, to generate an artificial dataset of fabricated news. Later, you’ll find out how to apply the expert knowledge and human-in-the-loop decision-making that is necessary in the cybersecurity space. This book is designed to address the lack of proper resources available for individuals interested in transitioning into a data scientist role in cybersecurity. It concludes with case studies, interview questions, and blueprints for four projects that you can use to enhance your portfolio. By the end of this book, you’ll be able to apply machine learning algorithms to detect malware, fake news, deep fakes, and more, along with implementing privacy-preserving machine learning techniques such as differentially private ML.What you will learnUse GNNs to build feature-rich graphs for bot detection and engineer graph-powered embeddings and featuresDiscover how to apply ML techniques in the cybersecurity domainApply state-of-the-art algorithms such as transformers and GNNs to solve security-related issuesLeverage ML to solve modern security issues such as deep fake detection, machine-generated text identification, and stylometric analysisApply privacy-preserving ML techniques and use differential privacy to protect user data while training ML modelsBuild your own portfolio with end-to-end ML projects for cybersecurityWho this book is forThis book is for machine learning practitioners interested in applying their skills to solve cybersecurity issues. Cybersecurity workers looking to leverage ML methods will also find this book useful. An understanding of the fundamental machine learning concepts and beginner-level knowledge of Python programming are needed to grasp the concepts in this book. Whether you’re a beginner or an experienced professional, this book offers a unique and valuable learning experience that’ll help you develop the skills needed to protect your network and data against the ever-evolving threat landscape.</t>
+  </si>
+  <si>
+    <t>10 Machine Learning Blueprints You Should Know for Cybersecurity: Protect your systems and boost your defenses with cutting-edge AI techniques</t>
+  </si>
+  <si>
+    <t>9781804611975</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251229</t>
+  </si>
+  <si>
+    <t>10293185</t>
+  </si>
+  <si>
+    <t>Nahin, Paul J. and Simoson, Andrew</t>
+  </si>
+  <si>
+    <t>How a modern radio works, told through mathematics, history, and selected puzzlesThe modern radio is a wonder, and behind that magic is mathematics. In The Mathematical Radio, Paul Nahin explains how radios work, deploying mathematics and historical discussion, accompanied by a steady stream of intriguing puzzles for math buffs to ponder. Beginning with oscillators and circuits, then moving on to AM, FM, and single-sideband radio, Nahin focuses on the elegant mathematics underlying radio technology rather than the engineering. He explores and explains more than a century of key developments, placing them in historical and technological context.Nahin, a prolific author of books on math for the general reader, describes in fascinating detail the mathematical underpinnings of a technology we use daily. He explains and solves, for example, Maxwell’s equations for the electromagnetic field. Readers need only a familarity with advanced high school–level math to follow Nahin’s mathematical discussions. Writing with the nonengineer in mind, Nahin examines topics including impulses in time and frequency, spectrum shifting at the transmitter, the superheterodyne, the physics of single-sideband radio, and FM sidebands. Chapters end with “challenge problems” and an appendix offers solutions, partial answers, and hints. Readers will come away with a new appreciation for the beauty of even the most useful mathematics.</t>
+  </si>
+  <si>
+    <t>AM/FM radio theory;applied mathematics;broadcast radio history;G. H. Hardy;The Mathematical Radio: Inside the Magic of AM, FM, Single-Sideband, and Wifi;Paul J. Nahin;princeton university press;math;mathematics;radio;history of knowledge;history of mathematics;singleband;wifi;electronic inventions;math behind radio;how does radio work;radio engineering;oscillators;circuits;pivotal technology;history important technology;mathematical underpinnings</t>
+  </si>
+  <si>
+    <t>The Mathematical Radio: Inside the Magic of AM, FM, and Single-Sideband</t>
+  </si>
+  <si>
+    <t>Princeton University Press</t>
+  </si>
+  <si>
+    <t>9780691235325</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10293185</t>
+  </si>
+  <si>
+    <t>10614702</t>
+  </si>
+  <si>
+    <t>Weitz, Joshua S.</t>
+  </si>
+  <si>
+    <t>A hands-on approach to quantitative reasoning in the life sciencesQuantitative Biosciences establishes the quantitative principles of how living systems work across scales, drawing on classic and modern discoveries to present a case study approach that links mechanisms, models, and measurements. Each case study is organized around a central question in the life sciences: Are mutations dependent on selection? How do cells respond to fluctuating signals in the environment? How do organisms move in flocks given local sensing? How does the size of an epidemic depend on its initial speed of spread? Each question provides the basis for introducing landmark advances in the life sciences while teaching students—whether from the life sciences, physics, computational sciences, engineering, or mathematics—how to reason quantitatively about living systems given uncertainty.Draws on real-world case studies in molecular and cellular biosciences, organismal behavior and physiology, and populations and ecological communitiesStand-alone lab guides available in Python, R, and MATLAB help students move from learning in the classroom to doing research in practiceHomework exercises build on the lab guides, emphasizing computational model development and analysis rather than pencil-and-paper derivationsSuitable for capstone undergraduate classes, foundational graduate classes, or as part of interdisciplinary courses for students from quantitative backgroundsCan be used as part of conventional, flipped, or hybrid instruction formatsAdditional materials available to instructors, including lesson plans and homework solutions</t>
+  </si>
+  <si>
+    <t>Dynamics;Cell;Population;Et;Mutation;Prey;Function;Equation;Predator;Mutants;Organisms;Scale;Probability;Gene;Total;Input;Interactions;Bacteria;Dynamical;Velocity;Transcription;Motion;Mrna;Stochastic;Voltage;Molecules;Relative;Evolutionary;Levels;Nonlinear;Constant;Coli;Mean;Frequency;Environment;Distribution;Game;Values;Current;Parameters;Concentration;Direction;Feedback;Expression;Event;Force;Neurons;Systems;Equilibrium;Disease;Models;Growth;Fitness;Proteins;Production;Exponentially;Range;Site;Signal;Data;Equivalent;Zero;Gene expression;Resistant;Degradation;Mechanisms;Components;Spread;Oscillations;Principles</t>
+  </si>
+  <si>
+    <t>Quantitative Biosciences: Dynamics across Cells, Organisms, and Populations</t>
+  </si>
+  <si>
+    <t>9780691256481</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10614702</t>
+  </si>
+  <si>
+    <t>10614710</t>
+  </si>
+  <si>
+    <t>Presner, Todd and Bonazzi, Anna and Deblinger, Rachel and Fan, Lizhou and Lee, Michelle and Rosen, Kyle and Yamane, Campbell</t>
+  </si>
+  <si>
+    <t>How computational methods can expand how we see, read, and listen to Holocaust testimonyThe Holocaust is one of the most documented—and now digitized—events in human history. Institutions and archives hold hundreds of thousands of hours of audio and video testimony, composed of more than a billion words in dozens of languages, with millions of pieces of descriptive metadata. It would take several lifetimes to engage with these testimonies one at a time. Computational methods could be used to analyze an entire archive—but what are the ethical implications of “listening” to Holocaust testimonies by means of an algorithm? In this book, Todd Presner explores how the digital humanities can provide both new insights and humanizing perspectives for Holocaust memory and history.Presner suggests that it is possible to develop an “ethics of the algorithm” that mediates between the ethical demands of listening to individual testimonies and the interpretative possibilities of computational methods. He delves into thousands of testimonies and witness accounts, focusing on the analysis of trauma, language, voice, genre, and the archive itself. Tracing the affordances of digital tools that range from early, proto-computational approaches to more recent uses of automatic speech recognition and natural language processing, Presner introduces readers to what may be the ultimate expression of these methods: AI-driven testimonies that use machine learning to process responses to questions, offering a user experience that seems to replicate an actual conversation with a Holocaust survivor.With Ethics of the Algorithm, Presner presents a digital humanities argument for how big data models and computational methods can be used to preserve and perpetuate cultural memory.</t>
+  </si>
+  <si>
+    <t>AI;algorithmic fabulation;archive;big data;cultural analytics;datafication;digital culture;digital media;digital technologies;ethical computation;Ethics of the Algorithm: Digital Humanities and Holocaust Memory;humanistic data science;natural language processing;survivor;Testimony;Todd Presner;virtual;witness;Data;Survivors;Narrative;Algorithm;Holocaust;Jewish;Human;Triplets;USC Shoah foundation;Mala;Jews;Visualization;Digital;Ethical;Semantic;Algorithmic;Memory;Ethics;Nazi;Database;Kimmelmann;Auschwitz;Corpus;War;Death;Trauma;Dimensions in Testimony (DiT);Network;Semantic triplets;History;Holocaust testimony;Judgment;Distant;Technologies;Cultural;Segments;Processes;Violence;Victims;Child;Population;Dutch;Fortunoff;Bomba;Ghetto;Silence;Media;Machine learning;Clusters;Police;Labor;Technology</t>
+  </si>
+  <si>
+    <t>Ethics of the Algorithm: Digital Humanities and Holocaust Memory</t>
+  </si>
+  <si>
+    <t>9780691258980</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10614710</t>
+  </si>
+  <si>
+    <t>10172355</t>
+  </si>
+  <si>
+    <t>Coveney, Peter and Highfield, Roger and Ramakrishnan, Venki</t>
+  </si>
+  <si>
+    <t>The visionary science behind the digital human twins that will enhance our health and our futureVirtual You is a panoramic account of efforts by scientists around the world to build digital twins of human beings, from cells and tissues to organs and whole bodies. These virtual copies will usher in a new era of personalized medicine, one in which your digital twin can help predict your risk of disease, participate in virtual drug trials, shed light on the diet and lifestyle changes that are best for you, and help identify therapies to enhance your well-being and extend your lifespan—but thorny challenges remain.In this deeply illuminating book, Peter Coveney and Roger Highfield reveal what it will take to build a virtual, functional copy of a person in five steps. Along the way, they take you on a fantastic voyage through the complexity of the human body, describing the latest scientific and technological advances—from multiscale modeling to extraordinary new forms of computing—that will make “virtual you” a reality, while also considering the ethical questions inherent to realizing truly predictive medicine.With an incisive foreword by Nobel Prize–winning biologist Venki Ramakrishnan, Virtual You is science at its most astounding, showing how our virtual twins and even whole populations of virtual humans promise to transform our health and our lives in the coming decades.</t>
+  </si>
+  <si>
+    <t>Protein;Molecule;Machine learning;Supercomputer;Simulation;Digital Twins;Prediction;Biology;Calculation;Metabolism;Result;Computer;Technology;Organism;Qubit;Mathematics;Bacteria;Big data;Enzyme;Disease;Parameter;Scientist;Thought;Virtual Cell;Liver;Sovereignty;Theory;Instance (computer science);Photon;Computer simulation;Differential equation;Quantity;Artificial neural network;Global commons;Action potential;Circulatory system;Gene;Human rights;Genomics;Mycoplasma;Stephen Wolfram;Heart;Metamaterial;Emergence;Logic;Cadaver;Digestion;Clinical trial;Antigen;Quantum mechanics;Aneurysm;Activation;Experimental data;Chemist;Mathematician;Measurement;Ordinary differential equation;Email;Chemical process;Receptor (biochemistry);Chemical reaction;Millimetre;Molecular machine;Desertification;Cloud;Cognitive test;Free parameter;Electron microscope;Victor Veselago;Time evolution</t>
+  </si>
+  <si>
+    <t>Virtual You: How Building Your Digital Twin Will Revolutionize Medicine and Change Your Life</t>
+  </si>
+  <si>
+    <t>9780691223407</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10172355</t>
+  </si>
+  <si>
+    <t>9172613</t>
+  </si>
+  <si>
+    <t>Conference Digest</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1-310</t>
+  </si>
+  <si>
+    <t>full conference PDF</t>
+  </si>
+  <si>
+    <t>Space vehicles;Mars;Moon;Robots;Conferences;Space missions;Legged locomotion</t>
+  </si>
+  <si>
+    <t>10.1109/AERO47225.2020.9172613</t>
+  </si>
+  <si>
+    <t>1095-323X</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>2020 IEEE Aerospace Conference</t>
+  </si>
+  <si>
+    <t>10443730</t>
+  </si>
+  <si>
+    <t>Thompson, Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guide machine learning projects from design to production with the techniques in this one-of-a-kind project management guide. No ML skills required In Managing Machine Learning Projects you’ll learn essential machine learning project management techniques, including:  Understanding an ML project’s requirements Setting up the infrastructure for the project and resourcing a team Working with clients and other stakeholders Dealing with data resources and bringing them into the project for use Handling the lifecycle of models in the project Managing the application of ML algorithms Evaluating the performance of algorithms and models Making decisions about which models to adopt for delivery Taking models through development and testing Integrating models with production systems to create effective applications Steps and behaviors for managing the ethical implications of ML technology  Managing Machine Learning Projects is an end-to-end guide for delivering machine learning applications on time and under budget. It lays out tools, approaches, and processes designed to handle the unique challenges of machine learning project management. You’ll follow an in-depth case study through a series of sprints and see how to put each technique into practice. The book’s strong consideration to data privacy, and community impact ensure your projects are ethical, compliant with global legislation, and avoid being exposed to failure from bias and other issues.</t>
+  </si>
+  <si>
+    <t>ML;agile;devops;EDA;process;data;science;privacy;ethics;models;lifecycle;clients;success;practices;resources;stakeholders;sprint;infrastructure;system;security;survey;analysis;team;evaluate</t>
+  </si>
+  <si>
+    <t>Managing Machine Learning Projects: From design to deployment</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>9781633439023</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10443730</t>
+  </si>
+  <si>
+    <t>9547227</t>
+  </si>
+  <si>
+    <t>Gershman, Samuel</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>How a computational framework can account for the successes and failures of human cognitionAt the heart of human intelligence rests a fundamental puzzle: How are we incredibly smart and stupid at the same time? No existing machine can match the power and flexibility of human perception, language, and reasoning. Yet, we routinely commit errors that reveal the failures of our thought processes. What Makes Us Smart makes sense of this paradox by arguing that our cognitive errors are not haphazard. Rather, they are the inevitable consequences of a brain optimized for efficient inference and decision making within the constraints of time, energy, and memory—in other words, data and resource limitations. Framing human intelligence in terms of these constraints, Samuel Gershman shows how a deeper computational logic underpins the “stupid” errors of human cognition.Embarking on a journey across psychology, neuroscience, computer science, linguistics, and economics, Gershman presents unifying principles that govern human intelligence. First, inductive bias: any system that makes inferences based on limited data must constrain its hypotheses in some way before observing data. Second, approximation bias: any system that makes inferences and decisions with limited resources must make approximations. Applying these principles to a range of computational errors made by humans, Gershman demonstrates that intelligent systems designed to meet these constraints yield characteristically human errors.Examining how humans make intelligent and maladaptive decisions, What Makes Us Smart delves into the successes and failures of cognition.</t>
+  </si>
+  <si>
+    <t>What Makes Us Smart: The Computational Logic of Human Cognition</t>
+  </si>
+  <si>
+    <t>9780691225999</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9547227</t>
+  </si>
+  <si>
+    <t>10942366</t>
+  </si>
+  <si>
+    <t>Cruz, Jonathan and Hamlet, Jason</t>
+  </si>
+  <si>
+    <t>A Survey on the Design, Detection, and Prevention of Pre-Silicon Hardware Trojans</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>58509-58547</t>
+  </si>
+  <si>
+    <t>The complexity of the semiconductor design lifecycle and globalized manufacturing process creates concern over the threat of deliberate malicious alterations, or hardware Trojans, being inserted into microelectronic designs. This has resulted in a significant corpus of hardware Trojan research including Trojan design and benchmarking efforts and development of corresponding metrics and detection and prevention techniques, over the last two decades. In this survey, we first highlight efforts in Trojan design and benchmarking, followed by a cataloging of seminal and recent works in Trojan detection and prevention and their accompanied metrics. Given the volume of literature in this field, this survey considers only pre-silicon techniques. We make this distinction between pre- and post-silicon to properly scope and provide appropriate context into the capabilities of existing hardware Trojan literature. Each major section (design, prevention, and detection) is accompanied by insights, and common pitfalls, which we highlight can be addressed by future research.</t>
+  </si>
+  <si>
+    <t>Trojan horses;Payloads;Hardware;Surveys;Prevention and mitigation;Logic gates;Temperature sensors;Switches;Probability;Monitoring;Hardware Trojans;hardware Trojan benchmarking;hardware Trojan detection;hardware Trojan prevention</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2025.3555166</t>
+  </si>
+  <si>
+    <t>10286219</t>
+  </si>
+  <si>
+    <t>Wang, Yuntao and Su, Zhou and Zhang, Ning and Liu, Dongxiao and Xing, Rui and Luan, Tom H. and Shen, Xuemin</t>
+  </si>
+  <si>
+    <t>Security Issues in Metaverse</t>
+  </si>
+  <si>
+    <t>205-239</t>
+  </si>
+  <si>
+    <t>In spite of the promising sign of Metaverse, security and privacy issues are the prime concerns that hinder its further development. A wide range of security breaches and privacy invasions may arise in the Metaverse from the management of massive data streams, pervasive user profiling activities, unfair outcomes of artificial intelligence algorithms, to the safety of physical infrastructures and human bodies. This chapter summarizes the key challenges and existing/potential solutions to build the secure and privacy&amp;#x2010;preserving Metaverse from the following seven aspects (i.e. authentication and access control, data management, privacy, network, economy, governance, and physical/social effects). In the Metaverse, identity authentication and access control play a vital role for massive users/avatars in Metaverse service offering. The threats occurring in the Metaverse may also affect the physical world and threaten human society.</t>
+  </si>
+  <si>
+    <t>Metaverse;Data privacy;Authentication;Access control;Safety;Avatars;Wearable computers</t>
+  </si>
+  <si>
+    <t>10.1002/9781394160013.ch9</t>
+  </si>
+  <si>
+    <t>Metaverse Communication and Computing Networks: Applications, Technologies, and Approaches</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>9781394159994</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10286219</t>
+  </si>
+  <si>
+    <t>10769264</t>
+  </si>
+  <si>
+    <t>Book, Adam and Scott, Stuart</t>
+  </si>
+  <si>
+    <t>Become an AWS certified security specialist, strengthen your cloud defenses, and unlock advanced techniques for incident response, logging, identity management, and moreKey FeaturesStay updated with the most current SCS-C02 exam syllabusGain modern cloud security skills to build robust security solutionsAccess online exam prep resources like mock exams, flashcards, and exam tips to help with preparationPurchase of this book unlocks access to web-based exam prep resources such as mock exams and flashcardsBook DescriptionThe AWS Certified Security – Specialty exam validates your expertise in advanced cloud security, a crucial skill set in today's cloud market. With the latest updates and revised study material, this second edition provides an excellent starting point for your exam preparation. You’ll learn the fundamentals of core services, which are essential prerequisites before delving into the six domains covered in the exam. The book addresses various security threats, vulnerabilities, and attacks, such as DDoS attacks, offering insights into effective mitigation strategies at different layers. You’ll learn different tools available in Amazon Web Services (AWS) to secure your Virtual Private Cloud and allow the correct traffic to travel securely to your workloads. As you progress, you’ll explore the intricacies of AWS EventBridge and IAM services. Additionally, you’ll get lifetime access to supplementary online resources, including mock exams with exam-like timers, detailed solutions, interactive flashcards, and invaluable exam tips, all accessible across various devices such as PCs, tablets, and smartphones. Ultimately, armed with the knowledge and skills acquired from this AWS security guide, you'll be well-prepared to pass the exam and design secure AWS solutions with confidence.What you will learnApply cutting-edge AWS security techniques for robust cloud defensesImplement the AWS shared responsibility model effectivelyConfigure AWS resources to meet specific security requirementsConfigure and manage access controls and policies in AWSManage environments with AWS Security Hub and GuardDutyMonitor and log tasks efficiently using AWS logging and monitoring servicesCreate bucket policies for users with predefined permissions to accessCreate and manage private certificate authorities in AWS ACMWho this book is forThis book is for system administrators or security professionals looking to gain AWS security certification. Prior experience in securing cloud environments is necessary to get the most out of this book.</t>
+  </si>
+  <si>
+    <t>AWS Certified Security – Specialty (SCS-C02) Exam Guide: Get all the guidance you need to pass the AWS (SCS-C02) exam on your first attempt</t>
+  </si>
+  <si>
+    <t>9781837635924</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769264</t>
+  </si>
+  <si>
+    <t>10769765</t>
+  </si>
+  <si>
+    <t>Nanda, Somanath and Moura, Weslley</t>
+  </si>
+  <si>
+    <t>Prepare confidently for the AWS MLS-C01 certification with this comprehensive and up-to-date exam guide, accompanied by web-based tools such as mock exams, flashcards, and exam tipsKey FeaturesGain proficiency in AWS machine learning services to excel in the MLS-C01 examBuild model training and inference pipelines and deploy machine learning models to the AWS cloudPractice on the go with the mobile-friendly bonus website, accessible with the bookPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionThe AWS Certified Machine Learning Specialty (MLS-C01) exam evaluates your ability to execute machine learning tasks on AWS infrastructure. This comprehensive book aligns with the latest exam syllabus, offering practical examples to support your real-world machine learning projects on AWS. Additionally, you'll get lifetime access to supplementary online resources, including mock exams with exam-like timers, detailed solutions, interactive flashcards, and invaluable exam tips, all accessible across various devices—PCs, tablets, and smartphones. Throughout the book, you’ll learn data preparation techniques for machine learning, covering diverse methods for data manipulation and transformation across different variable types. Addressing challenges such as missing data and outliers, the book guides you through an array of machine learning tasks including classification, regression, clustering, forecasting, anomaly detection, text mining, and image processing, accompanied by requisite machine learning algorithms essential for exam success. The book helps you master the deployment of models in production environments and their subsequent monitoring. Equipped with insights from this book and the accompanying mock exams, you'll be fully prepared to achieve the AWS MLS-C01 certification.What you will learnIdentify ML frameworks for specific tasksApply CRISP-DM to build ML pipelinesCombine AWS services to build AI/ML solutionsApply various techniques to transform your data, such as one-hot encoding, binary encoder, ordinal encoding, binning, and text transformationsVisualize relationships, comparisons, compositions, and distributions in the dataUse data preparation techniques and AWS services for batch and real-time data processingCreate training and inference ML pipelines with Sage MakerDeploy ML models in a production environment efficientlyWho this book is forThis book is designed for both students and professionals preparing for the AWS Certified Machine Learning Specialty exam or enhance their understanding of machine learning, with a specific emphasis on AWS. Familiarity with machine learning basics and AWS services is recommended to fully benefit from this book.</t>
+  </si>
+  <si>
+    <t>AWS Certified Machine Learning - Specialty (MLS-C01) Certification Guide: The ultimate guide to passing the MLS-C01 exam on your firs atttempt</t>
+  </si>
+  <si>
+    <t>9781835082904</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769765</t>
+  </si>
+  <si>
+    <t>10769335</t>
+  </si>
+  <si>
+    <t>AG, Sathya and Das, Kunal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverage cloud technologies, proven strategies, and effective frameworks to drive seamless digital transformation. Key FeaturesUnderstand the challenges enterprises face with cloud adoption and the importance of leadership visionLearn how to build the foundation for a vendor agnostic cloud-ready enterpriseDiscover best practices to architect an enterprise cloud strategy and responsibly innovate with emerging technologiesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionIn the past decade, cloud technology has evolved from a mere deployment platform into a driving force of innovation. However, navigating the complexities of cloud adoption, especially with a hybrid approach, presents significant challenges. Solving Hybrid Cloud Challenges for Enterprises is your trusted guide to overcome the problems encountered in this process. Written by a principal architect at Google with 15+ years of experience, this vendor agnostic book begins by exploring the case studies of enterprises stepping into the world of the cloud, highlighting the pivotal role of leadership vision and mindset in driving digital transformation. You’ll explore the basics of cloud technology, its impact on various industries, and the challenges of cloud adoption. As you dive deeper, you’ll find real-world use cases of enterprises that have digitally disrupted their respective industries by innovating in the cloud. From assessing the cloud maturity of an organization and designing a cloud strategy to exploring the various facets of cloud transformation, this book will guide you at every step of the way. Finally, you’ll learn how to lead your organization’s cloud transformation journey with emerging technologies. By the end, you'll be well-equipped to design and architect a scalable, cloud-first IT organization. What you will learnUnderstand the hybrid cloud and multi-cloud paradigmsCultivate leadership will and mindset for crafting successful cloud transformationDesign and architect a scalable and open foundation for a cloud-first IT organizationApply open standards and frameworks to design a vendor-neutral cloud foundationUnderstand the cloud adoption frameworks and conduct maturity assessmentsRealize tangible business value through cloud adoption initiativesWho this book is forThis book is for cloud architects and engineers responsible for and seeking to digitally transform their business through cloud. Enterprise IT leaders will be able to successfully navigate the enterprise cloud transformation complexities with cloud migration strategies, prescriptive frameworks, and practical real-world examples. A basic understanding of enterprise IT functions and operations is assumed. </t>
+  </si>
+  <si>
+    <t>Enterprise-Grade Hybrid and Multi-Cloud Strategies: Proven strategies to digitally transform your business with hybrid and multi-cloud solutions</t>
+  </si>
+  <si>
+    <t>9781804611623</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769335</t>
+  </si>
+  <si>
+    <t>10251167</t>
+  </si>
+  <si>
+    <t>Masood, Adnan and Dawe, Heather and Adeli, Dr. Ehsan</t>
+  </si>
+  <si>
+    <t>Build and deploy your AI models successfully by exploring model governance, fairness, bias, and potential pitfalls Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesLearn ethical AI principles, frameworks, and governanceUnderstand the concepts of fairness assessment and bias mitigationIntroduce explainable AI and transparency in your machine learning modelsBook DescriptionResponsible AI in the Enterprise is a comprehensive guide to implementing ethical, transparent, and compliant AI systems in an organization. With a focus on understanding key concepts of machine learning models, this book equips you with techniques and algorithms to tackle complex issues such as bias, fairness, and model governance. Throughout the book, you’ll gain an understanding of FairLearn and InterpretML, along with Google What-If Tool, ML Fairness Gym, IBM AI 360 Fairness tool, and Aequitas. You’ll uncover various aspects of responsible AI, including model interpretability, monitoring and management of model drift, and compliance recommendations. You’ll gain practical insights into using AI governance tools to ensure fairness, bias mitigation, explainability, privacy compliance, and privacy in an enterprise setting. Additionally, you’ll explore interpretability toolkits and fairness measures offered by major cloud AI providers like IBM, Amazon, Google, and Microsoft, while discovering how to use FairLearn for fairness assessment and bias mitigation. You’ll also learn to build explainable models using global and local feature summary, local surrogate model, Shapley values, anchors, and counterfactual explanations. By the end of this book, you’ll be well-equipped with tools and techniques to create transparent and accountable machine learning models.What you will learnUnderstand explainable AI fundamentals, underlying methods, and techniquesExplore model governance, including building explainable, auditable, and interpretable machine learning modelsUse partial dependence plot, global feature summary, individual condition expectation, and feature interactionBuild explainable models with global and local feature summary, and influence functions in practiceDesign and build explainable machine learning pipelines with transparencyDiscover Microsoft FairLearn and marketplace for different open-source explainable AI tools and cloud platformsWho this book is forThis book is for data scientists, machine learning engineers, AI practitioners, IT professionals, business stakeholders, and AI ethicists who are responsible for implementing AI models in their organizations.</t>
+  </si>
+  <si>
+    <t>Responsible AI in the Enterprise: Practical AI risk management for explainable, auditable, and safe models with hyperscalers and Azure OpenAI</t>
+  </si>
+  <si>
+    <t>9781803249667</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251167</t>
+  </si>
+  <si>
+    <t>10851770</t>
+  </si>
+  <si>
+    <t>Singh, Kamal and Saxena, Rohit and Kumar, Brijesh</t>
+  </si>
+  <si>
+    <t>AI Security: Cyber Threats and Threat-Informed Defense</t>
+  </si>
+  <si>
+    <t>305-312</t>
+  </si>
+  <si>
+    <t>Artificial intelligence has emerged as a revolution-ary technology offering substantial advances over traditional information and communication systems. However, the increasing prevalence of AI introduces new vulnerabilities, making AI-driven systems more susceptible to cybercriminal activities and security threats aimed at disrupting their operations. This study comprehensively examines the cybersecurity challenges and threats associated with AI applications, emphasizing the core principles of information security. Confidentiality, Integrity, and Availability. The study categorizes AI-related threats into two key areas: first, threats targeting critical AI components such as data, models, and algorithms, and second, the malicious exploitation of AI to conduct sophisticated, large-scale cyberattacks. This analysis contributes to a threat-informed defense by examining risk assessment methodologies to address these challenges, under-scoring the need for robust security frameworks. Furthermore, it leverages the Adversarial Threat Landscape for Artificial Intelligence Systems (ATLAS) guidelines, offering future research directions to enhance AI security, and providing practical recom-mendations for securing AI across diverse deployment scenarios.</t>
+  </si>
+  <si>
+    <t>Communication systems;Information security;Data models;Risk management;Artificial intelligence;Computer crime;Guidelines;Artificial Intelligence;AI Security;Machine Learning;Security for AI;Security Risk Management</t>
+  </si>
+  <si>
+    <t>10.1109/CSNet64211.2024.10851770</t>
+  </si>
+  <si>
+    <t>2768-0029</t>
+  </si>
+  <si>
+    <t>2024 8th Cyber Security in Networking Conference (CSNet)</t>
+  </si>
+  <si>
+    <t>9880528</t>
+  </si>
+  <si>
+    <t>Wang, Yuntao and Su, Zhou and Zhang, Ning and Xing, Rui and Liu, Dongxiao and Luan, Tom H. and Shen, Xuemin</t>
+  </si>
+  <si>
+    <t>A Survey on Metaverse: Fundamentals, Security, and Privacy</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>319-352</t>
+  </si>
+  <si>
+    <t>Metaverse, as an evolving paradigm of the next-generation Internet, aims to build a fully immersive, hyper spatiotemporal, and self-sustaining virtual shared space for humans to play, work, and socialize. Driven by recent advances in emerging technologies such as extended reality, artificial intelligence, and blockchain, metaverse is stepping from science fiction to an upcoming reality. However, severe privacy invasions and security breaches (inherited from underlying technologies or emerged in the new digital ecology) of metaverse can impede its wide deployment. At the same time, a series of fundamental challenges (e.g., scalability and interoperability) can arise in metaverse security provisioning owing to the intrinsic characteristics of metaverse, such as immersive realism, hyper spatiotemporality, sustainability, and heterogeneity. In this paper, we present a comprehensive survey of the fundamentals, security, and privacy of metaverse. Specifically, we first investigate a novel distributed metaverse architecture and its key characteristics with ternary-world interactions. Then, we discuss the security and privacy threats, present the critical challenges of metaverse systems, and review the state-of-the-art countermeasures. Finally, we draw open research directions for building future metaverse systems.</t>
+  </si>
+  <si>
+    <t>Metaverse;Security;Privacy;Artificial intelligence;Blockchains;Spatiotemporal phenomena;Scalability;Metaverse;security;privacy;distributed virtual worlds;extended reality;artificial intelligence;blockchain</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2022.3202047</t>
+  </si>
+  <si>
+    <t>Firstquarter</t>
+  </si>
+  <si>
+    <t>9519809</t>
+  </si>
+  <si>
+    <t>Tibbits, Skylar</t>
+  </si>
+  <si>
+    <t>From the visionary founder of the Self-Assembly Lab at MIT, a manifesto for the dawning age of active materialsThings in life tend to fall apart. Cars break down. Buildings fall into disrepair. Personal items deteriorate. Yet today's researchers are exploiting newly understood properties of matter to program materials that physically sense, adapt, and fall together instead of apart. These materials open new directions for industrial innovation and challenge us to rethink the way we build and collaborate with our environment. Things Fall Together is a provocative guide to this emerging, often mind-bending reality, presenting a bold vision for harnessing the intelligence embedded in the material world.Drawing on his pioneering work on self-assembly and programmable material technologies, Skylar Tibbits lays out the core, frequently counterintuitive ideas and strategies that animate this new approach to design and innovation. From furniture that builds itself to shoes printed flat that jump into shape to islands that grow themselves, he describes how matter can compute and exhibit behaviors that we typically associate with biological organisms, and challenges our fundamental assumptions about what physical materials can do and how we can interact with them. Intelligent products today often rely on electronics, batteries, and complicated mechanisms. Tibbits offers a different approach, showing how we can design simple and elegant material intelligence that may one day animate and improve itself—and along the way help us build a more sustainable future.Compelling and beautifully designed, Things Fall Together provides an insider's perspective on the materials revolution that lies ahead, revealing the spectacular possibilities for designing active materials that can self-assemble, collaborate, and one day even evolve and design on their own.</t>
+  </si>
+  <si>
+    <t>Things Fall Together: A Guide to the New Materials Revolution</t>
+  </si>
+  <si>
+    <t>9780691189710</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9519809</t>
+  </si>
+  <si>
+    <t>10251173</t>
+  </si>
+  <si>
+    <t>Shrivastava, Saurabh and Srivastav, Neelanjali and Artasanchez, Alberto and Sayed, Imtiaz and Ph.D, Dr. Siddhartha Choubey,</t>
+  </si>
+  <si>
+    <t>Become a master Solutions Architect with this comprehensive guide, featuring cloud design patterns and real-world solutions for building scalable, secure, and highly available systems Purchase of the print or Kindle book includes a free eBook in PDF format.Key FeaturesGain expertise in automating, networking, migrating, and adopting cloud technologies using AWSUse streaming analytics, big data, AI/ML, IoT, quantum computing, and blockchain to transform your businessUpskill yourself as an AWS solutions architect and explore details of the new AWS certificationBook DescriptionAre you excited to harness the power of AWS and unlock endless possibilities for your business? Look no further than the second edition of AWS for Solutions Architects! Packed with all-new content, this book is a must-have guide for anyone looking to build scalable cloud solutions and drive digital transformation using AWS.  This updated edition offers in-depth guidance for building cloud solutions using AWS. It provides detailed information on AWS well-architected design pillars and cloud-native design patterns. You'll learn about networking in AWS, big data and streaming data processing, CloudOps, and emerging technologies such as machine learning, IoT, and blockchain. Additionally, the book includes new sections on storage in AWS, containers with ECS and EKS, and data lake patterns, providing you with valuable insights into designing industry-standard AWS architectures that meet your organization's technological and business requirements. Whether you're an experienced solutions architect or just getting started with AWS, this book has everything you need to confidently build cloud-native workloads and enterprise solutions.What you will learnOptimize your Cloud Workload using the AWS Well-Architected FrameworkLearn methods to migrate your workload using the AWS Cloud Adoption FrameworkApply cloud automation at various layers of application workload to increase efficiencyBuild a landing zone in AWS and hybrid cloud setups with deep networking techniquesSelect reference architectures for business scenarios, like data lakes, containers, and serverless appsApply emerging technologies in your architecture, including AI/ML, IoT and blockchainWho this book is forThis book is for application and enterprise architects, developers, and operations engineers who want to become well versed with AWS architectural patterns, best practices, and advanced techniques to build scalable, secure, highly available, highly tolerant, and cost-effective solutions in the cloud. Existing AWS users are bound to learn the most, but it will also help those curious about how leveraging AWS can benefit their organization. Prior knowledge of any computing language is not needed, and there’s little to no code. Prior experience in software architecture design will prove helpful.</t>
+  </si>
+  <si>
+    <t>AWS for Solutions Architects: The definitive guide to AWS Solutions Architecture for migrating to, building, scaling, and succeeding in the cloud</t>
+  </si>
+  <si>
+    <t>9781803244822</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251173</t>
+  </si>
+  <si>
+    <t>10710525</t>
+  </si>
+  <si>
+    <t>Martinez, David R. and Kifle, Bruke M.</t>
+  </si>
+  <si>
+    <t>7 Robust AI Systems</t>
+  </si>
+  <si>
+    <t>223-257</t>
+  </si>
+  <si>
+    <t>As we will discuss in this chapter, artificial intelligence (AI) outputs are very susceptible to minor changes to machine learning (ML) models. Unfortunately, what goes on inside these models, in terms of learning from data, is difficult to explain. There are significant research efforts dedicated to understanding AI system vulnerabilities caused by either intentional or unintentional means. There are also approaches proposed toward explainability of the ML results&amp;#x2014;explainable AI (XAI), as well as mitigation techniques against AI system vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence: A Systems Approach from Architecture Principles to Deployment</t>
+  </si>
+  <si>
+    <t>9780262378703</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10710525</t>
+  </si>
+  <si>
+    <t>9272473</t>
+  </si>
+  <si>
+    <t>RESPECT 2020 Prepint proceedings</t>
+  </si>
+  <si>
+    <t>1-246</t>
+  </si>
+  <si>
+    <t>Full conference PDF.</t>
+  </si>
+  <si>
+    <t>10.1109/RESPECT49803.2020.9272473</t>
+  </si>
+  <si>
+    <t>2020 Research on Equity and Sustained Participation in Engineering, Computing, and Technology (RESPECT)</t>
+  </si>
+  <si>
+    <t>8979377</t>
+  </si>
+  <si>
+    <t>Shafique, Muhammad and Naseer, Mahum and Theocharides, Theocharis and Kyrkou, Christos and Mutlu, Onur and Orosa, Lois and Choi, Jungwook</t>
+  </si>
+  <si>
+    <t>IEEE Design &amp; Test</t>
+  </si>
+  <si>
+    <t>Robust Machine Learning Systems: Challenges,Current Trends, Perspectives, and the Road Ahead</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>30-57</t>
+  </si>
+  <si>
+    <t>Currently, machine learning (ML) techniques are at the heart of smart cyber-physical systems (CPSs) and Internet-of-Things (loT). This article discusses various challenges and probable solutions for security attacks on these ML-inspired hardware and software techniques.</t>
+  </si>
+  <si>
+    <t>Training data;Artificial neural networks;Reliability;Smart devices;Hardware;Machine learning</t>
+  </si>
+  <si>
+    <t>10.1109/MDAT.2020.2971217</t>
+  </si>
+  <si>
+    <t>2168-2364</t>
+  </si>
+  <si>
+    <t>10614164</t>
+  </si>
+  <si>
+    <t>Fraga-Lamas, Paula and Fernández-Caramés, Tiago M. and Rosado da Cruz, António M. and Lopes, Sergio Ivan</t>
+  </si>
+  <si>
+    <t>An Overview of Blockchain for Industry 5.0: Towards Human-Centric, Sustainable and Resilient Applications</t>
+  </si>
+  <si>
+    <t>116162-116201</t>
+  </si>
+  <si>
+    <t>Industry 5.0 is an evolving concept that aims to enhance the way modern factories operate by seeking long-term growth, production efficiency and the well-being of industrial workers. Human-centricity, sustainability and resilience are the three pillars of Industry 5.0, which are developed on Industry 4.0 enabling technologies. One of the most compelling technologies to help implement the communications architecture proposed by Industry 5.0 is blockchain, which can provide trustworthy, secured and decentralized information to different industrial domains. This article provides an analysis of the transition between Industry 4.0 and Industry 5.0 paradigms. Moreover, it examines the benefits and challenges that arise when using blockchain to develop Industry 5.0 applications and analyzes the design factors that should be considered when developing this type of applications. Furthermore, it presents a thorough review on the most relevant blockchain-based applications for Industry 5.0 pillars. Therefore, the main goal of this article is to provide a comprehensive and detailed guide for future Industry 5.0 developers that allows for determining how blockchain might benefit the next generation of human-centric, sustainable, and resilient applications.</t>
+  </si>
+  <si>
+    <t>Fifth Industrial Revolution;Blockchains;Fourth Industrial Revolution;Industries;Production facilities;Europe;Sustainable development;Human factors;Sustainable development;Smart manufacturing;Industry 5.0;blockchain;human-centricity;sustainability;resilience;smart factories;Society 5.0</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3435374</t>
+  </si>
+  <si>
+    <t>8541765</t>
+  </si>
+  <si>
+    <t>EuMC 2018 Abstract Cards</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>1-413</t>
+  </si>
+  <si>
+    <t>Provides an abstract for each of the keynote presentations and may include a brief professional biography of each presenter. The complete presentations were not made available for publication as part of the conference proceedings.</t>
+  </si>
+  <si>
+    <t>Power generation;Linearity;Varactors;Power transmission lines;MODFETs;HEMTs;Wide band gap semiconductors</t>
+  </si>
+  <si>
+    <t>10.23919/EuMC.2018.8541765</t>
+  </si>
+  <si>
+    <t>2018 48th European Microwave Conference (EuMC)</t>
+  </si>
+  <si>
+    <t>10839366</t>
+  </si>
+  <si>
+    <t>Dorigo, Tommaso and Brown, Gary D. and Casonato, Carlo and Cerdà, Artemi and Ciarrochi, Joseph and da Lio, Mauro and D’Souza, Nicole and Gauger, Nicolas R. and Hayes, Steven C. and Hofmann, Stefan G. and Johansson, Robert and Liwicki, Marcus and Lotte, Fabien and Nieto, Juan J. and Olivato, Giulia and Parnes, Peter and Perry, George and Plebe, Alice and Rao, Idupulapati M. and Rezaei, Nima and Sandin, Fredrik and Ustyuzhanin, Andrey and Vallortigara, Giorgio and Vischia, Pietro and Yazdanpanah, Niloufar</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence in Science and Society: The Vision of USERN</t>
+  </si>
+  <si>
+    <t>15993-16054</t>
+  </si>
+  <si>
+    <t>The recent rise in relevance and diffusion of Artificial Intelligence (AI)-based systems and the increasing number and power of applications of AI methods invites a profound reflection on the impact of these innovative systems on scientific research and society at large. The Universal Scientific Education and Research Network (USERN), an organization that promotes initiatives to support interdisciplinary science and education across borders and actively works to improve science policy, collects here the vision of its Advisory Board members, together with a selection of AI experts, to summarize how we see developments in this exciting technology impacting science and society in the foreseeable future. In this review, we first attempt to establish clear definitions of intelligence and consciousness, then provide an overview of AI’s state of the art and its applications. A discussion of the implications, opportunities, and liabilities of the diffusion of AI for research in a few representative fields of science follows this. Finally, we address the potential risks of AI to modern society, suggest strategies for mitigating those risks, and present our conclusions and recommendations.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Earth;Large language models;Hands;Surveys;Stress;Planetary orbits;Focusing;Volcanoes;Uncertainty;Artificial intelligence;scientific research;science ethics;computer science;physics;medicine;psychology;mathematics;geography;agriculture</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2025.3529357</t>
+  </si>
+  <si>
+    <t>9519677</t>
+  </si>
+  <si>
+    <t>Bessire, Lucas</t>
+  </si>
+  <si>
+    <t>An intimate reckoning with aquifer depletion in America's heartlandThe Ogallala aquifer has nourished life on the American Great Plains for millennia. But less than a century of unsustainable irrigation farming has taxed much of the aquifer beyond repair. The imminent depletion of the Ogallala and other aquifers around the world is a defining planetary crisis of our times. Running Out offers a uniquely personal account of aquifer depletion and the deeper layers through which it gains meaning and force.Anthropologist Lucas Bessire journeyed back to western Kansas, where five generations of his family lived as irrigation farmers and ranchers, to try to make sense of this vital resource and its loss. His search for water across the drying High Plains brings the reader face to face with the stark realities of industrial agriculture, eroding democratic norms, and surreal interpretations of a looming disaster. Yet the destination is far from predictable, as the book seeks to move beyond the words and genres through which destruction is often known. Instead, this journey into the morass of eradication offers a series of unexpected discoveries about what it means to inherit the troubled legacies of the past and how we can take responsibility for a more inclusive, sustainable future.An urgent and unsettling meditation on environmental change, Running Out is a revelatory account of family, complicity, loss, and what it means to find your way back home.</t>
+  </si>
+  <si>
+    <t>belonging;conservative America;conservative values;environment;environmental crisis;ethnography;exclusion;family histories;farm families;global warming;Great Plains;groundwater depletion;Heartland;Julene Bair;memoir;memory;Ogallala Blue;partisanship;polarization;resource depletion;rural life;Sarah Smarsh;sustainability;the best memoirs;The Ogallala Road;water crisis;water wars;William Ashworth</t>
+  </si>
+  <si>
+    <t>Running Out: In Search of Water on the High Plains</t>
+  </si>
+  <si>
+    <t>9780691212654</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9519677</t>
+  </si>
+  <si>
+    <t>10702447</t>
+  </si>
+  <si>
+    <t>Gebru, Timnit and Denton, Remi</t>
+  </si>
+  <si>
+    <t>The field of computer vision is now a multi-billion dollar enterprise, with its use in surveillance applications driving this large market share. In the last six years, computer vision researchers have started to discuss the risks and harms of some of these systems, mostly using the lens of fairness introduced in the machine learning literature to perform this analysis. While this lens is useful to uncover and mitigate a narrow segment of the harms that can be enacted through computer vision systems, it is only one of the toolkits that researchers have available to uncover and mitigate the harms of the systems they build. In this monograph, a wide range of risks and harms that can be enacted through the development and deployment of computer vision systems are discussed, in addition to some existing technical approaches to mitigating these harms and the shortcomings of these mitigation strategies. Thereafter, computer vision researchers are introduced to harm mitigation strategies proposed by journalists, human rights activists, individuals harmed by computer vision systems, and researchers in disciplines ranging from sociology to physics. The monograph concludes by listing principles that researchers can follow to build community-rooted computer vision tools in the public interest. The authors hope that this monograph can serve as a starting point for researchers exploring the harms of current computer vision systems and attempting to steer the field into community-rooted work.</t>
+  </si>
+  <si>
+    <t>Beyond Fairness in Computer Vision: A Holistic Approach to Mitigating Harms and Fostering Community-Rooted Computer Vision Research</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>9781638283553</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10702447</t>
+  </si>
+  <si>
+    <t>10251363</t>
+  </si>
+  <si>
+    <t>Seferlis, Chris and Nellis, Christopher and Roberts, Andy</t>
+  </si>
+  <si>
+    <t>Streamline your complex processes and optimize your organization's operational efficiency, cost-effectiveness, and customer experience by unlocking the potential of Microsoft Azure Cognitive Services and OpenAI Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesMinimize costs and maximize operations by automating mundane activities using AI toolsIdeate solutions using real-world examples for manufacturing process improvement with AIMaster TCO and ROI analysis for implementing AI solutions, automating operations, and ideating innovative manufacturing solutions with real-world examplesBook DescriptionAzure Cognitive Services and OpenAI are a set of pre-built artificial intelligence (AI) solution APIs that can be leveraged from existing applications, allowing customers to take advantage of Microsoft’s award-winning Vision, Speech, Text, Decision, and GPT-4 AI capabilities. With Practical Guide to Azure Cognitive Services, you’ll work through industry-specific examples of implementations to get a head-start in your production journey. You’ll begin with an overview of the categorization of Azure Cognitive Services and the benefits of embracing AI solutions for practical business applications. After that, you’ll explore the benefits of using Azure Cognitive Services to optimize efficiency and improve predictive capabilities. Then, you’ll learn how to leverage Vision capabilities for quality control, Form Recognizer to streamline supply chain nuances, language understanding to improve customer service, and Cognitive Search for next-generation knowledge-mining solutions. By the end of this book, you’ll be able to implement various Cognitive Services solutions that will help you enhance efficiency, reduce costs, and improve the customer experience at your organization. You’ll also be well equipped to automate mundane tasks by reaping the full potential of OpenAI.What you will learnMaster cost-effective deployment of Azure Cognitive ServicesDevelop proven solutions from an architecture and development standpointUnderstand how Cognitive Services are deployed and customizedEvaluate various uses of Cognitive Services with different mediumsDisseminate Azure costs for Cognitive Services workloads smoothlyDeploy next-generation Knowledge Mining solutions with Cognitive SearchExplore the current and future journey of OpenAIUnderstand the value proposition of different AI projectsWho this book is forThis book is for data scientists, technology leaders, and software engineers looking to implement Azure Cognitive Services with the help of sample use cases derived from success stories. Experience with Python as well as an overall understanding of the Azure Portal with related services such as Azure Data Lake Storage and Azure Functions will help you make the most of this book.</t>
+  </si>
+  <si>
+    <t>Practical Guide to Azure Cognitive Services: Leverage the power of Azure OpenAI to optimize operations, reduce costs, and deliver cutting-edge AI solutions</t>
+  </si>
+  <si>
+    <t>9781801810609</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251363</t>
+  </si>
+  <si>
+    <t>9969968</t>
+  </si>
+  <si>
+    <t>Bakker, Karen</t>
+  </si>
+  <si>
+    <t>An amazing journey into the hidden realm of nature’s soundsThe natural world teems with remarkable conversations, many beyond human hearing range. Scientists are using groundbreaking digital technologies to uncover these astonishing sounds, revealing vibrant communication among our fellow creatures across the Tree of Life.At once meditative and scientific, The Sounds of Life shares fascinating and surprising stories of nonhuman sound, interweaving insights from technological innovation and traditional knowledge. We meet scientists using sound to protect and regenerate endangered species from the Great Barrier Reef to the Arctic and the Amazon. We discover the shocking impacts of noise pollution on both animals and plants. We learn how artificial intelligence can decode nonhuman sounds, and meet the researchers building dictionaries in East African Elephant and Sperm Whalish. At the frontiers of innovation, we explore digitally mediated dialogues with bats and honeybees. Technology often distracts us from nature, but what if it could reconnect us instead?The Sounds of Life offers hope for environmental conservation and affirms humanity’s relationship with nature in the digital age. After learning about the unsuspected wonders of nature’s sounds, we will never see walks outdoors in the same way again.</t>
+  </si>
+  <si>
+    <t>Scientist;Soundscape;Coral reef;Technology;Vibration;Larva;Whaling;Language;Insect;Ecosystem;Noise pollution;Marine biology;Honey bee;Bowhead whale;Ethology;Listening;Hatchling;Organism;Bird;Biologist;Animal echolocation;Microphone;Social behavior;Consciousness;Environmental noise;Seagrass;Bioacoustics;SOSUS;Contemporary society;Ecology;Sensory ecology;Hearing range;Marine mammal;Vocal learning;Microbat;Analogy;Hydrophone;Umwelt;Waggle dance;Activism;Biodiversity;Pheromone;Physiology;Lifeway;Sociality;Charismatic megafauna;Sense and respond;Sound ranging;Odor;Mammal;Crustacean;Worker bee;Longevity;Form of life (philosophy);Human intelligence;Resonance;Human;Nutrient;Field recording;Finding;RoboBee;Louse;Plant;Turtle;Wildlife;Beehive fence;Whale vocalization;Artificial reef;Positive feedback;Loudness;Observation;Background noise;Machine learning;Coastal management;Human voice;Emerging technologies;Beautiful music;Sparrow;Karaoke;Behavior;Natural sounds;Sophistication;Shoaling and schooling;Interactivity;CITES;Detection;Propolis;Beehive;Collaboration;Honeyguide;Acoustics;Safety in numbers;Interspecies communication;Environmental protection;Cortisol;Phrase (music);Supervisor;Carl Safina;Cognitive ethology;Sound recording and reproduction</t>
+  </si>
+  <si>
+    <t>The Sounds of Life: How Digital Technology Is Bringing Us Closer to the Worlds of Animals and Plants</t>
+  </si>
+  <si>
+    <t>9780691240985</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9969968</t>
+  </si>
+  <si>
+    <t>10614696</t>
+  </si>
+  <si>
+    <t>Douady, Stéphane and Dumais, Jacques and Golé, Christophe and Pick, Nancy</t>
+  </si>
+  <si>
+    <t>A breathtakingly illustrated look at botanical spirals and the scientists who puzzled over themCharles Darwin was driven to distraction by plant spirals, growing so exasperated that he once begged a friend to explain the mystery “if you wish to save me from a miserable death.” The legendary naturalist was hardly alone in feeling tormented by these patterns. Plant spirals captured the gaze of Leonardo da Vinci and became Alan Turing’s final obsession. This book tells the stories of the physicists, mathematicians, and biologists who found themselves magnetically drawn to Fibonacci spirals in plants, seeking an answer to why these beautiful and seductive patterns occur in botanical forms as diverse as pine cones, cabbages, and sunflowers.Do Plants Know Math? takes you down through the centuries to explore how great minds have been captivated and mystified by Fibonacci patterns in nature. It presents a powerful new geometrical solution, little known outside of scientific circles, that sheds light on why regular and irregular spiral patterns occur. Along the way, the book discusses related plant geometries such as fractals and the fascinating way that leaves are folded inside of buds. Your neurons will crackle as you begin to see the connections. This book will inspire you to look at botanical patterns—and the natural world itself—with new eyes.Featuring hundreds of gorgeous color images, Do Plants Know Math? includes a dozen creative hands-on activities and even spiral-plant recipes, encouraging readers to explore and celebrate these beguiling patterns for themselves.</t>
+  </si>
+  <si>
+    <t>Phyllotaxis;botany;flowers;leaves;biomathematics;spirals, patterns;Fibonacci;Leonardo da Vinci;Charles Darwin;Alan Turing;history of science;science activities;botanical illustrations;Do Plants Know Math?;Unwinding the Story of Plant Spirals, from Leonardo da Vinci to Now;Stéphane Douady;Jacques Dumais;Christophe Golé;Nancy Pick;Princeton University Press;plant patterns;plant spirals;phyllotaxis;biomath;biomathematics;nature patterns;history of science;botany;botanical patterns;patterns in nature;golden ratio;golden section;ferns, daisies;sunflowers;pineapples;interdisciplinary science;botanical math;nature curiosity;plant observation;plant photography</t>
+  </si>
+  <si>
+    <t>Do Plants Know Math?: Unwinding the Story of Plant Spirals, from Leonardo da Vinci to Now</t>
+  </si>
+  <si>
+    <t>9780691261089</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10614696</t>
+  </si>
+  <si>
+    <t>10464827</t>
+  </si>
+  <si>
+    <t>Front Matter</t>
+  </si>
+  <si>
+    <t>1-58</t>
+  </si>
+  <si>
+    <t>Fifth Industrial Revolution;Schedules;Artificial intelligence;Technological innovation;Sustainable development;Standards;Leadership</t>
+  </si>
+  <si>
+    <t>10.1109/STI59863.2023.10464827</t>
+  </si>
+  <si>
+    <t>2023 5th International Conference on Sustainable Technologies for Industry 5.0 (STI)</t>
+  </si>
+  <si>
+    <t>10172387</t>
+  </si>
+  <si>
+    <t>Acquaviva, Viviana</t>
+  </si>
+  <si>
+    <t>A hands-on introduction to machine learning and its applications to the physical sciencesAs the size and complexity of data continue to grow exponentially across the physical sciences, machine learning is helping scientists to sift through and analyze this information while driving breathtaking advances in quantum physics, astronomy, cosmology, and beyond. This incisive textbook covers the basics of building, diagnosing, optimizing, and deploying machine learning methods to solve research problems in physics and astronomy, with an emphasis on critical thinking and the scientific method. Using a hands-on approach to learning, Machine Learning for Physics and Astronomy draws on real-world, publicly available data as well as examples taken directly from the frontiers of research, from identifying galaxy morphology from images to identifying the signature of standard model particles in simulations at the Large Hadron Collider.Introduces readers to best practices in data-driven problem-solving, from preliminary data exploration and cleaning to selecting the best method for a given taskEach chapter is accompanied by Jupyter Notebook worksheets in Python that enable students to explore key conceptsIncludes a wealth of review questions and quizzesIdeal for advanced undergraduate and early graduate students in STEM disciplines such as physics, computer science, engineering, and applied mathematicsAccessible to self-learners with a basic knowledge of linear algebra and calculusSlides and assessment questions (available only to instructors)</t>
+  </si>
+  <si>
+    <t>Machine Learning;Physics;Data Science;Astronomy;Viviana Acquaviva;Princeton</t>
+  </si>
+  <si>
+    <t>Machine Learning for Physics and Astronomy</t>
+  </si>
+  <si>
+    <t>9780691249537</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10172387</t>
+  </si>
+  <si>
+    <t>9950408</t>
+  </si>
+  <si>
+    <t>7 Machine Learning and Blockchain Integration for Security Applications</t>
+  </si>
+  <si>
+    <t>129-174</t>
+  </si>
+  <si>
+    <t>In recent years, a considerable amount of effort has been devoted to cyber-threat protection of computer systems which is one of the most critical cybersecurity tasks for single users and businesses since even a single attack can result in compromised data and sufficient losses. Massive losses and frequent attacks dictate the need for accurate and timely detection methods. Current static and dynamic methods do not provide efficient detection, especially when dealing with zero-day attacks. For this reason, big data analytics and machine intelligence-based techniques can be used. This book brings together researchers in the field of big data analytics and intelligent systems for cyber threat intelligence CTI and key data to advance the mission of anticipating, prohibiting, preventing, preparing, and responding to internal security. The wide variety of topics it presents offers readers multiple perspectives on various disciplines related to big data analytics and intelligent systems for cyber threat intelligence applications. Technical topics discussed in the book include: &amp;#x2022; Big data analytics for cyber threat intelligence and detection &amp;#x2022; Artificial intelligence analytics techniques &amp;#x2022; Real-time situational awareness &amp;#x2022; Machine learning techniques for CTI &amp;#x2022; Deep learning techniques for CTI &amp;#x2022; Malware detection and prevention techniques &amp;#x2022; Intrusion and cybersecurity threat detection and analysis &amp;#x2022; Blockchain and machine learning techniques for CTI</t>
+  </si>
+  <si>
+    <t>Big Data Analytics and Intelligent Systems for Cyber Threat Intelligence</t>
+  </si>
+  <si>
+    <t>River Publishers</t>
+  </si>
+  <si>
+    <t>9788770227773</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9950408</t>
+  </si>
+  <si>
+    <t>10929047</t>
+  </si>
+  <si>
+    <t>U, Vivek Menon and Babu Kumaravelu, Vinoth and C, Vinoth Kumar and A, Rammohan and Chinnadurai, Sunil and Venkatesan, Rajeshkumar and Hai, Han and Selvaprabhu, Poongundran</t>
+  </si>
+  <si>
+    <t>AI-Powered IoT: A Survey on Integrating Artificial Intelligence With IoT for Enhanced Security, Efficiency, and Smart Applications</t>
+  </si>
+  <si>
+    <t>50296-50339</t>
+  </si>
+  <si>
+    <t>The Internet of Things (IoT) and artificial intelligence (AI) enabled IoT is a significant paradigm that has been proliferating to new heights in recent years. IoT is a smart technology in which the physical objects or the things that are ubiquitously around us are networked and linked to the internet to deliver new services and enhance efficiency. The primary objective of the IoT is to connect all the physical objects or the things of the world under a common infrastructure, allowing humans to control them and get timely, frequent updates on their status. These things or devices connected to IoT generate, gather and process a massive volume of binary data. This massive volume of data generated from these devices is analyzed and learned by AI algorithms and techniques that aid in providing users with better services. Thus, AI-enabled IoT or artificial IoT (AIoT) is a hybrid technology that merges AI with IoT and is capable of simplifying complicated and strenuous tasks with ease and efficiency. The various machine learning (ML) and deep learning (DL) algorithms in IoT are necessary to ensure the IoT network’s improved security and confidentiality. Furthermore, this paper also surveys the various architectures that form the backbone of IoT and AIoT. Moreover, the myriad state-of-the-art ML and DL-based approaches for securing IoT, including detecting anomalies/intrusions, authentication and access control, attack detection and mitigation, preventing distributed denial of service (DDoS) attacks, and analyzing malware in IoT, are also enlightened. In addition, this work also reviews the role of AIoT in optimizing network efficiency, securing IoT infrastructures, and addressing key challenges. Furthermore, it explores cutting-edge technologies like blockchain, 6G-enabled AIoT, federated learning (FL), and hyperdimensional (HD) computing, indicating their potential in advancing IoT and AIoT-driven applications within sectors like healthcare, autonomous systems, and industrial automation. Therefore, based on the plethora of prevailing significant works, the objective of this manuscript is to provide a comprehensive survey that expounds on AIoT in terms of security, architecture, applications, emerging technologies, and challenges.</t>
+  </si>
+  <si>
+    <t>Internet of Things;Artificial intelligence;Security;Surveys;Wireless sensor networks;Scalability;Explainable AI;Computer architecture;Wireless fidelity;Radiofrequency identification;Internet of Things;artificial intelligence;blockchain;machine learning;IoT security;6G;AIoT</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2025.3551750</t>
+  </si>
+  <si>
+    <t>10499970</t>
+  </si>
+  <si>
+    <t>Wang, Shen and Qureshi, M. Atif and Miralles-Pechuán, Luis and Huynh-The, Thien and Gadekallu, Thippa Reddy and Liyanage, Madhusanka</t>
+  </si>
+  <si>
+    <t>IEEE Open Journal of the Communications Society</t>
+  </si>
+  <si>
+    <t>Explainable AI for 6G Use Cases: Technical Aspects and Research Challenges</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2490-2540</t>
+  </si>
+  <si>
+    <t>Around 2020, 5G began its commercialization journey, and discussions about the next-generation networks (such as 6G) emerged. Researchers predict that 6G networks will have higher bandwidth, coverage, reliability, energy efficiency, and lower latency, and will be an integrated “human-centric” network system powered by artificial intelligence (AI). This 6G network will lead to many real-time automated decisions, ranging from network resource allocation to collision avoidance for self-driving cars. However, there is a risk of losing control over decision-making due to the high-speed, data-intensive AI decision-making that may go beyond designers’ and users’ comprehension. To mitigate this risk, explainable AI (XAI) methods can be used to enhance the transparency of the black-box AI decision-making process. This paper surveys the application of XAI towards the upcoming 6G age, including 6G technologies (such as intelligent radio and zero-touch network management) and 6G use cases (such as industry 5.0). Additionally, the paper summarizes the lessons learned from recent attempts and outlines important research challenges in applying XAI for 6G use cases soon.</t>
+  </si>
+  <si>
+    <t>6G mobile communication;Artificial intelligence;5G mobile communication;Explainable AI;Resource management;Security;Closed box;B5G;6G;AI;XAI;explainability</t>
+  </si>
+  <si>
+    <t>10.1109/OJCOMS.2024.3386872</t>
+  </si>
+  <si>
+    <t>2644-125X</t>
+  </si>
+  <si>
+    <t>10646643</t>
+  </si>
+  <si>
+    <t>Waheed, Asim and Duddu, Vasisht and Asokan, N.</t>
+  </si>
+  <si>
+    <t>GrOVe: Ownership Verification of Graph Neural Networks using Embeddings</t>
+  </si>
+  <si>
+    <t>2460-2477</t>
+  </si>
+  <si>
+    <t>Graph neural networks (GNNs) have emerged as a state-of-the-art approach to model and draw inferences from large scale graph-structured data in various application settings such as social networking. The primary goal of a GNN is to learn an embedding for each graph node in a dataset that encodes both the node features and the local graph structure around the node.Prior work has shown that GNNs are prone to model extraction attacks. Model extraction attacks and defenses have been explored extensively in other non-graph settings. While detecting or preventing model extraction appears to be difficult, deterring them via effective ownership verification techniques offer a potential defense. In non-graph settings, fingerprinting models, or the data used to build them, have shown to be a promising approach toward ownership verification.We present GrOVe, a state-of-the-art GNN model fingerprinting scheme that, given a target model and a suspect model, can reliably determine if the suspect model was trained independently of the target model or if it is a surrogate of the target model obtained via model extraction. We show that GrOVe can distinguish between surrogate and independent models even when the independent model uses the same training dataset and architecture as the original target model.Using six benchmark datasets and three model architectures, we show that GrOVe consistently achieves low falsepositive and false-negative rates. We demonstrate that GrOVe is robust against known fingerprint evasion techniques while remaining computationally efficient.</t>
+  </si>
+  <si>
+    <t>Training;Social networking (online);Computational modeling;Computer architecture;Fingerprint recognition;Feature extraction;Data models;Graph Neural Networks;Model Extraction;Ownership Verification</t>
+  </si>
+  <si>
+    <t>10.1109/SP54263.2024.00050</t>
+  </si>
+  <si>
+    <t>2375-1207</t>
+  </si>
+  <si>
+    <t>2024 IEEE Symposium on Security and Privacy (SP)</t>
+  </si>
+  <si>
+    <t>10343520</t>
+  </si>
+  <si>
+    <t>McDermott, Roger and Daniels, Mats</t>
+  </si>
+  <si>
+    <t>What is Skill? (and why does it matter?)</t>
+  </si>
+  <si>
+    <t>This Research-to-Practice Full Paper seeks to investigate the concept of Skill within a Competency Framework, such as that described by the CC2020 document. The notion of skill is fundamental to modern educational discourse. As educators, we strive, not only to impart knowledge, but to help students acquire the skills that they need to flourish in the modern academic and professional environments. We admire skillful practitioners and strive to become more skilled at what we do, recognising that skill is tied to an aesthetic sense - that there is something attractive and deeply satisfying about the process and output of skillful practice. Together with knowledge and disposition, the term is also used to denote one of the constituent components of competence. In computing, for example, the CC2020 document proposes curricular development models which promote skills as key ontological elements and emphasises skill acquisition as a major focus in the educational process. While this is undoubtedly an important, evolutionary development in discipline-based pedagogical practice, we feel that there are still foundational questions to be asked about precisely what is meant by definitional terms that form the core vocabulary of this approach. In this paper, we look at the notion of skill and provide a conceptual analysis which tries to distinguish it from other related ideas. We provide an overview of how skill has been seen historically as both a philosophical and sociological construct and what this means for using the term in educational theory. We examine how to usefully define skill, discuss the part it plays in teaching and assessment, and make recommendations for how it can be viewed operationally within a competency framework, such as that proposed by CC2020.</t>
+  </si>
+  <si>
+    <t>Economics;Vocabulary;Engineering profession;Biological system modeling;Computational modeling;Education;Anxiety disorders;competency model;knowledge;skill acquisition;demonstration</t>
+  </si>
+  <si>
+    <t>10.1109/FIE58773.2023.10343520</t>
+  </si>
+  <si>
+    <t>2377-634X</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>2023 IEEE Frontiers in Education Conference (FIE)</t>
+  </si>
+  <si>
+    <t>10163311</t>
+  </si>
+  <si>
+    <t>Farion, Christine</t>
+  </si>
+  <si>
+    <t>Master wearable technology with this book including colored images and over 50 activities using Arduino and ESP32, build useful, stylish, and smart wearable devices, and create interactive circuits that react to us and our environmentKey FeaturesLearn wearable technology and build electronic circuits with fun activities using Arduino systemsGet an in-depth understanding of e-textiles and ESP32 microcontrollers to create interactive wearablesApply a design innovation approach and best practices to address real-world issuesBook DescriptionWearable circuits add interaction and purpose to clothing and other wearable devices that are currently widely used in medical, social, safety, entertainment, and sports fields. To develop useful and impressive prototypes and wearables, you’ll need to be skilled in designing electronic circuits and working with wearable technologies. This book takes you on an interesting journey through wearable technology, starting from electronic circuits, materials, and e-textile toolkits to using Arduino, which includes a variety of sensors, outputs, actuators, and microcontrollers such as Gemma M0 and ESP32. As you progress, you’ll be carefully guided through creating an advanced IoT project. You’ll learn by doing and create wearables with the help of practical examples and exercises. Later chapters will show you how to develop a hyper-body wearable and solder and sew circuits. Finally, you’ll discover how to build a culture-driven wearable to track data and provide feedback using a Design Innovation approach. After reading this book, you’ll be able to design interactive prototypes and sew, solder, and program your own Arduino-based wearable devices with a purpose.What you will learnConstruct sewable electronic circuits with conductive thread and materialsDiscover the features of LilyPad, Gemma, Circuit Playground, and other boardsUse various components for listening, moving, sensing actions, and visualizing outputsControl ESP32 development boards for IoT explorationUnderstand why and how to prototype to create interactive wearablesGet skilled in sewing and soldering sensors to Arduino-based circuitsDesign and build a hyper-body wearable that senses and reactsMaster a Design Innovation approach for creating wearables with a purposeWho this book is forThis book is for electronics engineers, embedded system engineers and designers, and R&amp;D engineers, who are beginners in the wearable technology domain as well as makers and hobbyists who have an interest in creative computing. It will also be useful for teachers, students, and researchers, who are learning interaction design, physical computing, technology, fashion, or arts. Having a basic understanding of Arduino-based systems will help in easily comprehending the contents of the book.</t>
+  </si>
+  <si>
+    <t>The Ultimate Guide to Informed Wearable Technology: A hands-on approach for creating wearables from prototype to purpose using Arduino systems</t>
+  </si>
+  <si>
+    <t>9781803244471</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163311</t>
+  </si>
+  <si>
+    <t>10700042</t>
+  </si>
+  <si>
+    <t>Srivastava, Madhur and Jain, Karuna</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Engineering Management</t>
+  </si>
+  <si>
+    <t>Application of Patent Analysis in Technology Management: A Scoping Review</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>14897-14914</t>
+  </si>
+  <si>
+    <t>Effective management of technology has become the engine for development. However, the fuzzy nature of technology development and management renders decision-makers dependent on credible information for technology-related decisions. A patent, a techno-legal document granted by the government to inventors to protect their inventions from imitation, proves to be a rich source of information. Various analytical tools can be employed on patent data to gain insights about managing technology strategically. The article conducts a scoping review to assess the application of patent analysis in technology management. This article replenishes the absence of a comprehensive review, revealing the application of patent analysis in technology management. Also, this review provides a panoramic view of how the researchers have employed various tools and techniques on patent data to harness its immense potential to aid in technology-related decision-making.</t>
+  </si>
+  <si>
+    <t>Patents;Technology management;Databases;Decision making;Citation analysis;Information analysis;Decision making;patent analysis;scoping review;technology management</t>
+  </si>
+  <si>
+    <t>10.1109/TEM.2024.3470776</t>
+  </si>
+  <si>
+    <t>1558-0040</t>
+  </si>
+  <si>
+    <t>10792909</t>
+  </si>
+  <si>
+    <t>Mohammadi, Navid and Maghsoudi, Mehrdad and Soghi, Mahdi</t>
+  </si>
+  <si>
+    <t>Innovation Ecosystems in Retail: Uncovering Technological Trends and Collaboration Networks Through Patent Mining</t>
+  </si>
+  <si>
+    <t>186753-186778</t>
+  </si>
+  <si>
+    <t>Retail technology adoption is essential for improving operational efficiency, enhancing customer engagement, and supporting sustainable growth in a highly competitive environment. Despite the growing importance of digital transformation in retail, significant research gaps remain in understanding collaborative innovation networks within this sector. This study addresses these gaps by utilizing Social Network Analysis (SNA) to examine patent registrations in retail technology, analyzing a dataset of 36,411 patents from 1995 to 2024. The methodology includes network construction, community detection, and keyword analysis, mapping out 8,225 entities and 14,805 collaborations. Results reveal IBM, Target Brands, and Procter &amp; Gamble as pivotal entities with high network centrality, highlighting their influence across key technological domains like AI, digital commerce, and retail security. The research categorizes technologies into 15 domains—such as Core Retail Operations, Digital Commerce, and Retail Communication—exposing seven major clusters where innovation efforts are concentrated. These findings offer practical insights for corporations, SMEs, startups, and policymakers aiming to navigate technological change and optimize strategic investments in retail. By detailing the relationships between leading entities and emerging technology clusters, this study provides a comprehensive view of the retail innovation landscape, aiding stakeholders in decision-making around technology adoption, collaborative opportunities, and competitive positioning in an increasingly digital retail ecosystem.</t>
+  </si>
+  <si>
+    <t>Patents;Technological innovation;Industries;Market research;Supply chains;Ecosystems;Blockchains;Artificial intelligence;Companies;Collaboration;Retail technology;patent analysis;social network analysis (SNA);digital commerce;retail industry collaboration;data-driven decision-making</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3515290</t>
+  </si>
+  <si>
+    <t>10848483</t>
+  </si>
+  <si>
+    <t>Chow, Jason (Tsz Shun)</t>
+  </si>
+  <si>
+    <t>Develop innovative architectural styles by analyzing and merging various approaches, focusing on making trade-offs and mitigating risks to solve real-world problemsKey FeaturesLearn how to analyze and dissect various architectural styles into building blocksCombine existing ideas with your own to create custom solutionsMake informed decisions by navigating trade-offs and compromisesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionSoftware Architecture with Kotlin explores the various styles of software architecture with a focus on using the Kotlin programming language. The author draws on their 20+ years of industry experience in developing large-scale enterprise distributed systems to help you grasp the principles, practices, and patterns that shape the architectural landscape of modern software systems. The book establishes a strong foundation in software architecture, explaining key concepts such as architectural qualities and principles, before teaching you how architectural decisions impact the quality of a system, such as scalability, reliability, and extendability. The chapters address modern architecture topics such as microservices, serverless, and event-driven architectures, providing insights into the challenges and trade-offs involved in adopting these architectural styles. You’ll also discover practical tools that’ll help you make informed decisions and mitigate risks. All architectural patterns in this book are demonstrated using Kotlin. By the end of this book, you’ll have gained practical expertise by using real-world examples, along with a solid understanding of Kotlin, to become a more proficient and impactful software architect.What you will learnMaster the fundamental principles of architecture and designExplore common architectural styles and their applicable scenariosAnalyze, break down, compare, and design architectural styles to solve practical problemsReason, negotiate, and make difficult choices in the absence of ideal solutionsMitigate risks when making compromises and trade-offsCreate scalable, sustainable, maintainable, and extendable software systemsUse the Kotlin programming language to achieve your architectural goalsWho this book is forThis book is for developers with basic Kotlin knowledge seeking a deeper understanding of architecture, Kotlin Android developers who are starting to get involved in backend development, and Java developers transitioning to Kotlin. It's also ideal for software architects who are less experienced in Kotlin and want to enhance their skills, as well as those who enjoy discussing and exploring unique architectural concepts.</t>
+  </si>
+  <si>
+    <t>Software Architecture with Kotlin: Combine various architectural styles to create sustainable and scalable software solutions</t>
+  </si>
+  <si>
+    <t>9781835464960</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10848483</t>
+  </si>
+  <si>
+    <t>10355169</t>
+  </si>
+  <si>
+    <t>Neuman, W. Russell</t>
+  </si>
+  <si>
+    <t>4 Here Be Dragons</t>
+  </si>
+  <si>
+    <t>87-120</t>
+  </si>
+  <si>
+    <t>Roman and medieval cartographers developed the tradition of drawing sea monsters and lion-like creatures to designate the unknown dangers of the uncharted lands and oceans at the edges of their maps. Mystery implies danger. Just to make it clear, some mapmakers even wrote out the text in the margins&amp;#x2014;hic sunt dracones, here be dragons. There are many unknowns about how the phenomenon of evolutionary intelligence (EI) will ultimately become a routine part of our lives. And just as it was with each preceding generation of technology, there will be individuals with malevolent or criminal intent who will try to harness the power of these technologies to do evil things. We would be remiss not to look more closely at these potential fault lines in the future.</t>
+  </si>
+  <si>
+    <t>Evolutionary Intelligence: How Technology Will Make Us Smarter</t>
+  </si>
+  <si>
+    <t>9780262376235</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10355169</t>
+  </si>
+  <si>
+    <t>10922764</t>
+  </si>
+  <si>
+    <t>Yan, Yipei and Lyu, Deyun and Zhang, Zhenya and Arcaini, Paolo and Zhao, Jianjun</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+  </si>
+  <si>
+    <t>Automated Generation of Benchmarks for Falsification of STL Specifications</t>
+  </si>
+  <si>
+    <t>Falsification, whose aim is to detect unsafe behaviors of cyber-physical systems (CPS) that violate signal temporal logic (STL) specifications, has been actively investigated in the past decade. Although numerous falsification approaches have been proposed, the falsification community suffers from a shortage of benchmarks that hinders a thorough assessment of those falsification approaches. In this paper, we bridge this gap by proposing an automated approach for generating falsification benchmarks. Our approach is data-driven: firstly, we generate different time-variant traces (acting as system output traces) that satisfy a given STL specification, and we associate these with corresponding system input traces; then, we use these input and output traces to train an LSTM model that generalizes them. These models can serve as benchmarks for assessing falsification approaches against the given specification. In the experimental evaluation, we validate the generated models by measuring their ability to differentiate the performance of different falsification approaches. Our generated models expose strengths and weaknesses of all the considered falsification approaches, which was not achieved by benchmarks currently used in the falsification community. These results demonstrate the usefulness of our approach and can potentially push forward subsequent research in falsification.</t>
+  </si>
+  <si>
+    <t>Benchmark testing;Semantics;Logic;Integrated circuit modeling;Training;Design automation;Computational modeling;Software packages;Robustness;Long short term memory;Falsification;Benchmarks;Signal temporal logic;Recurrent neural networks</t>
+  </si>
+  <si>
+    <t>10.1109/TCAD.2025.3550410</t>
+  </si>
+  <si>
+    <t>1937-4151</t>
+  </si>
+  <si>
+    <t>10780977</t>
+  </si>
+  <si>
+    <t>Madapparambath, Gineesh and McKendrick, Russ and Price, Ed</t>
+  </si>
+  <si>
+    <t>This completely revised edition equips you to secure, scale, and optimize your deployments like a K8s pro . Learn advanced techniques and cloud implementations for robust container orchestration and cloud-native domination. Purchase of the print or Kindle book includes a free eBook in PDF format.Key FeaturesComprehensive coverage of Kubernetes concepts - from deployment to cluster and resource managementGain insights into the latest cloud-native trends and how they impact your Kubernetes deploymentsTap into the collective wisdom of acclaimed Kubernetes expertsBook DescriptionKubernetes has become the go-to orchestration platform for containerized applications. As a Kubernetes user, you know firsthand how powerful yet complex this tool can be. The Kubernetes Bible cuts through the complexity, offering hands-on examples and expert advice to conquer containerization challenges With this new edition, you will master cutting edge security practices, deploy seamlessly and scale effortlessly, ensuring unwavering service availability. You will gain the expertise to craft production-grade applications, secure development environments, navigate complex deployments with ease, and become a security maestro. You will be able to optimize network communication and data management across major cloud platforms. Additionally, this book dives deep into these challenges, offering solutions such as multi-container Pods, advanced security techniques, and expert networking guidance. You will also explore persistent storage advancements, cloud-specific cluster management updates, and best practices for traffic routing By the end of this comprehensive guide, you will possess the skills and knowledge to orchestrate your containerized applications with precision, ensuring their optimal performance and scalability. Stop settling for basic container management. Order your copy today and orchestrate your containers to greatness.What you will learnSecure your Kubernetes clusters with advanced techniquesImplement scalable deployments and autoscaling strategiesDesign and learn to build production-grade containerized applicationsManage Kubernetes effectively on major cloud platforms (GKE, EKS, AKS)Utilize advanced networking and service management practicesUse Helm charts and Kubernetes Operators for robust security measuresOptimize in-cluster traffic routing with advanced configurationsEnhance security with techniques like Immutable ConfigMaps and RBACWho this book is forWhether you're a software developer, DevOps engineer, or an existing Kubernetes user, this Kubernetes book is your comprehensive guide to mastering container orchestration and services in the cloud. It empowers you to overcome challenges in building secure, scalable, and cloud-native applications using Kubernetes. With a foundational understanding of Kubernetes, Docker, and leading cloud providers (AWS, Azure, GCP) recommended, this book equips you with the knowledge and skills needed to navigate complex deployments and master core Kubernetes concepts and architecture.</t>
+  </si>
+  <si>
+    <t>The Kubernetes Bible: The definitive guide to deploying and managing Kubernetes across cloud and on-prem environments</t>
+  </si>
+  <si>
+    <t>9781835468241</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10780977</t>
+  </si>
+  <si>
+    <t>10944288</t>
+  </si>
+  <si>
+    <t>Fan, Tao and Gu, Hanlin and Cao, Xuemei and Chan, Chee Seng and Chen, Qian and Chen, Yiqiang and Feng, Yihui and Gu, Yang and Geng, Jiaxiang and Luo, Bing and Liu, Shuoling and Ong, Win Kent and Ren, Chao and Shao, Jiaqi and Sun, Chuan and Tang, Xiaoli and Tae, Hong Xi and Tong, Yongxin and Wei, Shuyue and Wu, Fan and Xi, Wei and Xu, Mingcong and Yang, He and Yang, Xin and Yan, Jiangpeng and Yu, Hao and Yu, Han and Zhang, Teng and Zhang, Yifei and Zhang, Xiaojin and Zheng, Zhenzhe and Fan, Lixin and Yang, Qiang</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Knowledge and Data Engineering</t>
+  </si>
+  <si>
+    <t>Ten Challenging Problems in Federated Foundation Models</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>Federated Foundation Models (FedFMs) represent a distributed learning paradigm that fuses general competences of foundation models as well as privacy-preserving capabilities of federated learning. This combination allows the large foundation models and the small local domain models at the remote clients to learn from each other in a teacher-student learning setting. This paper provides a comprehensive summary of the ten challenging problems inherent in FedFMs, encompassing foundational theory, utilization of private data, continual learning, unlearning, Non-IID and graph data, bidirectional knowledge transfer, incentive mechanism design, game mechanism design, model watermarking, and efficiency. The ten challenging problems manifest in five pivotal aspects: “Foundational Theory,” which aims to establish a coherent and unifying theoretical framework for FedFMs. “Data,” addressing the difficulties in leveraging domain-specific knowledge from private data while maintaining privacy; “Heterogeneity,” examining variations in data, model, and computational resources across clients; “Security and Privacy,” focusing on defenses against malicious attacks and model theft; and “Efficiency,” highlighting the need for improvements in training, communication, and parameter efficiency. For each problem, we offer a clear mathematical definition on the objective function, analyze existing methods, and discuss the key challenges and potential solutions. This in-depth exploration aims to advance the theoretical foundations of FedFMs, guide practical implementations, and inspire future research to overcome these obstacles, thereby enabling the robust, efficient, and privacy-preserving FedFMs in various real-world applications.</t>
+  </si>
+  <si>
+    <t>Frequency modulation;Foundation models;Privacy;Optimization;Adaptation models;Watermarking;Knowledge transfer;Training;Fans;Data privacy;Federated foundation models;federated learning;foundation models</t>
+  </si>
+  <si>
+    <t>10.1109/TKDE.2025.3555328</t>
+  </si>
+  <si>
+    <t>1558-2191</t>
+  </si>
+  <si>
+    <t>10614694</t>
+  </si>
+  <si>
+    <t>Narayanan, Arvind and Kapoor, Sayash</t>
+  </si>
+  <si>
+    <t>From two of TIME’s 100 Most Influential People in AI, what you need to know about AI—and how to defend yourself against bogus AI claims and productsConfused about AI and worried about what it means for your future and the future of the world? You’re not alone. AI is everywhere—and few things are surrounded by so much hype, misinformation, and misunderstanding. In AI Snake Oil, computer scientists Arvind Narayanan and Sayash Kapoor cut through the confusion to give you an essential understanding of how AI works and why it often doesn’t, where it might be useful or harmful, and when you should suspect that companies are using AI hype to sell AI snake oil—products that don’t work, and probably never will.While acknowledging the potential of some AI, such as ChatGPT, AI Snake Oil uncovers rampant misleading claims about the capabilities of AI and describes the serious harms AI is already causing in how it’s being built, marketed, and used in areas such as education, medicine, hiring, banking, insurance, and criminal justice. The book explains the crucial differences between types of AI, why organizations are falling for AI snake oil, why AI can’t fix social media, why AI isn’t an existential risk, and why we should be far more worried about what people will do with AI than about anything AI will do on its own. The book also warns of the dangers of a world where AI continues to be controlled by largely unaccountable big tech companies.By revealing AI’s limits and real risks, AI Snake Oil will help you make better decisions about whether and how to use AI at work and home.</t>
+  </si>
+  <si>
+    <t>AI Snake Oil: What Artificial Intelligence Can Do, What It Can’t, and How to Tell the Difference</t>
+  </si>
+  <si>
+    <t>9780691249643</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10614694</t>
+  </si>
+  <si>
+    <t>10090432</t>
+  </si>
+  <si>
+    <t>Wang, Yuntao and Su, Zhou and Guo, Shaolong and Dai, Minghui and Luan, Tom H. and Liu, Yiliang</t>
+  </si>
+  <si>
+    <t>A Survey on Digital Twins: Architecture, Enabling Technologies, Security and Privacy, and Future Prospects</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>14965-14987</t>
+  </si>
+  <si>
+    <t>By interacting, synchronizing, and cooperating with its physical counterpart in real time, digital twin (DT) is promised to promote an intelligent, predictive, and optimized modern city. Via interconnecting massive physical entities and their virtual twins with inter-twin and intra-twin communications, the Internet of DTs (IoDT) enables free data exchange, dynamic mission cooperation, and efficient information aggregation for composite insights across vast physical/virtual entities. However, as IoDT incorporates various cutting-edge technologies to spawn the new ecology, severe known/unknown security flaws, and privacy invasions of IoDT hinder its wide deployment. Besides, the intrinsic characteristics of IoDT, such as decentralized structure, information-centric routing, and semantic communications, entail critical challenges for security service provisioning in IoDT. To this end, this article presents an in-depth review of the IoDT with respect to system architecture, enabling technologies, and security/privacy issues. Specifically, we first explore a novel distributed IoDT architecture with cyber–physical interactions and discuss its key characteristics and communication modes. Afterward, we investigate the taxonomy of security and privacy threats in IoDT, discuss the key research challenges, and review the state-of-the-art defense approaches. Finally, we point out the new trends and open research directions related to IoDT.</t>
+  </si>
+  <si>
+    <t>Digital twins;Security;Privacy;Semantics;Internet of Things;Internet;Synchronization;Artificial intelligence (AI);blockchain;Internet of Digital Twins (IoDT);privacy;security;semantic communication</t>
+  </si>
+  <si>
+    <t>10.1109/JIOT.2023.3263909</t>
+  </si>
+  <si>
+    <t>9256294</t>
+  </si>
+  <si>
+    <t>Khanam, Shapla and Ahmedy, Ismail Bin and Idna Idris, Mohd Yamani and Jaward, Mohamed Hisham and Bin Md Sabri, Aznul Qalid</t>
+  </si>
+  <si>
+    <t>A Survey of Security Challenges, Attacks Taxonomy and Advanced Countermeasures in the Internet of Things</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>219709-219743</t>
+  </si>
+  <si>
+    <t>Internet of Things (IoT) facilitates the integration between objects and different sensors to provide communication among them without human intervention. However, the extensive demand for IoT and its various applications has continued to grow, coupled with the need to achieve foolproof security requirements. IoT produces a vast amount of data under several constraints such as low processor, power, and memory. These constraints, along with the invaluable data produced by IoT devices, make IoT vulnerable to various security attacks. This paper presents an overview of IoT, its well-known system architecture, enabling technologies, and discusses security challenges and goals. Furthermore, we analyze security vulnerabilities and provide state-of-the-art security taxonomy. The taxonomy of the most relevant and current IoT security attacks is presented for application, network, and physical layers. While most other surveys studied one of the areas of security measures, this study considers and reports on the most advanced security countermeasures within the areas of autonomic, encryption, and learning-based approaches. Additionally, we uncover security challenges that may be met by the research community regarding security implementation in heterogeneous IoT environment. Finally, we provide different visions about possible security solutions and future research directions.</t>
+  </si>
+  <si>
+    <t>Security;Internet of Things;Encryption;Taxonomy;Organizations;Protocols;Privacy;Attacks;countermeasures;encryption;Internet of Things;IoT architecture;learning-based algorithm;privacy;security;secure communications;taxonomy</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2020.3037359</t>
+  </si>
+  <si>
+    <t>9964330</t>
+  </si>
+  <si>
+    <t>Yan, Senming and Ren, Jing and Wang, Wei and Sun, Limin and Zhang, Wei and Yu, Quan</t>
+  </si>
+  <si>
+    <t>A Survey of Adversarial Attack and Defense Methods for Malware Classification in Cyber Security</t>
+  </si>
+  <si>
+    <t>467-496</t>
+  </si>
+  <si>
+    <t>Malware poses a severe threat to cyber security. Attackers use malware to achieve their malicious purposes, such as unauthorized access, stealing confidential data, blackmailing, etc. Machine learning-based defense methods are applied to classify malware examples. However, such methods are vulnerable to adversarial attacks, where attackers aim to generate adversarial examples that can evade detection. Defenders also develop various approaches to enhance the robustness of malware classifiers against adversarial attacks. Both attackers and defenders evolve in the continuous confrontation of malware classification. In this paper, we firstly summarize a unified malware classification framework. Then, based on the framework, we systematically survey the Defense-Attack-Enhanced-Defense process and provide a comprehensive review of (i) machine learning-based malware classification, (ii) adversarial attacks on malware classifiers, and (iii) robust malware classification. Finally, we highlight the main challenges faced by both attackers and defenders and discuss some promising future work directions.</t>
+  </si>
+  <si>
+    <t>Malware;Feature extraction;Robustness;Security;Internet of Things;Data preprocessing;Cyberattack;Cyber security;malware;malware classification;adversarial examples;adversarial robustness</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2022.3225137</t>
+  </si>
+  <si>
+    <t>10443401</t>
+  </si>
+  <si>
+    <t>Charfeddine, Maha and Kammoun, Habib M. and Hamdaoui, Bechir and Guizani, Mohsen</t>
+  </si>
+  <si>
+    <t>ChatGPT’s Security Risks and Benefits: Offensive and Defensive Use-Cases, Mitigation Measures, and Future Implications</t>
+  </si>
+  <si>
+    <t>30263-30310</t>
+  </si>
+  <si>
+    <t>ChatGPT has been acknowledged as a powerful tool that can radically boost productivity across a wide range of industries. It reveals potential in cybersecurity-related tasks such as social engineering. Nevertheless, this possibility raises important concerns regarding the thin line separating moral use of this technology from its harmful usage. It is imperative to address the challenges of distinguishing between legitimate and malevolent use of ChatGPT. This research paper investigates the many concerns of ChatGPT in cybersecurity, privacy and enterprise settings. It covers harmful attacker uses such as injecting malicious prompts, testing brute force attacks, preparing and developing ransomware attacks, etc. Defenders’ proactive activities are also addressed, highlighting ChatGPT’s significance in security operations and threat intelligence. These defensive operations are classified based on the National Institute of Standards and Technology cybersecurity framework. They involve analyzing configuration files, inquiring about authoritative server, improving security in various systems, etc. Moreover, secure enterprise practices and mitigations spread through five classes are proposed, with an emphasis on clear usage standards and guidelines establishment, personally identifiable information protection, adversarial attack prevention, watermarking generated content, etc. An integrated discussion digs into the interaction of offensive and defensive applications, covering ethical and practical concerns. Future attacks are also discussed, along with potential solutions such as content filtering and collaboration. Finally, a comparative analysis with recent research on ChatGPT security concerns is directed. The paper provides a thorough framework to comprehend the range of implications associated with ChatGPT, enabling the navigation of cybersecurity and privacy challenges.</t>
+  </si>
+  <si>
+    <t>Chatbots;Security;Artificial intelligence;Computer security;Ethics;Guidelines;Privacy;Cyberattack;NIST Standards;Watermarking;Artificial intelligence;ChatGPT;computer crime;cyberattack;cyberethics;cybersecurity;defense industry;NLP;privacy</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3367792</t>
+  </si>
+  <si>
+    <t>10097479</t>
+  </si>
+  <si>
+    <t>Martins, Ricardo M. F. and Lourenço, Nuno C. C.</t>
+  </si>
+  <si>
+    <t>Analog Integrated Circuit Routing Techniques: An Extensive Review</t>
+  </si>
+  <si>
+    <t>35965-35983</t>
+  </si>
+  <si>
+    <t>Routing techniques for analog and radio-frequency (A/RF) integrated circuit (IC) design automation have been proposed in the literature for over three decades. On those, an extensive set of geometric constraints have already been covered as surrogates for routing quality, but also, performance-related criteria were progressively included. However, as A/RF design moved into advanced integration technology nodes, the increasing number of design rules/constraints, wire resistance, congestion, and interwire parasitic growth is constantly challenging existing automatic routing techniques and keeping pressure on their improvement. Fortunately, recent developments in modern workstations’ capabilities allowed the growth of sophisticated routing processes, including some assisted by the latest machine and deep learning methods, offering unprecedented solutions for the automation of this task. Still, as the correlation between routing-induced parasitic structures and the circuit’s functional behavior is far from simple, computational-intensive parasitic-inclusive and layout-aware synthesis techniques have also been proposed, where automatic routing techniques play a decisive role. This paper conducts an extensive review of A/RF IC routing techniques, from the digitally-inspired earliest approaches to state-of-the-art developments, providing a complete and comprehensive guide for circuit designers and design automation developers while defining research lines to facilitate more activities within this field.</t>
+  </si>
+  <si>
+    <t>Routing;Radio frequency;Wires;Integrated circuits;Generators;Python;Task analysis;Machine learning;Analog and radio-frequency;automatic routing;layout-aware synthesis;machine learning;parasitic-inclusive synthesis;path-finding algorithm;physical design</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2023.3265481</t>
+  </si>
+  <si>
+    <t>9722703</t>
+  </si>
+  <si>
+    <t>Kim, Wonsuk and Seok, Junhee</t>
+  </si>
+  <si>
+    <t>Privacy-preserving collaborative machine learning in biomedical applications</t>
+  </si>
+  <si>
+    <t>179-183</t>
+  </si>
+  <si>
+    <t>Machine learning (ML) algorithms are now widely used to tackle computational problems in diverse domains. In biomedicine, the rapidly growing amounts of experimental data increasingly necessitate the use of ML to discern complex data patterns. However, biomedical data is often considered sensitive, and the privacy of individuals behind the data is increasingly put at risk as a result. Traditional methods such as anonymization and pseudonymization are not always applicable and have limited effectiveness with respect to risk mitigation. Privacy researchers are actively developing alternative approaches to privacy protection, including strategies based on cryptography, such as homomorphic encryption and secure multiparty computation. This paper discusses recent advances in biomedical applications of these privacy techniques. We first review the key privacy techniques, then provide an overview of their applications in biomedical machine learning. Finally, we highlight the remaining challenges of current approaches and suggest directions for future work.</t>
+  </si>
+  <si>
+    <t>Privacy;Data privacy;Machine learning algorithms;Biological system modeling;Machine learning;Collaborative work;Multi-party computation;Privacy-Preserving Machine Learning;Collaborative Learning;Federated Learning;Secure Multi-party Computation</t>
+  </si>
+  <si>
+    <t>10.1109/ICAIIC54071.2022.9722703</t>
+  </si>
+  <si>
+    <t>2022 International Conference on Artificial Intelligence in Information and Communication (ICAIIC)</t>
+  </si>
+  <si>
+    <t>10608156</t>
+  </si>
+  <si>
+    <t>Zhu, Xiaoqiang and Liu, Jiqiang and Lu, Lingyun and Zhang, Tao and Qiu, Tie and Wang, Chunpeng and Liu, Yuan</t>
+  </si>
+  <si>
+    <t>Enabling Intelligent Connectivity: A Survey of Secure ISAC in 6G Networks</t>
+  </si>
+  <si>
+    <t>The rapid growth of intelligent sensing capabilities and super computation power in 6G mobile communication systems has facilitated their application in diverse domains such as smart health, smart factories, and the industrial Internet of Things. Integrated Sensing and Communication (ISAC), as a core technology, has merged with artificial intelligence (AI) to enable intelligent connectivity, leading to a paradigm shift in traditional communication modes. This paper presents a visionary design for an ISAC-oriented unified IoT architecture that integrates software-defined communication and super-intelligent agents. By leveraging dynamic adaptability, self-learning, and optimization, the ISAC system can intelligently and flexibly respond to evolving requirements and environments. The architecture is redefined into three layers: the hardware layer, the omniscient layer, and the application layer. Furthermore, a retrospective survey of ISAC technology development over the past decade is conducted, highlighting new design principles for AI-empowered networks and multi-modals that support “intelligent connectivity" across various application scenarios and reinforce the security of ISAC. This paper categorizes the related works according to the different layer structures of the proposed architecture, and some important physical and machine learning models are introduced. Additionally, we summarize the current technological bottlenecks associated with ISAC and propose future research directions and potential solutions that lay the foundation for the future development of secure and intelligent communication networks.</t>
+  </si>
+  <si>
+    <t>Integrated sensing and communication;Computer architecture;Artificial intelligence;Surveys;6G mobile communication;Indexes;Wireless communication;6G;ISAC;AI;Software-defined communication;Super intelligent agent</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2024.3432871</t>
+  </si>
+  <si>
+    <t>9394872</t>
+  </si>
+  <si>
+    <t>Bown, Oliver</t>
+  </si>
+  <si>
+    <t>7 Making Creative Systems Effective</t>
+  </si>
+  <si>
+    <t>269-294</t>
+  </si>
+  <si>
+    <t>How do we evaluate whether computational creativity systems are doing creative things, or in the language of distributed creativity, are effective and possibly active contributors in creative production? The radical multi-disciplinarity of computational creativity invites a wide range of methods for answering such questions. In engineering and computer science it is often the case that one can specify an objective goal for an AI system. In many creativity-related subtasks this may also be the case. Training a neural network to recognize objects in images requires that we have a dataset of annotated images, meaning that we necessarily have the information required to know exactly how well the system is performing&amp;#x2014;at least at the given subtask, if not at the wider objective of contributing to a creative task. Meanwhile, human-computer interaction tasks require evaluation of users&amp;#x0027; responses, and although this is less concrete, data&amp;#x2014;both qualitative and quantitative&amp;#x2014;can be gathered about the system&amp;#x0027;s performance. In other cases, practice-based programmer-artists make work and self-evaluate. In the latter, the evidence becomes vaguer still, but the situation is largely similar to the human-computer interaction context. Systems that generate creative outputs can be investigated using all of these evaluation scenarios and others. A scenario that is somewhat more specific to computational creativity is where people are asked to evaluate the aesthetic quality of the system&amp;#x0027;s output or to otherwise evaluate whether they believe the system to be creative or humanlike.</t>
+  </si>
+  <si>
+    <t>Beyond the Creative Species: Making Machines That Make Art and Music</t>
+  </si>
+  <si>
+    <t>9780262361750</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9394872</t>
+  </si>
+  <si>
+    <t>9394517</t>
+  </si>
+  <si>
+    <t>5 Creative Algorithms</t>
+  </si>
+  <si>
+    <t>157-214</t>
+  </si>
+  <si>
+    <t>Switching to talking about algorithms involves a sharp break from the previous discussion. We set aside, for the moment, thinking about psychology, social science, art and creativity studies and consider what it is that we can do with computers and how this is being used to achieve the goals of computational creativity. The study of algorithms belongs to what Herbert Simon described as The Sciences of the Artificial,&lt;superscript&gt;2&lt;/superscript&gt; where we do not study the world as it is, out there, but study our own built environment and the process of building that environment, which we can do in an interactive, probing manner through the production of new designs and inventions. In Simon&amp;#x0027;s words, &amp;#x201C;engineering, medicine, business, architecture, and painting are concerned not with the necessary but with the contingent&amp;#x2014;not with how things are but with how they might be&amp;#x2014;in short, with design.&amp;#x201D; I begin this chapter by returning to a theme from chapter 1, the essential distinction between processes of generation and evaluation in creativity, which will help frame the relations between algorithms in the construction of artificially creative systems.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9394517</t>
+  </si>
+  <si>
+    <t>10769213</t>
+  </si>
+  <si>
+    <t>Deswandikar, Aniruddha</t>
+  </si>
+  <si>
+    <t>Overcome data mesh adoption challenges using the cloud-scale analytics framework and make your data analytics landscape agile and efficient by using standard architecture patterns for diverse analytical workloads Key FeaturesDelve into core data mesh concepts and apply them to real-world situationsSafely reassess and redesign your framework for seamless data mesh integrationConquer practical challenges, from domain organization to building data contractsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionDecentralizing data and centralizing governance are practical, scalable, and modern approaches to data analytics. However, implementing a data mesh can feel like changing the engine of a moving car. Most organizations struggle to start and get caught up in the concept of data domains, spending months trying to organize domains. This is where Engineering Data Mesh in Azure Cloud can help. The book starts by assessing your existing framework before helping you architect a practical design. As you progress, you’ll focus on the Microsoft Cloud Adoption Framework for Azure and the cloud-scale analytics framework, which will help you quickly set up a landing zone for your data mesh in the cloud. The book also resolves common challenges related to the adoption and implementation of a data mesh faced by real customers. It touches on the concepts of data contracts and helps you build practical data contracts that work for your organization. The last part of the book covers some common architecture patterns used for modern analytics frameworks such as artificial intelligence (AI). By the end of this book, you’ll be able to transform existing analytics frameworks into a streamlined data mesh using Microsoft Azure, thereby navigating challenges and implementing advanced architecture patterns for modern analytics workloads.What you will learnBuild a strategy to implement a data mesh in Azure CloudPlan your data mesh journey to build a collaborative analytics platformAddress challenges in designing, building, and managing data contractsGet to grips with monitoring and governing a data meshUnderstand how to build a self-service portal for analyticsDesign and implement a secure data mesh architectureResolve practical challenges related to data mesh adoptionWho this book is forThis book is for chief data officers and data architects of large and medium-size organizations who are struggling to maintain silos of data and analytics projects. Data architects and data engineers looking to understand data mesh and how it can help their organizations democratize data and analytics will also benefit from this book. Prior knowledge of managing centralized analytical systems, as well as experience with building data lakes, data warehouses, data pipelines, data integrations, and transformations is needed to get the most out of this book.</t>
+  </si>
+  <si>
+    <t>Engineering Data Mesh in Azure Cloud: Implement data mesh using Microsoft Azure's Cloud Adoption Framework</t>
+  </si>
+  <si>
+    <t>9781805128946</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769213</t>
+  </si>
+  <si>
+    <t>10163197</t>
+  </si>
+  <si>
+    <t>Auffarth, Ben</t>
+  </si>
+  <si>
+    <t>Get better insights from time-series data and become proficient in model performance analysisKey FeaturesExplore popular and modern machine learning methods including the latest online and deep learning algorithmsLearn to increase the accuracy of your predictions by matching the right model with the right problemMaster time series via real-world case studies on operations management, digital marketing, finance, and healthcareBook DescriptionThe Python time-series ecosystem is huge and often quite hard to get a good grasp on, especially for time-series since there are so many new libraries and new models. This book aims to deepen your understanding of time series by providing a comprehensive overview of popular Python time-series packages and help you build better predictive systems. Machine Learning for Time-Series with Python starts by re-introducing the basics of time series and then builds your understanding of traditional autoregressive models as well as modern non-parametric models. By observing practical examples and the theory behind them, you will become confident with loading time-series datasets from any source, deep learning models like recurrent neural networks and causal convolutional network models, and gradient boosting with feature engineering. This book will also guide you in matching the right model to the right problem by explaining the theory behind several useful models. You’ll also have a look at real-world case studies covering weather, traffic, biking, and stock market data. By the end of this book, you should feel at home with effectively analyzing and applying machine learning methods to time-series.What you will learnUnderstand the main classes of time series and learn how to detect outliers and patternsChoose the right method to solve time-series problemsCharacterize seasonal and correlation patterns through autocorrelation and statistical techniquesGet to grips with time-series data visualizationUnderstand classical time-series models like ARMA and ARIMAImplement deep learning models, like Gaussian processes, transformers, and state-of-the-art machine learning modelsBecome familiar with many libraries like Prophet, XGboost, and TensorFlowWho this book is forThis book is ideal for data analysts, data scientists, and Python developers who want instantly useful and practical recipes to implement today, and a comprehensive reference book for tomorrow. Basic knowledge of the Python Programming language is a must, while familiarity with statistics will help you get the most out of this book.</t>
+  </si>
+  <si>
+    <t>Machine Learning for Time-Series with Python: Forecast, predict, and detect anomalies with state-of-the-art machine learning methods</t>
+  </si>
+  <si>
+    <t>9781801816106</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163197</t>
+  </si>
+  <si>
+    <t>8766090</t>
+  </si>
+  <si>
+    <t>Benito-Santos, Alejandro and Therón Sánchez, Roberto</t>
+  </si>
+  <si>
+    <t>Cross-Domain Visual Exploration of Academic Corpora via the Latent Meaning of User-Authored Keywords</t>
+  </si>
+  <si>
+    <t>98144-98160</t>
+  </si>
+  <si>
+    <t>Nowadays, scholars dedicate a substantial amount of their work to the querying and browsing of increasingly large collections of research papers on the Internet. In parallel, the recent surge of novel interdisciplinary approaches in science requires scholars to acquire competencies in new fields for which they may lack the necessary vocabulary to formulate adequate queries. This problem, together with the issue of information overload, poses new challenges in the fields of natural language processing (NLP) and visualization design that call for a rapid response from the scientific community. In this respect, we report on a novel visualization scheme that enables the exploration of research paper collections via the analysis of semantic proximity relationships found in author-assigned keywords. Our proposal replaces traditional string queries with a bag-of-words (BoW) extracted from a user-generated auxiliary corpus that captures the intentionality of the research. Continuing along the lines established by other authors in the fields of literature-based discovery (LBD), NLP, and visual analytics (VA), we combine novel advances in the fields of NLP with visual network analysis techniques to offer scholars a perspective of the target corpus that better fits their research interests. To highlight the advantages of our proposal, we conduct two experiments employing a collection of visualization research papers and an auxiliary cross-domain BoW. Here, we showcase how our visualization can be used to maximize the effectiveness of a browsing session by enhancing the language acquisition task, which allows for effectively extracting knowledge that is in line with the users' previous expectations.</t>
+  </si>
+  <si>
+    <t>Semantics;Task analysis;Analytical models;Data visualization;Visual analytics;Natural language processing;Academic corpora;digital humanities;document exploration;human-computer interaction;knowledge elicitation;latent semantic analysis;literature-based discovery;visualization</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2019.2929754</t>
+  </si>
+  <si>
+    <t>10601684</t>
+  </si>
+  <si>
+    <t>Aouedi, Ons and Vu, Thai-Hoc and Sacco, Alessio and Nguyen, Dinh C. and Piamrat, Kandaraj and Marchetto, Guido and Pham, Quoc-Viet</t>
+  </si>
+  <si>
+    <t>A Survey on Intelligent Internet of Things: Applications, Security, Privacy, and Future Directions</t>
+  </si>
+  <si>
+    <t>The rapid advances in the Internet of Things (IoT) have promoted a revolution in communication technology and offered various customer services. Artificial intelligence (AI) techniques have been exploited to facilitate IoT operations and maximize their potential in modern application scenarios. In particular, the convergence of IoT and AI has led to a new networking paradigm called Intelligent IoT (IIoT), which has the potential to significantly transform businesses and industrial domains. This paper presents a comprehensive survey of IIoT by investigating its significant applications in mobile networks, as well as its associated security and privacy issues. Specifically, we explore and discuss the roles of IIoT in a wide range of key application domains, from smart healthcare and smart cities to smart transportation and smart industries. Through such extensive discussions, we investigate important security issues in IIoT networks, where network attacks, confidentiality, integrity, and intrusion are analyzed, along with a discussion of potential countermeasures. Privacy issues in IIoT networks were also surveyed and discussed, including data, location, and model privacy leakage. Finally, we outline several key challenges and highlight potential research directions in this important area.</t>
+  </si>
+  <si>
+    <t>Industrial Internet of Things;Artificial intelligence;Privacy;Surveys;Security;Biological system modeling;Reviews;Internet of Things;artificial intelligence;wireless networks;industrial applications;security;privacy</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2024.3430368</t>
+  </si>
+  <si>
+    <t>10008020</t>
+  </si>
+  <si>
+    <t>Braca, Paolo and Millefiori, Leonardo M. and Aubry, Augusto and Marano, Stefano and De Maio, Antonio and Willett, Peter</t>
+  </si>
+  <si>
+    <t>IEEE Open Journal of Signal Processing</t>
+  </si>
+  <si>
+    <t>Statistical Hypothesis Testing Based on Machine Learning: Large Deviations Analysis</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>464-495</t>
+  </si>
+  <si>
+    <t>We study the performance of Machine Learning (ML) classification techniques. Leveraging the theory of large deviations, we provide the mathematical conditions for a ML classifier to exhibit error probabilities that vanish exponentially, say $\exp (-n\,I)$, where $n$ is the number of informative observations available for testing (or another relevant parameter, such as the size of the target in an image) and $I$ is the error rate. Such conditions depend on the Fenchel-Legendre transform of the cumulant-generating function of the Data-Driven Decision Function (D3F, i.e., what is thresholded before the final binary decision is made) learned in the training phase. As such, the D3F and the related error rate $I$ depend on the given training set. The conditions for the exponential convergence can be verified and tested numerically exploiting the available dataset or a synthetic dataset generated according to the underlying statistical model. Coherently with the large deviations theory, we can also establish the convergence of the normalized D3F statistic to a Gaussian distribution. Furthermore, approximate error probability curves $ζ _n \exp (-n\,I)$ are provided, thanks to the refined asymptotic derivation, where $ζ _n$ represents the most representative sub-exponential terms of the error probabilities. Leveraging the refined asymptotic, we are able to compute an accurate analytical approximation of the classification performance for both the regimes of small and large values of $n$. Theoretical findings are corroborated by extensive numerical simulations and by the use of real-world data, acquired by an X-band maritime radar system for surveillance.</t>
+  </si>
+  <si>
+    <t>Error probability;Training;Artificial intelligence;Convergence;Error analysis;Surveillance;Signal processing;Machine learning;deep learning;large deviations principle;exact asymptotics;statistical hypothesis testing;Fenchel-Legendre transform;extended target detection;radar/sonar detection;X-band maritime radar</t>
+  </si>
+  <si>
+    <t>10.1109/OJSP.2022.3232284</t>
+  </si>
+  <si>
+    <t>2644-1322</t>
+  </si>
+  <si>
+    <t>10508191</t>
+  </si>
+  <si>
+    <t>Wang, Yingchao and Yang, Chen and Lan, Shulin and Zhu, Liehuang and Zhang, Yan</t>
+  </si>
+  <si>
+    <t>End-Edge-Cloud Collaborative Computing for Deep Learning: A Comprehensive Survey</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2647-2683</t>
+  </si>
+  <si>
+    <t>The booming development of deep learning applications and services heavily relies on large deep learning models and massive data in the cloud. However, cloud-based deep learning encounters challenges in meeting the application requirements of responsiveness, adaptability, and reliability. Edge-based and end-based deep learning enables rapid, near real-time analysis and response, but edge nodes and end devices usually have limited resources to support large models. This necessitates the integration of end, edge, and cloud computing technologies to combine their different advantages. Despite the existence of numerous studies on edge-cloud collaboration, a comprehensive survey for end-edge-cloud computing-enabled deep learning is needed to review the current status and point out future directions. Therefore, this paper: 1) analyzes the collaborative elements within the end-edge-cloud computing system for deep learning, and proposes collaborative training, inference, and updating methods and mechanisms for deep learning models under the end-edge-cloud collaboration framework. 2) provides a systematic investigation of the key enabling technologies for end-edge-cloud collaborative deep learning, including model compression, model partition, and knowledge transfer. 3) highlights six open issues to stimulate continuous research efforts in the field of end-edge-cloud deep learning.</t>
+  </si>
+  <si>
+    <t>Computational modeling;Artificial intelligence;Collaboration;Surveys;Training;Cloud computing;Deep learning;Deep learning;deep neural networks;edge computing;cloud computing;end-edge-cloud collaboration;end-edge-cloud computing</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2024.3393230</t>
+  </si>
+  <si>
+    <t>Fourthquarter</t>
+  </si>
+  <si>
+    <t>10324327</t>
+  </si>
+  <si>
+    <t>Kari, Samedh Sachin and Raj, A Arockia Bazil and K, Balasubramanian.</t>
+  </si>
+  <si>
+    <t>IEEE Geoscience and Remote Sensing Magazine</t>
+  </si>
+  <si>
+    <t>Evolutionary Developments of Today’s Remote Sensing Radar Technology—Right From the Telemobiloscope: A review</t>
+  </si>
+  <si>
+    <t>67-107</t>
+  </si>
+  <si>
+    <t>Today, remote sensing systems/technologies are one of the most essential requirements for civil and military sectors for various applications. This review article discusses the evolutionary developments of today’s remote sensing radar/optical/electronic warfare (EW) technologies, right from the telemobiloscope. This review article addresses the fundamentals of radar sensing techniques, top-level radar classifications, and revolutionary developments of antenna technologies for remote sensing applications. The various techniques available for radar waveform design, a characteristics analysis of it using ambiguity functions (AFs), pulse compression/stretch processing, a time-frequency (T-F) analysis, and so on are reviewed. The significant transformations that have happened in radar system engineering since vacuum tube microwave devices are reported. Contemporary societal applications of radar systems, tracking and guidance radar systems, advanced EW systems, photonics EW systems, and photonics signal processing are reviewed and reported. State-of-the-art optical technologies available for today’s remote sensing applications are discussed. In addition to these reviews, a comprehensive comparative study is performed in terms of available remote sensing systems/technologies, their typical operating frequency ranges, potential applications, types of waveforms, and so forth, and the quantitative results are reported.</t>
+  </si>
+  <si>
+    <t>Radar cross-sections;Radar antennas;Radar remote sensing;Spaceborne radar;Remote sensing;Doppler radar;Radar tracking;Time-frequency analysis;Systems engineering and theory;Performance evaluation;Optical signal processing;Electronic warfare</t>
+  </si>
+  <si>
+    <t>10.1109/MGRS.2023.3329928</t>
+  </si>
+  <si>
+    <t>2168-6831</t>
+  </si>
+  <si>
+    <t>10930500</t>
+  </si>
+  <si>
+    <t>Ferretti, Stefano and D’Angelo, Gabriele and Ghini, Vittorio</t>
+  </si>
+  <si>
+    <t>Enhancing Anti-Money Laundering Frameworks: An Application of Graph Neural Networks in Cryptocurrency Transaction Classification</t>
+  </si>
+  <si>
+    <t>50201-50215</t>
+  </si>
+  <si>
+    <t>Cryptocurrency money laundering is a pressing issue, as it not only facilitates and hides criminal activities but also disrupts markets and the overall financial system. To respond this challenge, researchers are trying to develop robust Anti-Money Laundering (AML) frameworks. These efforts play a crucial role in promoting societal welfare by mitigating the impact of criminal activities. This paper explores the application of Graph Neural Networks (GNNs) for classifying Bitcoin transactions. The research specifically employs Graph Convolutional Networks (GCNs), Graph Attention Networks (GATs), the Chebyshev spatial convolutional neural networks, and GraphSAGE networks. Based on the dataset analysis, we experiment with different subsets of features. Our findings suggest that the use of Graph Neural Network convolutions, combined with a final linear layer and skip connections, allow for an improvement in the state-of-the-art results, especially when Chebyshev and GATv2 convolutions are used.</t>
+  </si>
+  <si>
+    <t>Cryptocurrency;Fraud;Automated machine learning;Chebyshev approximation;Graph convolutional networks;Random forests;Online banking;Machine learning algorithms;Laplace equations;Heuristic algorithms;Anti-money laundering;deep learning;graph neural networks;classification</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2025.3552240</t>
+  </si>
+  <si>
+    <t>9821871</t>
+  </si>
+  <si>
+    <t>Schmitt, Eglantine</t>
+  </si>
+  <si>
+    <t>The Art of Data Visualization</t>
+  </si>
+  <si>
+    <t>187-217</t>
+  </si>
+  <si>
+    <t>Data visualization plays a critical role in both understanding data, i.e. in the analyst's interpretation of the results of the computations made on the data, and in conveying that understanding. Historically, the emergence of visualization software has greatly facilitated and spread the use of data visualization. In the fields of human–machine interfaces and ergonomics, which are concerned with data visualization and are derived in particular from cognitive sciences, visualization can be evaluated on a measurable readability criterion. Revealing the epistemic value of data entails both giving meaning to certain signs and discarding others. In the digital context, design is first associated with what is visible on the screen: the graphical user interface. It is thus assimilated to a work of graphic creation (or modification), which consists of making aesthetic an already existing interface created by the developers.</t>
+  </si>
+  <si>
+    <t>Data visualization;Graphics;Art;Visualization;Image color analysis;Software;Big Data</t>
+  </si>
+  <si>
+    <t>10.1002/9781119777014.ch6</t>
+  </si>
+  <si>
+    <t>Big Data: An Art of Decision Making</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>9781119777007</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9821871</t>
+  </si>
+  <si>
+    <t>9928435</t>
+  </si>
+  <si>
+    <t>Marakas, George M. and Aguirre-Urreta, Miguel and Shoja, Amin and Kim, Eunyoung and Wang, Shangjun</t>
+  </si>
+  <si>
+    <t>Computer self-efficacy (CSE) has captured the interest of researchers from widely diverse knowledge domains for over four decades. During that time, the realm of computer adoption and use has evolved and flourished. Along with this evolution, our understanding of CSE, its utility in behavior modeling and training development, and its relationship to a diverse array of antecedents and precedents has continued to evolve. This monograph provides a comprehensive history of the CSE construct as it has been developed and applied within the field of information systems (IS), and within the broader academic communities that benefit from reference to IS research contributions. The authors present the breadth and depth of the CSE construct and offer a framework of extant knowledge and implications for future research within this knowledge domain. The principal contribution of this work is the assemblage of the bulk of the authors’ understanding and knowledge regarding the CSE construct and its associated streams of research into a single compendium. It is intended to facilitate future researchers to access the current thinking regarding the CSE construct and direct their efforts to the continued advancement of our understanding of computer self-efficacy.</t>
+  </si>
+  <si>
+    <t>The Computer Self-Efficacy Construct: A History of Application in Information Systems Research</t>
+  </si>
+  <si>
+    <t>9781638280811</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9928435</t>
+  </si>
+  <si>
+    <t>10520409</t>
+  </si>
+  <si>
+    <t>Dutta, Ashutosh and Hammad, Eman and Enright, Michael and Behmann, Fawzi and Chorti, Arsenia and Cheema, Ahmad and Kadio, Kassi and Urbina-Pineda, Julia and Alam, Khaled and Limam, Ahmed and Chu, Fred and Lester, John and Park, Jong-Geun and Bio-Ukeme, Joseph and Pawar, Sanjay S and Layton, Roslyn and Ramchandran, Prakash and Okonkwo, Kingsley and Ong, Lyndon and Emmelmann, Marc and Issa, Omneya and Arul, Rajakumar and Malik, Sireen and Krishnan, Sivarama and Sugumar, Suresh and Lala, Tk and Chng, Baw and Rawal, Bharat and Sajid, Taha and Lai, Haobo and Carvalho, Glaucio and Borst, Matthew and Kloza, Brad</t>
+  </si>
+  <si>
+    <t>INGR Roadmap Security and Privacy Chapter</t>
+  </si>
+  <si>
+    <t>6-87</t>
+  </si>
+  <si>
+    <t>5G/6G technologies provide ubiquitous connectivity while also addressing the demands of both individual consumers and businesses [1]. 5G/6G technologies are expected to provide higher throughput, lower latency, higher density and mobility range without compromising reliability. By virtue of its flexibility and an agile development methodology that uses modular network functions, 5G/6G Networks support various use cases that are both scalable and cost-effective. 6G can support exciting new use cases, including massive IoT, smart transportation, e-Health, smart cities, tactile computing, kinesthetic communication, and holographic interactions. 5G and beyond technologies present a paradigm shift of wireless mobile communication[1].</t>
+  </si>
+  <si>
+    <t>Wireless communication;Privacy;5G mobile communication;Smart cities;Throughput;Smart transportation;Security;Risk management;Reliability;Computer crime;5G Cybersecurity;security;privacy;data protection;reliability;resilience;mMTC;URLLC;SDN / NFV;cyber risk assessment and management;threat scenarios;cyber-attacks;security controls;mitigation;defense</t>
+  </si>
+  <si>
+    <t>10.1109/FNWF58287.2023.10520409</t>
+  </si>
+  <si>
+    <t>2770-7679</t>
+  </si>
+  <si>
+    <t>2023 IEEE Future Networks World Forum (FNWF)</t>
+  </si>
+  <si>
+    <t>8384202</t>
+  </si>
+  <si>
+    <t>Blythe, Mark and Encinas, Enrique</t>
+  </si>
+  <si>
+    <t>Any design process involves an imaginative act, a picturing of the world as other than it is. Fiction has long played a part in design research in the form of scenarios, personas, sketches, paper-based prototypes, simulations, prototypes, and speculative design. The term “design fiction” has been recently adopted to describe more elaborate and detailed representations of products and services that do not exist yet. Design fiction is an emerging practice and there are several competing definitions and forms. Research Fiction and Thought Experiments in Design traces design fiction from the Italian radical design of the 1960s through British Art Schools in the late 1990s to contemporary adaptations of the practice by companies like Google, Microsoft and Facebook. Design fiction is now produced regularly by individuals launching Kickstarter campaigns, corporations selling visions of future products and governments imagining new digital services. But there is little agreement about the status of such fictions: what constitutes a good fiction? How does fiction relate to research? In what sense does fiction contribute to existing knowledge? Although fiction can sometimes result in accurate prediction, this is not its main value. It is rather the creation of ambiguous artefacts that help us think carefully about emerging technologies and their potential impact. Fiction may seem to be the antithesis of empirical enquiry but it is often employed in the form of “thought experiments” in Physics, Mathematics, Ethics and Philosophy. Research Fiction and Thought Experiments in Design argues that design fiction can also be considered as a form of thought experiment. Excerpts from a fictional Wikipedia article about Valdis Ozols, a Latvian historian and author writing design fiction in the 1940s, precede each section as think pieces about the nature and value of fiction. The text is illustrated with pages from a fictional design workbook written in an invented language.</t>
+  </si>
+  <si>
+    <t>10.1561/1100000070</t>
+  </si>
+  <si>
+    <t>Research Fiction and Thought Experiments in Design</t>
+  </si>
+  <si>
+    <t>9781680834192</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8384202</t>
+  </si>
+  <si>
+    <t>10251357</t>
+  </si>
+  <si>
+    <t>Antic, Dr. Alex and Thompson, John K.</t>
+  </si>
+  <si>
+    <t>Get your hands on the secret recipe for a rewarding career in data science from 18 AI leaders Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesGain access to insights and expertise from data science leaders shared in one-on-one interviewsGet pragmatic advice on how to become a successful data scientist and data science leaderReceive guidance to overcome common pitfalls and challenges and ensure your projects’ successBook DescriptionA Gartner prediction in 2018 led to numerous articles stating that "85% of AI and machine learning projects fail to deliver.” Although it's unclear whether a mass extinction event occurred for AI implementations at the end of 2022, the question remains: how can I ensure that my project delivers value and doesn't become a statistic? The demand for data scientists has only grown since 2015, when they were dubbed the new “rock stars” of business. But how can you become a data science rock star? As a new senior data leader, how can you build and manage a productive team? And what is the path to becoming a chief data officer? Creators of Intelligence is a collection of in-depth, one-on-one interviews where Dr. Alex Antic, a recognized data science leader, explores the answers to these questions and more with some of the world's leading data science leaders and CDOs. Interviews with: Cortnie Abercrombie, Edward Santow, Kshira Saagar, Charles Martin, Petar Veličković, Kathleen Maley, Kirk Borne, Nikolaj Van Omme, Jason Tamara Widjaja, Jon Whittle, Althea Davis, Igor Halperin, Christina Stathopoulos, Angshuman Ghosh, Maria Milosavljevic, Dr. Meri Rosich, Dat Tran, and Stephane Doyen.What you will learnFind out where to start with AI ethics and how to evolve from frameworks to practiceDiscover tips on building and managing a data science teamReceive advice for organizations seeking to build or mature a data science capabilityStop beating your head against a brick wall – pick the environment that’ll support your successRead stories from successful data leaders as they reflect on the successes and failures in data strategy developmentUnderstand how business areas can best work with data science teams to drive business valueWho this book is forThis book is for a wide range of audience, from people working in the data science industry through to data science leaders and chief data officers. This book will also cater to senior business leaders interested in learning how data and analytics are used to support decision-making in different domains and sectors. Students contemplating a career in artificial intelligence (AI) and the broader data sector will also find this book useful, along with anyone developing and delivering university-level education, including undergraduate, postgraduate, and executive programs.</t>
+  </si>
+  <si>
+    <t>Creators of Intelligence: Industry secrets from AI leaders that you can easily apply to advance your data science career</t>
+  </si>
+  <si>
+    <t>9781804619315</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251357</t>
+  </si>
+  <si>
+    <t>10320221</t>
+  </si>
+  <si>
+    <t>Minoli, Daniel and Occhiogrosso, Benedict</t>
+  </si>
+  <si>
+    <t>Current and Evolving Applications to Natural Language Processing</t>
+  </si>
+  <si>
+    <t>65-116</t>
+  </si>
+  <si>
+    <t>Speech synthesis, automatic speech recognition, and basic text&amp;#x2010;to&amp;#x2010;speech have been around for decades. Now, at the intersection of computer science, artificial intelligence, and computational linguistics, one finds advanced fields that include natural language processing (NLP), natural language understanding (NLU), and natural language generation (NLG), that combine older capabilities with newer content creation techniques. This chapter focuses on NLP technologies. Language processing has existed for some time and has utilized a number of techniques. In recent years, however, these disciplines, and NLG in particular, have seen significant progress because of the application of machine learning and, more specifically, deep learning techniques. NLG is the process or mechanism of generating narratives, descriptions, dialogs, story&amp;#x2010;telling in a natural language starting from/with structured data. Neural networks, in particular recurrent neural networks, now comprise the leading approaches to NLP/NLU tasks.</t>
+  </si>
+  <si>
+    <t>Natural language processing;Artificial intelligence;Computational modeling;Hidden Markov models;Training;Task analysis;Semantics</t>
+  </si>
+  <si>
+    <t>10.1002/9781394190034.ch2</t>
+  </si>
+  <si>
+    <t>AI Applications to Communications and Information Technologies: The Role of Ultra Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>9781394190027</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10320221</t>
+  </si>
+  <si>
+    <t>10163524</t>
+  </si>
+  <si>
+    <t>Yıldırım, Savaş and Chenaghlu, Meysam Asgari-</t>
+  </si>
+  <si>
+    <t>Take a problem-solving approach to learning all about transformers and get up and running in no time by implementing methodologies that will build the future of NLPKey FeaturesExplore quick prototyping with up-to-date Python libraries to create effective solutions to industrial problemsSolve advanced NLP problems such as named-entity recognition, information extraction, language generation, and conversational AIMonitor your model's performance with the help of BertViz, exBERT, and TensorBoardBook DescriptionTransformer-based language models have dominated natural language processing (NLP) studies and have now become a new paradigm. With this book, you'll learn how to build various transformer-based NLP applications using the Python Transformers library. The book gives you an introduction to Transformers by showing you how to write your first hello-world program. You'll then learn how a tokenizer works and how to train your own tokenizer. As you advance, you'll explore the architecture of autoencoding models, such as BERT, and autoregressive models, such as GPT. You'll see how to train and fine-tune models for a variety of natural language understanding (NLU) and natural language generation (NLG) problems, including text classification, token classification, and text representation. This book also helps you to learn efficient models for challenging problems, such as long-context NLP tasks with limited computational capacity. You'll also work with multilingual and cross-lingual problems, optimize models by monitoring their performance, and discover how to deconstruct these models for interpretability and explainability. Finally, you'll be able to deploy your transformer models in a production environment. By the end of this NLP book, you'll have learned how to use Transformers to solve advanced NLP problems using advanced models.What you will learnExplore state-of-the-art NLP solutions with the Transformers libraryTrain a language model in any language with any transformer architectureFine-tune a pre-trained language model to perform several downstream tasksSelect the right framework for the training, evaluation, and production of an end-to-end solutionGet hands-on experience in using TensorBoard and Weights &amp; BiasesVisualize the internal representation of transformer models for interpretabilityWho this book is forThis book is for deep learning researchers, hands-on NLP practitioners, as well as ML/NLP educators and students who want to start their journey with Transformers. Beginner-level machine learning knowledge and a good command of Python will help you get the best out of this book.</t>
+  </si>
+  <si>
+    <t>Mastering Transformers: Build state-of-the-art models from scratch with advanced natural language processing techniques</t>
+  </si>
+  <si>
+    <t>9781801078894</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163524</t>
+  </si>
+  <si>
+    <t>9394896</t>
+  </si>
+  <si>
+    <t>2 Coming to Terms with Creative Machines</t>
+  </si>
+  <si>
+    <t>43-70</t>
+  </si>
+  <si>
+    <t>While artists like Cohen, Lewis, and Cope were reflexively tinkering with their machines, a great body of research and commentary has risen up on the nature of human creativity. This spans myriad academic areas, from developmental and evolutionary psychology to organization science, management, and philosophy. As a subject of study, creativity became a topic of serious focus in the nineteenth century and one of great social importance in the twentieth. In the twenty-first century, it is a veritable juggernaut of debate and research, reshaping our cities, governments, and corporations.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9394896</t>
+  </si>
+  <si>
+    <t>10558723</t>
+  </si>
+  <si>
+    <t>Balog, Krisztian and Zhai, ChengXiang</t>
+  </si>
+  <si>
+    <t>Information access systems, such as search engines, recommender systems, and conversational assistants, have become integral to our daily lives as they help us satisfy our information needs. However, evaluating the effectiveness of these systems presents a complex scientific challenge, rooted in the difficulty of assessing a system’s overall effectiveness in assisting users to complete tasks through interactive support, and by the substantial variation in user behaviour and preferences. This monograph focuses on providing a thorough understanding of user simulation techniques designed specifically for evaluation purposes. The authors begin with a background of information access system evaluation and explore the diverse applications of user simulation. Subsequently, they systematically review the major research progress in user simulation, covering both general frameworks for designing user simulators, utilizing user simulation for evaluation, and specific models and algorithms for simulating user interactions with search engines, recommender systems, and conversational assistants. Realizing that user simulation is an interdisciplinary research topic, whenever possible, the authors establish connections with related fields, including machine learning, dialogue systems, user modelling, and economics. This monograph provides a systematic review of user simulation techniques aimed at giving designers methods for successfully evaluating and improving modern information access systems.</t>
+  </si>
+  <si>
+    <t>User Simulation for Evaluating Information Access Systems</t>
+  </si>
+  <si>
+    <t>9781638283799</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10558723</t>
+  </si>
+  <si>
+    <t>10745360</t>
+  </si>
+  <si>
+    <t>Hunger, Michael and Needham, Mark and Simons, Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dive into DuckDB and start processing gigabytes of data with ease—all with no data warehouse. DuckDB is a cutting-edge SQL database that makes it incredibly easy to analyze big data sets right from your laptop. In DuckDB in Action you’ll learn everything you need to know to get the most out of this awesome tool, keep your data secure on prem, and save you hundreds on your cloud bill. From data ingestion to advanced data pipelines, you’ll learn everything you need to get the most out of DuckDB—all through hands-on examples. Open up DuckDB in Action and learn how to:  Read and process data from CSV, JSON and Parquet sources both locally and remote Write analytical SQL queries, including aggregations, common table expressions, window functions, special types of joins, and pivot tables Use DuckDB from Python, both with SQL and its "Relational"-API, interacting with databases but also data frames Prepare, ingest and query large datasets Build cloud data pipelines Extend DuckDB with custom functionality  Pragmatic and comprehensive, DuckDB in Action introduces the DuckDB database and shows you how to use it to solve common data workflow problems. You won’t need to read through pages of documentation—you’ll learn as you work. Get to grips with DuckDB's unique SQL dialect, learning to seamlessly load, prepare, and analyze data using SQL queries. Extend DuckDB with both Python and built-in tools such as MotherDuck, and gain practical insights into building robust and automated data pipelines.</t>
+  </si>
+  <si>
+    <t>SQL;CLI;Python;analyze;process;aggregation;prepare;CSV;JSON;ingest;fast;query;cloud;pipelines;relational;custom;frames;Postgres;SQLite;extend;structured;data;Parquet</t>
+  </si>
+  <si>
+    <t>DuckDB in Action</t>
+  </si>
+  <si>
+    <t>9781633437258</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10745360</t>
+  </si>
+  <si>
+    <t>9782477</t>
+  </si>
+  <si>
+    <t>Harris, William A.</t>
+  </si>
+  <si>
+    <t>A revelatory tale of how the human brain develops, from conception to birth and beyondBy the time a baby is born, its brain is equipped with billions of intricately crafted neurons wired together through trillions of interconnections to form a compact and breathtakingly efficient supercomputer. Zero to Birth takes you on an extraordinary journey to the very edge of creation, from the moment of an egg’s fertilization through each step of a human brain’s development in the womb—and even a little beyond.As pioneering experimental neurobiologist W. A. Harris guides you through the process of how the brain is built, he takes up the biggest questions that scientists have asked about the developing brain, describing many of the thrilling discoveries that were foundational to our current understanding. He weaves in a remarkable evolutionary story that begins billions of years ago in the Proterozoic eon, when multicellular animals first emerged from single-cell organisms, and reveals how the growth of a fetal brain over nine months reflects the brain’s evolution through the ages. Our brains have much in common with those of other animals, and Harris offers an illuminating look at how comparative animal studies have been crucial to understanding what makes a human brain human.An unforgettable chronicle of one of nature’s greatest achievements, Zero to Birth describes how the brain’s incredible feat of orchestrated growth ensures that every brain is unique, and how breakthroughs at the frontiers of science are helping us to decode many traits that only reveal themselves later in life.</t>
+  </si>
+  <si>
+    <t>Neuron;Embryo;Growth cone;Synapsis;Motor neuron;Neural tube;Axon;Gene;Neural stem cell;Stem cell;Neural development;Neural crest;Protein;Spinal cord;Hox gene;Morphogen;Gastrulation;FOXP2;Neuroblastoma;Apoptosis;Neuroglia;Critical period;Neural tube defect;Progenitor cell;Ganglion cell;Human brain;Hindbrain;Immortalised cell line;Dendrite;Hebbian theory;Protocadherin;Marian Diamond;Reelin;Blastula;Neural plate;Neuroblast;Reticular theory;Myocyte;Sonic hedgehog;Spindle apparatus;Midbrain;Renshaw cell;Chemical synapse;Broca's area;Hirschsprung's disease;Eric Knudsen;Cerebral atrophy;Petri dish;Neuron doctrine;Lancelot Hogben;Endocrinology;White blood cell;Nematode;Cancer cell;Homeosis;Retinoic acid;Filopodia;Lateralization of brain function;Sydney Brenner;Zygote;Embryology;Cerebral cortex;Synaptic plasticity;Agrin;Cell type;Visual word form area;Vertebrate;Antibody;Hans Spemann;Degenerative disease;Model organism;Muscle;Neuroimaging;Action potential;Nervous tissue;Angiogenesis;Ectoderm;Thrombospondin;Proneural genes;Axon guidance;Down syndrome;Thomas Hunt Morgan;Charles Darwin;Spina bifida;Reeler;Forebrain;John Gurdon;Torsten Wiesel;Ross Granville Harrison;Evolution;Brain asymmetry;Neuroepithelial cell;Transformation (genetics);Astrocyte;Purkinje cell;Twin;Cyclopamine;Organoid;Roel Nusse;Sarcoma</t>
+  </si>
+  <si>
+    <t>Zero to Birth: How the Human Brain Is Built</t>
+  </si>
+  <si>
+    <t>9780691237077</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9782477</t>
+  </si>
+  <si>
+    <t>10769355</t>
+  </si>
+  <si>
+    <t>Howells, Jon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge the gap between business and data science by learning how to interpret machine learning and AI models, manage data teams, and achieve impactful results Key FeaturesMaster the concepts of statistics and ML to interpret models and guide decisionsIdentify valuable AI use cases and manage data science projects from start to finishEmpower top data science teams to solve complex problems and build AI productsPurchase of the print Kindle book includes a free PDF eBookBook DescriptionAs data science and artificial intelligence (AI) become prevalent across industries, executives without formal education in statistics and machine learning, as well as data scientists moving into leadership roles, must learn how to make informed decisions about complex models and manage data teams. This book will elevate your leadership skills by guiding you through the core concepts of data science and AI. This comprehensive guide is designed to bridge the gap between business needs and technical solutions, empowering you to make informed decisions and drive measurable value within your organization. Through practical examples and clear explanations, you'll learn how to collect and analyze structured and unstructured data, build a strong foundation in statistics and machine learning, and evaluate models confidently. By recognizing common pitfalls and valuable use cases, you'll plan data science projects effectively, from the ground up to completion. Beyond technical aspects, this book provides tools to recruit top talent, manage high-performing teams, and stay up to date with industry advancements. By the end of this book, you’ll be able to characterize the data within your organization and frame business problems as data science problems.What you will learnDiscover how to interpret common statistical quantities and make data-driven decisionsExplore ML concepts as well as techniques in supervised, unsupervised, and reinforcement learningFind out how to evaluate statistical and machine learning modelsUnderstand the data science lifecycle, from development to monitoring of models in productionKnow when to use ML, statistical modeling, or traditional BI methodsManage data teams and data science projects effectivelyWho this book is forThis book is designed for executives who want to understand and apply data science methods to enhance decision-making. It is also for individuals who work with or manage data scientists and machine learning engineers, such as chief data officers (CDOs), data science managers, and technical project managers. </t>
+  </si>
+  <si>
+    <t>Data Science for Decision Makers: Enhance your leadership skills with data science and AI expertise</t>
+  </si>
+  <si>
+    <t>9781837638345</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769355</t>
+  </si>
+  <si>
+    <t>9336039</t>
+  </si>
+  <si>
+    <t>Furqan, Haji M. and Solaija, Muhammad Sohaib J. and Türkmen, Halise and Arslan, Hüseyin</t>
+  </si>
+  <si>
+    <t>Wireless Communication, Sensing, and REM: A Security Perspective</t>
+  </si>
+  <si>
+    <t>287-321</t>
+  </si>
+  <si>
+    <t>The diverse requirements of next-generation communication systems necessitate awareness, flexibility, and intelligence as essential building blocks of future wireless networks. The awareness can be obtained from the radio signals in the environment using wireless sensing and radio environment mapping (REM) methods. This is, however, accompanied by threats such as eavesdropping, manipulation, and disruption posed by malicious attackers. To this end, this work analyzes the wireless sensing and radio environment awareness mechanisms, highlighting their vulnerabilities and provides solutions for mitigating them. As an example, the different threats to REM and its consequences in a vehicular communication scenario are described. Furthermore, the use of REM for securing communications is discussed and future directions regarding sensing/REM security are highlighted.</t>
+  </si>
+  <si>
+    <t>Sensors;Communication system security;Wireless sensor networks;Robot sensing systems;Wireless networks;Jamming;Hash functions;5G;6G;cryptography;joint radar and communication (JRC);physical layer security;radio environment mapping (REM);REM security;sensing security;vehicle-to-everything (V2X) communication;wireless sensing;WLAN sensing</t>
+  </si>
+  <si>
+    <t>10.1109/OJCOMS.2021.3054066</t>
+  </si>
+  <si>
+    <t>9858153</t>
+  </si>
+  <si>
+    <t>Ojeda-Castelo, Juan Jesus and Capobianco-Uriarte, Maria de Las Mercedes and Piedra-Fernandez, Jose Antonio and Ayala, Rosa</t>
+  </si>
+  <si>
+    <t>A Survey on Intelligent Gesture Recognition Techniques</t>
+  </si>
+  <si>
+    <t>87135-87156</t>
+  </si>
+  <si>
+    <t>Gesture recognition is an ideal means of interaction because it allows users not to have to make contact with any surface, which is a safe and hygienic means, especially in the pandemic situation that is occurring worldwide. However, gesture recognition is not a new discipline and it has been researched for many years but this type of interaction has not succeeded in replacing the keyboard and mouse. It is very useful to know about the advances that are being made with artificial intelligence in gesture recognition to be able to perform a more robust and reliable gesture recognition with a low response time. As it is, deep learning is being integrated into various areas to increase improvement in performance and one such area is artificial intelligence. In this way, there is the possibility that in the future the recognition of gestures will be a viable option as a means of daily interaction for the user and the main objective of this paper is to contribute to that process. For this reason, this study has analyzed 571 papers related to gesture recognition and artificial intelligence. This analysis has extracted relevant information related to scientific production, such as the most productive authors and journals or the most pertinent articles on the subject. Furthermore, we have developed our own model, which shows the relationship between the types of gesture recognition and the artificial intelligence techniques that have been applied for this task.</t>
+  </si>
+  <si>
+    <t>Gesture recognition;Artificial intelligence;Feature extraction;Face recognition;Three-dimensional displays;Solid modeling;Hidden Markov models;Artificial intelligence;deep learning;gesture recognition;machine learning</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2022.3199358</t>
   </si>
 </sst>
 </file>
@@ -448,7 +2812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +2826,3527 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>210</v>
+      </c>
+      <c r="P23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>212</v>
+      </c>
+      <c r="R23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>217</v>
+      </c>
+      <c r="P24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>218</v>
+      </c>
+      <c r="R24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>233</v>
+      </c>
+      <c r="R26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>239</v>
+      </c>
+      <c r="P27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>241</v>
+      </c>
+      <c r="R27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>247</v>
+      </c>
+      <c r="P28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>248</v>
+      </c>
+      <c r="R28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>255</v>
+      </c>
+      <c r="R29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>262</v>
+      </c>
+      <c r="R30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="s">
+        <v>271</v>
+      </c>
+      <c r="N31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>278</v>
+      </c>
+      <c r="P32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>280</v>
+      </c>
+      <c r="R32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O33" t="s">
+        <v>286</v>
+      </c>
+      <c r="P33" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>287</v>
+      </c>
+      <c r="R33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>304</v>
+      </c>
+      <c r="P35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>306</v>
+      </c>
+      <c r="R35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="O36" t="s">
+        <v>311</v>
+      </c>
+      <c r="P36" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>312</v>
+      </c>
+      <c r="R36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>317</v>
+      </c>
+      <c r="P37" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>318</v>
+      </c>
+      <c r="R37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>323</v>
+      </c>
+      <c r="P38" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>324</v>
+      </c>
+      <c r="R38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>329</v>
+      </c>
+      <c r="P39" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>330</v>
+      </c>
+      <c r="R39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E40" t="s">
+        <v>334</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="s">
+        <v>339</v>
+      </c>
+      <c r="N40" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>343</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>344</v>
+      </c>
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s">
+        <v>348</v>
+      </c>
+      <c r="M41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>351</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>353</v>
+      </c>
+      <c r="P42" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>354</v>
+      </c>
+      <c r="R42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="O43" t="s">
+        <v>359</v>
+      </c>
+      <c r="P43" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>360</v>
+      </c>
+      <c r="R43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" t="s">
+        <v>364</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="O44" t="s">
+        <v>367</v>
+      </c>
+      <c r="P44" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>368</v>
+      </c>
+      <c r="R44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>370</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>371</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" t="s">
+        <v>372</v>
+      </c>
+      <c r="J45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s">
+        <v>374</v>
+      </c>
+      <c r="N45" t="s">
+        <v>272</v>
+      </c>
+      <c r="O45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" t="s">
+        <v>378</v>
+      </c>
+      <c r="E46" t="s">
+        <v>379</v>
+      </c>
+      <c r="F46" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" t="s">
+        <v>380</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="s">
+        <v>385</v>
+      </c>
+      <c r="N46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>388</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>394</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="N48" t="s">
+        <v>182</v>
+      </c>
+      <c r="O48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>403</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>292</v>
+      </c>
+      <c r="I49" t="s">
+        <v>404</v>
+      </c>
+      <c r="J49" t="s">
+        <v>405</v>
+      </c>
+      <c r="K49" t="s">
+        <v>406</v>
+      </c>
+      <c r="L49" t="s">
+        <v>407</v>
+      </c>
+      <c r="M49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>409</v>
+      </c>
+      <c r="F50" t="s">
+        <v>284</v>
+      </c>
+      <c r="J50" t="s">
+        <v>410</v>
+      </c>
+      <c r="K50" t="s">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s">
+        <v>412</v>
+      </c>
+      <c r="P50" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>413</v>
+      </c>
+      <c r="R50" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>416</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" t="s">
+        <v>417</v>
+      </c>
+      <c r="O51" t="s">
+        <v>418</v>
+      </c>
+      <c r="P51" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>420</v>
+      </c>
+      <c r="R51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>423</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" t="s">
+        <v>424</v>
+      </c>
+      <c r="O52" t="s">
+        <v>425</v>
+      </c>
+      <c r="P52" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>426</v>
+      </c>
+      <c r="R52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>429</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" t="s">
+        <v>430</v>
+      </c>
+      <c r="K53" t="s">
+        <v>431</v>
+      </c>
+      <c r="O53" t="s">
+        <v>432</v>
+      </c>
+      <c r="P53" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>433</v>
+      </c>
+      <c r="R53" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>435</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>436</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" t="s">
+        <v>438</v>
+      </c>
+      <c r="O54" t="s">
+        <v>439</v>
+      </c>
+      <c r="P54" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>440</v>
+      </c>
+      <c r="R54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>442</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>443</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s">
+        <v>444</v>
+      </c>
+      <c r="K55" t="s">
+        <v>445</v>
+      </c>
+      <c r="L55" t="s">
+        <v>446</v>
+      </c>
+      <c r="N55" t="s">
+        <v>86</v>
+      </c>
+      <c r="O55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>448</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>449</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" t="s">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>452</v>
+      </c>
+      <c r="P56" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>453</v>
+      </c>
+      <c r="R56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>455</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" t="s">
+        <v>456</v>
+      </c>
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" t="s">
+        <v>457</v>
+      </c>
+      <c r="J57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>459</v>
+      </c>
+      <c r="P57" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>461</v>
+      </c>
+      <c r="R57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>464</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>465</v>
+      </c>
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>292</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" t="s">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s">
+        <v>469</v>
+      </c>
+      <c r="M58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>471</v>
+      </c>
+      <c r="D59" t="s">
+        <v>472</v>
+      </c>
+      <c r="E59" t="s">
+        <v>473</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>474</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>480</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>481</v>
+      </c>
+      <c r="E60" t="s">
+        <v>482</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
+        <v>483</v>
+      </c>
+      <c r="J60" t="s">
+        <v>484</v>
+      </c>
+      <c r="K60" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="s">
+        <v>487</v>
+      </c>
+      <c r="N60" t="s">
+        <v>142</v>
+      </c>
+      <c r="O60" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>489</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>490</v>
+      </c>
+      <c r="E61" t="s">
+        <v>491</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s">
+        <v>137</v>
+      </c>
+      <c r="J61" t="s">
+        <v>492</v>
+      </c>
+      <c r="K61" t="s">
+        <v>493</v>
+      </c>
+      <c r="L61" t="s">
+        <v>494</v>
+      </c>
+      <c r="M61" t="s">
+        <v>495</v>
+      </c>
+      <c r="N61" t="s">
+        <v>496</v>
+      </c>
+      <c r="O61" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>498</v>
+      </c>
+      <c r="B62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
+      <c r="F62" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62" t="s">
+        <v>500</v>
+      </c>
+      <c r="O62" t="s">
+        <v>501</v>
+      </c>
+      <c r="P62" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>502</v>
+      </c>
+      <c r="R62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>504</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>505</v>
+      </c>
+      <c r="D63" t="s">
+        <v>506</v>
+      </c>
+      <c r="E63" t="s">
+        <v>507</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>508</v>
+      </c>
+      <c r="I63" t="s">
+        <v>509</v>
+      </c>
+      <c r="J63" t="s">
+        <v>510</v>
+      </c>
+      <c r="K63" t="s">
+        <v>511</v>
+      </c>
+      <c r="L63" t="s">
+        <v>512</v>
+      </c>
+      <c r="M63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>514</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>515</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>516</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>517</v>
+      </c>
+      <c r="J64" t="s">
+        <v>518</v>
+      </c>
+      <c r="K64" t="s">
+        <v>519</v>
+      </c>
+      <c r="L64" t="s">
+        <v>520</v>
+      </c>
+      <c r="M64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>521</v>
+      </c>
+      <c r="B65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" t="s">
+        <v>522</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" t="s">
+        <v>523</v>
+      </c>
+      <c r="O65" t="s">
+        <v>524</v>
+      </c>
+      <c r="P65" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>525</v>
+      </c>
+      <c r="R65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>527</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>528</v>
+      </c>
+      <c r="E66" t="s">
+        <v>529</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>530</v>
+      </c>
+      <c r="J66" t="s">
+        <v>531</v>
+      </c>
+      <c r="O66" t="s">
+        <v>532</v>
+      </c>
+      <c r="P66" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>533</v>
+      </c>
+      <c r="R66" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>535</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>536</v>
+      </c>
+      <c r="D67" t="s">
+        <v>537</v>
+      </c>
+      <c r="E67" t="s">
+        <v>538</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" t="s">
+        <v>539</v>
+      </c>
+      <c r="K67" t="s">
+        <v>540</v>
+      </c>
+      <c r="L67" t="s">
+        <v>541</v>
+      </c>
+      <c r="M67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>543</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="s">
+        <v>544</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="O68" t="s">
+        <v>546</v>
+      </c>
+      <c r="P68" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>547</v>
+      </c>
+      <c r="R68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>549</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D69" t="s">
+        <v>551</v>
+      </c>
+      <c r="E69" t="s">
+        <v>552</v>
+      </c>
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
+        <v>553</v>
+      </c>
+      <c r="J69" t="s">
+        <v>554</v>
+      </c>
+      <c r="K69" t="s">
+        <v>555</v>
+      </c>
+      <c r="L69" t="s">
+        <v>556</v>
+      </c>
+      <c r="M69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>558</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>559</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>560</v>
+      </c>
+      <c r="O70" t="s">
+        <v>561</v>
+      </c>
+      <c r="P70" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>562</v>
+      </c>
+      <c r="R70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>564</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>565</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" t="s">
+        <v>566</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>567</v>
+      </c>
+      <c r="H71" t="s">
+        <v>568</v>
+      </c>
+      <c r="I71" t="s">
+        <v>569</v>
+      </c>
+      <c r="J71" t="s">
+        <v>570</v>
+      </c>
+      <c r="K71" t="s">
+        <v>571</v>
+      </c>
+      <c r="L71" t="s">
+        <v>572</v>
+      </c>
+      <c r="M71" t="s">
+        <v>151</v>
+      </c>
+      <c r="N71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>573</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>574</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>575</v>
+      </c>
+      <c r="F72" t="s">
+        <v>266</v>
+      </c>
+      <c r="G72" t="s">
+        <v>576</v>
+      </c>
+      <c r="I72" t="s">
+        <v>577</v>
+      </c>
+      <c r="J72" t="s">
+        <v>578</v>
+      </c>
+      <c r="K72" t="s">
+        <v>579</v>
+      </c>
+      <c r="L72" t="s">
+        <v>580</v>
+      </c>
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>581</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>582</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" t="s">
+        <v>583</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>344</v>
+      </c>
+      <c r="H73" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s">
+        <v>584</v>
+      </c>
+      <c r="J73" t="s">
+        <v>585</v>
+      </c>
+      <c r="K73" t="s">
+        <v>586</v>
+      </c>
+      <c r="L73" t="s">
+        <v>587</v>
+      </c>
+      <c r="M73" t="s">
+        <v>95</v>
+      </c>
+      <c r="N73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>588</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>589</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>590</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" t="s">
+        <v>591</v>
+      </c>
+      <c r="J74" t="s">
+        <v>592</v>
+      </c>
+      <c r="K74" t="s">
+        <v>593</v>
+      </c>
+      <c r="L74" t="s">
+        <v>594</v>
+      </c>
+      <c r="M74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>595</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>596</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>597</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75" t="s">
+        <v>598</v>
+      </c>
+      <c r="J75" t="s">
+        <v>599</v>
+      </c>
+      <c r="K75" t="s">
+        <v>600</v>
+      </c>
+      <c r="L75" t="s">
+        <v>601</v>
+      </c>
+      <c r="M75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>602</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>603</v>
+      </c>
+      <c r="E76" t="s">
+        <v>604</v>
+      </c>
+      <c r="F76" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" t="s">
+        <v>605</v>
+      </c>
+      <c r="J76" t="s">
+        <v>606</v>
+      </c>
+      <c r="K76" t="s">
+        <v>607</v>
+      </c>
+      <c r="L76" t="s">
+        <v>608</v>
+      </c>
+      <c r="N76" t="s">
+        <v>132</v>
+      </c>
+      <c r="O76" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>610</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>611</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" t="s">
+        <v>612</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>614</v>
+      </c>
+      <c r="L77" t="s">
+        <v>615</v>
+      </c>
+      <c r="M77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>616</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" t="s">
+        <v>617</v>
+      </c>
+      <c r="E78" t="s">
+        <v>618</v>
+      </c>
+      <c r="F78" t="s">
+        <v>284</v>
+      </c>
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+      <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="O78" t="s">
+        <v>621</v>
+      </c>
+      <c r="P78" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>622</v>
+      </c>
+      <c r="R78" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>624</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>617</v>
+      </c>
+      <c r="E79" t="s">
+        <v>625</v>
+      </c>
+      <c r="F79" t="s">
+        <v>284</v>
+      </c>
+      <c r="I79" t="s">
+        <v>626</v>
+      </c>
+      <c r="J79" t="s">
+        <v>627</v>
+      </c>
+      <c r="O79" t="s">
+        <v>621</v>
+      </c>
+      <c r="P79" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>622</v>
+      </c>
+      <c r="R79" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>629</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>630</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" t="s">
+        <v>631</v>
+      </c>
+      <c r="O80" t="s">
+        <v>632</v>
+      </c>
+      <c r="P80" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>633</v>
+      </c>
+      <c r="R80" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>635</v>
+      </c>
+      <c r="B81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" t="s">
+        <v>636</v>
+      </c>
+      <c r="F81" t="s">
+        <v>284</v>
+      </c>
+      <c r="J81" t="s">
+        <v>637</v>
+      </c>
+      <c r="O81" t="s">
+        <v>638</v>
+      </c>
+      <c r="P81" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>639</v>
+      </c>
+      <c r="R81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>641</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>642</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>643</v>
+      </c>
+      <c r="F82" t="s">
+        <v>223</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s">
+        <v>644</v>
+      </c>
+      <c r="J82" t="s">
+        <v>645</v>
+      </c>
+      <c r="K82" t="s">
+        <v>646</v>
+      </c>
+      <c r="L82" t="s">
+        <v>647</v>
+      </c>
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>648</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>649</v>
+      </c>
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>650</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>56</v>
+      </c>
+      <c r="J83" t="s">
+        <v>651</v>
+      </c>
+      <c r="K83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L83" t="s">
+        <v>653</v>
+      </c>
+      <c r="M83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>654</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>655</v>
+      </c>
+      <c r="D84" t="s">
+        <v>656</v>
+      </c>
+      <c r="E84" t="s">
+        <v>657</v>
+      </c>
+      <c r="F84" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" t="s">
+        <v>658</v>
+      </c>
+      <c r="I84" t="s">
+        <v>659</v>
+      </c>
+      <c r="J84" t="s">
+        <v>660</v>
+      </c>
+      <c r="K84" t="s">
+        <v>661</v>
+      </c>
+      <c r="L84" t="s">
+        <v>662</v>
+      </c>
+      <c r="M84" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>664</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>665</v>
+      </c>
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>666</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>667</v>
+      </c>
+      <c r="H85" t="s">
+        <v>668</v>
+      </c>
+      <c r="I85" t="s">
+        <v>669</v>
+      </c>
+      <c r="J85" t="s">
+        <v>670</v>
+      </c>
+      <c r="K85" t="s">
+        <v>671</v>
+      </c>
+      <c r="L85" t="s">
+        <v>672</v>
+      </c>
+      <c r="M85" t="s">
+        <v>95</v>
+      </c>
+      <c r="N85" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>674</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>675</v>
+      </c>
+      <c r="D86" t="s">
+        <v>676</v>
+      </c>
+      <c r="E86" t="s">
+        <v>677</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" t="s">
+        <v>678</v>
+      </c>
+      <c r="J86" t="s">
+        <v>679</v>
+      </c>
+      <c r="K86" t="s">
+        <v>680</v>
+      </c>
+      <c r="L86" t="s">
+        <v>681</v>
+      </c>
+      <c r="M86" t="s">
+        <v>682</v>
+      </c>
+      <c r="N86" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>683</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>684</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>685</v>
+      </c>
+      <c r="F87" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" t="s">
+        <v>292</v>
+      </c>
+      <c r="I87" t="s">
+        <v>686</v>
+      </c>
+      <c r="J87" t="s">
+        <v>687</v>
+      </c>
+      <c r="K87" t="s">
+        <v>688</v>
+      </c>
+      <c r="L87" t="s">
+        <v>689</v>
+      </c>
+      <c r="M87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>690</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>691</v>
+      </c>
+      <c r="E88" t="s">
+        <v>692</v>
+      </c>
+      <c r="F88" t="s">
+        <v>266</v>
+      </c>
+      <c r="I88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J88" t="s">
+        <v>694</v>
+      </c>
+      <c r="K88" t="s">
+        <v>695</v>
+      </c>
+      <c r="L88" t="s">
+        <v>696</v>
+      </c>
+      <c r="O88" t="s">
+        <v>697</v>
+      </c>
+      <c r="P88" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>699</v>
+      </c>
+      <c r="R88" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>701</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>702</v>
+      </c>
+      <c r="F89" t="s">
+        <v>113</v>
+      </c>
+      <c r="J89" t="s">
+        <v>703</v>
+      </c>
+      <c r="O89" t="s">
+        <v>704</v>
+      </c>
+      <c r="P89" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>705</v>
+      </c>
+      <c r="R89" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>707</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" t="s">
+        <v>708</v>
+      </c>
+      <c r="E90" t="s">
+        <v>709</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" t="s">
+        <v>710</v>
+      </c>
+      <c r="J90" t="s">
+        <v>711</v>
+      </c>
+      <c r="K90" t="s">
+        <v>712</v>
+      </c>
+      <c r="L90" t="s">
+        <v>713</v>
+      </c>
+      <c r="M90" t="s">
+        <v>714</v>
+      </c>
+      <c r="N90" t="s">
+        <v>191</v>
+      </c>
+      <c r="O90" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>716</v>
+      </c>
+      <c r="B91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" t="s">
+        <v>717</v>
+      </c>
+      <c r="F91" t="s">
+        <v>395</v>
+      </c>
+      <c r="J91" t="s">
+        <v>718</v>
+      </c>
+      <c r="L91" t="s">
+        <v>719</v>
+      </c>
+      <c r="O91" t="s">
+        <v>720</v>
+      </c>
+      <c r="P91" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>721</v>
+      </c>
+      <c r="R91" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>723</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" t="s">
+        <v>724</v>
+      </c>
+      <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" t="s">
+        <v>725</v>
+      </c>
+      <c r="O92" t="s">
+        <v>726</v>
+      </c>
+      <c r="P92" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>727</v>
+      </c>
+      <c r="R92" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>729</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s">
+        <v>730</v>
+      </c>
+      <c r="E93" t="s">
+        <v>731</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" t="s">
+        <v>732</v>
+      </c>
+      <c r="J93" t="s">
+        <v>733</v>
+      </c>
+      <c r="K93" t="s">
+        <v>734</v>
+      </c>
+      <c r="L93" t="s">
+        <v>735</v>
+      </c>
+      <c r="O93" t="s">
+        <v>736</v>
+      </c>
+      <c r="P93" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>737</v>
+      </c>
+      <c r="R93" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>739</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" t="s">
+        <v>740</v>
+      </c>
+      <c r="F94" t="s">
+        <v>284</v>
+      </c>
+      <c r="J94" t="s">
+        <v>741</v>
+      </c>
+      <c r="O94" t="s">
+        <v>742</v>
+      </c>
+      <c r="P94" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>743</v>
+      </c>
+      <c r="R94" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>745</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>617</v>
+      </c>
+      <c r="E95" t="s">
+        <v>746</v>
+      </c>
+      <c r="F95" t="s">
+        <v>284</v>
+      </c>
+      <c r="I95" t="s">
+        <v>747</v>
+      </c>
+      <c r="J95" t="s">
+        <v>748</v>
+      </c>
+      <c r="O95" t="s">
+        <v>621</v>
+      </c>
+      <c r="P95" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>622</v>
+      </c>
+      <c r="R95" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>750</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>751</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" t="s">
+        <v>752</v>
+      </c>
+      <c r="O96" t="s">
+        <v>753</v>
+      </c>
+      <c r="P96" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>754</v>
+      </c>
+      <c r="R96" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>756</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" t="s">
+        <v>757</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" t="s">
+        <v>758</v>
+      </c>
+      <c r="K97" t="s">
+        <v>759</v>
+      </c>
+      <c r="O97" t="s">
+        <v>760</v>
+      </c>
+      <c r="P97" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>761</v>
+      </c>
+      <c r="R97" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>763</v>
+      </c>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" t="s">
+        <v>764</v>
+      </c>
+      <c r="F98" t="s">
+        <v>113</v>
+      </c>
+      <c r="J98" t="s">
+        <v>765</v>
+      </c>
+      <c r="K98" t="s">
+        <v>766</v>
+      </c>
+      <c r="O98" t="s">
+        <v>767</v>
+      </c>
+      <c r="P98" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>768</v>
+      </c>
+      <c r="R98" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>770</v>
+      </c>
+      <c r="B99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" t="s">
+        <v>771</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" t="s">
+        <v>772</v>
+      </c>
+      <c r="O99" t="s">
+        <v>773</v>
+      </c>
+      <c r="P99" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>774</v>
+      </c>
+      <c r="R99" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>776</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>777</v>
+      </c>
+      <c r="D100" t="s">
+        <v>472</v>
+      </c>
+      <c r="E100" t="s">
+        <v>778</v>
+      </c>
+      <c r="F100" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" t="s">
+        <v>779</v>
+      </c>
+      <c r="J100" t="s">
+        <v>780</v>
+      </c>
+      <c r="K100" t="s">
+        <v>781</v>
+      </c>
+      <c r="L100" t="s">
+        <v>782</v>
+      </c>
+      <c r="M100" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>783</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>784</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>785</v>
+      </c>
+      <c r="F101" t="s">
+        <v>113</v>
+      </c>
+      <c r="G101" t="s">
+        <v>567</v>
+      </c>
+      <c r="I101" t="s">
+        <v>786</v>
+      </c>
+      <c r="J101" t="s">
+        <v>787</v>
+      </c>
+      <c r="K101" t="s">
+        <v>788</v>
+      </c>
+      <c r="L101" t="s">
+        <v>789</v>
+      </c>
+      <c r="M101" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
